--- a/video_details.xlsx
+++ b/video_details.xlsx
@@ -1,37 +1,2249 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gunveenbatra/Desktop/masters-project/influencers-combating-antisemitism/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372E5612-3FDF-7B4E-B057-709C9B590F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView minimized="1" xWindow="900" yWindow="740" windowWidth="29400" windowHeight="17000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="228">
+  <si>
+    <t>Video ID</t>
+  </si>
+  <si>
+    <t>Video Title</t>
+  </si>
+  <si>
+    <t>Video Description</t>
+  </si>
+  <si>
+    <t>Video caption</t>
+  </si>
+  <si>
+    <t>Video comments</t>
+  </si>
+  <si>
+    <t>Channel ID</t>
+  </si>
+  <si>
+    <t>Channel Title</t>
+  </si>
+  <si>
+    <t>Publish time</t>
+  </si>
+  <si>
+    <t>y2YtIBYM4w0</t>
+  </si>
+  <si>
+    <t>Ari Shaffir - JEW (2022) FULL SPECIAL</t>
+  </si>
+  <si>
+    <t>This is my love letter to the culture and religion that raised me. I worked on it harder than I've ever worked on anything. And I'm ...</t>
+  </si>
+  <si>
+    <t>all right let's talk about the Bible yeah the original Bible the Torah not your shitty remake yeah I'm not talking about your all girls Ghostbusters version of the Bible talk about the OG [ __ ] yeah I was raised Orthodox Jewish I don't know what that is that's a frisbee Joe you know that kind second highest level of Jew one step down from Hasidic Jew or as I call them Mortal Combat juice yeah whenever you see him I just go finish him and they'll have no idea what you're talking about it's great the ones with the you know the sideburns the long the curly fries as my black friend calls it yeah my friend missed Pat she came to visit me in New York she'd never seen one there's very few Hasidic Jews in the black ghetto of Atlanta so she saw her first we were talking she just goes like she was like Ori she don't say my name but she's like uh and I'm like or less yeah it's pretty much the same [ __ ] she goes why that man has curly for us and like those are not curly fries she goes what they do and I'm like first of all the grammar on your people is on another planet oh and by you people I don't mean black people I mean non-jews yeah Jews are racist but we don't see skin color we see IQ and income level yeah guys that's all you guys are you ever hear that word [ __ ] it's Yiddish for uh non-jew Yiddish is like Jewish Ebonics [ __ ] means najo and just so you know when you hear it you think it's fun and friendly when they're saying it too it's not they're [ __ ] on you to your face goy's a derogatory word probably my favorite derogatory word yeah because most derogatory words they single out One race or culture make them feel bad not [ __ ] [ __ ] is the most inclusive of all the derogatory words do you know how pompous that is to have as your term for the other that means to them it's one tenth of one percent of the world and then ugh various shades of [ __ ] yeah dude I was raised way religious I went to I went to a seminary called the Yeshiva in Jerusalem for two years after high school so you go to study if you want to become a rabbi uh spoiler alert it did not take anybody who raised religious of any kind yeah where were you guys Jewish obviously what Jehovah's Witness hell yeah dude the [ __ ] Harry Potter of Christianity who else what do you got Baptist what Wesleyan that's a new one dude I've honestly never heard of that one is that some kind of Christ okay you [ __ ] Christians are hilarious with their separations every other religion is just one thing just a Muslim Jewish Buddhist and this [ __ ] 31 Flavors of Jesus foreign Lutheran and Baptist and Southern Baptist which is just like Baptist but with slavery I think so funny and Catholics think they're the best ones too yeah they do they look down on the other ones from an outside perspective Catholics think they're way better than the rest of the Christians and I'm like based on what besides most child rapes per year like what else is quantifiable it's weird though ask a devout Catholic I get older devout Catholic ask if they're Protestant they'll get mad at you they're like we're nothing like Protestants like nothing what's the difference and they'll hit you with something crazy like we believe jesus carried the cross way up top he kind of dragged it a little bit so basically a different religion you're crazy Chris it's your stupid separations you guys still religious now no okay that's good if you are religious that's totally fine it is totally fine there is a solid chance you're gonna hate the next 68 minutes of your life so those of you raise religious uh of any kind do you ever think about what they taught you when you were little now that you're a grown-up guys it's all darker than you remember it it really is I mean let's let's start at the beginning it's the only way to do this Adam and Eve you guys know that story okay if you know that story this is all gonna go over your head tonight here's what happened in six days God created the world on the seventh day he rested you guys remember this one uh and then later God went to Adam he's like Adam how do you like it here how do you like the Garden of Eden and Adam's like oh dude I love it it's awesome plenty of sunshine tons of animals to [ __ ] this place is sweet foreign are you [ __ ] all the animals and Adam was like not all yet he made a lot of apples you're gonna give me some time by the way I killed a frog on Tuesday uh yeah his eyes were picking on his belly split it right open my bad on that one thank you and God was like [ __ ] dude stop talking the animals right now and so Adam was like who should I [ __ ] that and God's like yeah good question fair enough he's like tell you what I'll make another person for you to [ __ ] humans should [ __ ] humans So Adam with no concept of women right there never been a woman ever in history before so when he heard another person who's coming he was just like sweet another dude I can [ __ ] in the butt yeah and God was like no you assume wrong it'll be like a dude but it'll have like a like a front butt and you can [ __ ] the front butt yeah Adam love that idea he was like sweet I could [ __ ] the front butt and the back butt God's like no not [ __ ] backbone I will never change my mind on that foreign you can't [ __ ] we're piss and blood sometimes comes out but not [ __ ] um it Adam's so angry he's like why would you make [ __ ] come and have such a good [ __ ] hole so the girls could have come out he's like dude bottom of the foot I've been thinking about it would be a way better place shaking out real easily wiping is a breeze every puddles of a day it should be bottom of the foot dude and God was like [ __ ] yeah that would have worked maybe a week was rushing it what was the time crunch on that I never understood that it's an important project take your time there's nobody waiting for you there's literally nobody waiting for you so we made Eve and to make Eve you guys remember I made Eve the rip yeah you guys remember this yeah I told Adam I gotta crack off one of your ribs I'm sure Adam was like why is that the new process for making things is from scratch no longer available thank you did you lose Powers dude if you're tired you can take a nap that zebra's been eyeballing me pretty hard yeah you can get it come get it black and white but he goes no I got a crack of a rib so he cracks over on Adam's ribs [ __ ] whatever Abracadabra he makes Eve out of that rib and that's the reason my rabbi's always told me that's the reason that men have one less rib than women have like dates all the way back to Adam and Eve yeah than I grew up I found out that we have the same amount of reps there's a lie they told little Jewish kids I I don't even know what they had to gain do you know how embarrassing it is to find out you're wrong about that at 41 years old I've got a beard dandruff told me so after Adam and Eve and uh and Moses and Noah a few other you know Bible stories that Jews and Christians kind of share you know at that point kind of split off wow we stayed right where we were you split off you guys wrote an unauthorized sequel I had fan fiction that just you added a superhero out of nowhere okay with all these miracles you gotta speed on Miracles I'll give you that you got to be in a Miracles we Crush you [ __ ] on holidays we got a lot of holidays what's the biggest Jewish holiday what do you think Sonica very good boy idiot stupid wrong boy people think it's Nautica because it falls around Christmas and we do presents and stuff just so you guys know it's one of our lowest level holidays Hanukkah is not even our top 40. for real it's on the level of like Arbor Day for your people it just feels big because it falls around that time Presence by the way is not even really part of Hanukkah that's us copying you presence on Hanukkah is a modern Western Civilization part of the holiday my dad grew up in Romania before the Holocaust they didn't do presents back then that's here in America and England it's all these Jewish kids they saw their Christian friends getting presents and they want it in and when two kids want free [ __ ] two kids get free [ __ ] so they went to their dads like Dad how come Christopher gets presents and I don't get presents and their father's like this is you know more or less that so now we do presents eight days of presence it's an eight day holiday oh some people think it's eight times the presence you guys get it's not we're the same amount of parents you have you know we gotta say about it but we just space them out over eight days we get better presence than you you know because we're far richer than you are I don't know what kind of white trash presence you've always got it's gonna be got like a grilled cheese sandwich wrapped in a shopping bag you know what'd you guys get like sock full of pills postcard from your dad written in your mom's handwriting but yeah same amount of presence though I suppose again you're supposed to get one president a day for eight days and then if you have like nine or ten presents you just double up a day or two uh so one year I didn't have eight presidents I only had seven presents my mom didn't know what to do to get me to get me every day a present instead of just getting one extra present you know some [ __ ] like wrapping avocado you dumb [ __ ] instead her fix was a split a present into two and wrap each half separately like I wouldn't know like I opened up day once president I was like oh it's skateboard wheels only I wonder what's in tomorrow's flat oval box it's like you'll never guess I'm like it's for sure skateboard Mom I'm the second smartest race in the world and this is very easy to figure out as it is Korean foreign I'll tell it to you so uh you can talk about this in December with your uh bosses probably at work a long time ago the Jews got kicked out of Israel okay one of the many times that happened over history we are historically we are the weakest race in the world anybody wanted Israel just [ __ ] took it for real Greeks Romans people from Alabama like it doesn't matter dude anybody's like get out of here like I'm going I'm going I'm going I'm going all right beatable I hate it oh here's what I don't really do Impressions here's my only impression I do it's a sound of the soul of a Jew ready yeah all our stories are about survival they're never about succeeding nobody's ever like watch out the Jews are coming yeah foreign we broke our losing streak on that for sure dude I saw this uh I saw this um uh free Palestine March last summer in New York uh and they were all like marching at a big pre-palestine sign but the Palestine part was covered people were like in front of it so it was covered so I couldn't see that part so I just saw the first half um foreign at me I didn't know what to do I just started scrambling I was like oh I'm just heading a little Palestine to get some Palestinian food they're all like there is no little Palestine and if you ask Jews there's also no Pig Palestine yeah so it's the Greeks the Greeks drove us out to the Hanukkah story we were gone for about 100 years and we came back they left they like this place sucks and they [ __ ] took off so they left and then they really they [ __ ] up our Temple like our main you know Church pretty much they like messed I don't know what they did they knocked over chairs and they yeah spray painted dicks on the walls but the main thing they did was they used our oil candles supposed to keep lit all the time that's oil candle and they only had one days worth of oil left and new oil was eight days away and they're like what are we gonna do how are we gonna keep a lit and the Jews like I don't know [ __ ] it light it up let's see what happens and somehow one day's worth of oil lasted for eight days and that is when Jews learned how to be cheap the miracle of Hanukkah everybody yeah that candles the miracle of Hanukkah dumbest miracle in the history of organized religion you're Christians man your Miracles are the tits you guys got great miracles God when I start when I I so I left my religion I I switched to a secular College University of Maryland I met all these Christians and uh they told me about about Jesus and I was [ __ ] Blown Away they were like uh he walked on water and I was like that's impossible can't I've seen water before so sell it to somebody else and they're like yeah it's a miracle like oh I'm like he didn't get wet they're like I mean maybe some splashback on the sandal but I don't think Jesus was waterproof you know if he dragged his foot yeah probably a little bit of water but for the most part pretty dry I was like damn was that his best trick like oh no it's not his best check his best trick by far he died and then it was like nah and everybody's favorite trick was turn water into wine that dude man of the people for sure I heard about that I was like what kind of wine was it and they're like Ari you're literally the first person to ever ask that question what a nitpicky chewy thing to worry about it you can free wine out of water and you're still complaining dry wine I don't know see if she's gonna do a malt back just ask him up but then they're like what about you all right what's the Jews Big Miracle for the holidays I'm like oh okay well we had this candle and it lasted hella long yeah our Miracles are more like you had to be their miracles yeah people came into the synagogue on two days later it was like is that is that [ __ ] candle still going one more day that's a [ __ ] miracle I swear to God it's a miracle one more day that's a one day candle Jesus just like rise like what the [ __ ] I believe Jesus came back now he would turn sand into Molly yeah that it would be the best Molly you know somebody's like hey I have MDMA like well you got to test it man there's fentanyl going around you can't just do whatever where'd you get this from like from Jesus Christ the lord and savior how good of a communion be if you were hitting you with a [ __ ] God by the end of the sermon you'd be like this guy cares about us yeah hanukkah's not our biggest holiday and it's not Black Friday I heard that too uh Passover you're not it is a big holiday but it's not our biggest one uh Passover commemorates when the when the Jews left Egypt were slaves in Egypt I don't know if you guys knew about that who recovered uh what a fun story that is here's the basis of the story some woman you know uh she was a slave and she had a slave son named Moses and Moses would be raised like a slave so she just took a [ __ ] half court shot she was like I don't know I'm gonna think outside the box here how about we just Chuck it in the river we'll put in a little basket and we'll throw it to the crocodile infested Nile River and hope for the best and man she swished it baby did not get eaten by crocodiles or tip over uh it went right to the pharaoh's daughter the pharaoh's daughter the king's always like I love you know how chicks are around babies [Music] so she raised it like it was her own she raises Moses I don't know how he knew his original name but same name and uh coincidence lucky coincidence on that eventually he was 19 20 years old went to his grandfather the Pharaoh the king and he was like hey [ __ ] I got news for you I'm not your grandson and the Pharaoh was like yeah my daughter was never pregnant we know she didn't ever do that plus you're balding with glasses so I figured you came from slave Island over there that's my favorite part of the story the Jews were slaves in Egypt Egypt was a superpower and their labor force their manual labor force was the weakest most complaining people in the world I mean there's nobody softer than juice I think the pyramid's supposed to be houses and the Jews like it's too hot just pile it up what a terrible terrible choice for slave and by the way Egypt is in Africa like there's better options out there I'm just saying who do you want picking up stones for you Dikembe Mutombo or Gilbert Gottfried foreign that's why the country's falling apart right now so let me tell you everything you need to know about you I don't know where to start I never know where to start I'll tell you what let's start with checks let's start with women women in uh Orthodox Judaism are second-class citizens for sure yeah you're not a full part of religion but by the way I can feel you talking about I didn't make any of this up okay don't blame me I do agree with all of it but I did not make any of this it's better than a lot of religions like you can't beat your wife in Judaism but if you do be your wife they'll be like don't do that you're just not really a full part of the religion like if this is a synagogue it'd be all the men down here and the women would be up there behind a fence like in a balcony looking at us participating and what are you guys doing back there we're like shut up we'll talk to you later so there's always laws Associated being a woman especially a married woman if you're okay if you're a married woman in Judaism and you're on your period you're considered unclean yeah which that's actually yeah I mean I have a problem with that spiritually but physically that's actually a very nice way of describing what's actually happening unclean as far I mean like legitimately if I put two giant buckets on the stage and one giant bucket said clean vaginas and the other giant bucket said unclean vaginas and then I handed each of you a bleeding vagina and I said put that anywhere which bucket do we all know would be overflowing with vaginas thank you so you're unclean until you stopped having a period Then you have to have seven days of no blood and then you gotta go to a ritual Bath called a Mikvah and then you're consider clean again um and it's seven days of no blood in a row that means if you get spotting two days out [ __ ] yeah clock starts over [ __ ] yeah it's like microwave popcorn it's gonna be the full three seconds so it does not count you know it's like pop one two pop one pop one two one pop you want popcorn pop pop one drop one two three Yes Albert that's your vaginas in Judaism just so you know it's the microwave popcorn of body parts and while you're on clean um you can't touch your husband and your husband can't touch you oh yeah you can't even sleep next to each other you gotta go sleep in the corner like the bleeding [ __ ] that you are it's every month with you so this law it's called Nida this is the reason this is sociologically this is the reason that Orthodox Jews have large families it's not only as you can fill up our minivans there's another reason for it it boils down to this how long appearance last what appearance go for these days five days okay she's heavily disagreeing with you in the back so what do you think it is seven said the mansplainer all right let's flip it over it's five to seven that's why I thought I was gonna be a woman saying the answer to that but seven I know five five to seven days I believe she said uh plus seven days of no blood that's 12 to 14 days okay um plus another day or two ago the ritual bath to go to the mix but they're not like 24 Hour Fitness you know they're only at certain spots so now we're talking about right around 13 to 15 days after such a period is the first time you're allowed to touch your husband uh it's also when you are the most fertile in your cycle your ovaries are right at the bottom of your [ __ ] and you haven't touched your husband in two weeks and he hasn't touched you you're supposed super horny and write down God's like go I mean there's no chance dude there's no chance imagine the husband's home washing dishes comes coming out of his ears [ __ ] hate this religion so much Buddhist [ __ ] all the time all the kids like Daddy just shut the [ __ ] up daddy's not gonna move this [ __ ] and beat your kids to Judaism just so you know that is a laugh can't be your wife but you can be your children and right then the woman walks through the door you know the guy's all cranky just [ __ ] pent up and he's just like where have you been she's like ritual bath and he's like oh yeah should go get that sheet with the hole in it foreign there's a rumor just so you're doubt there's a rumor that Jews have sex through a hole in a sheet and it's not true but it's not not true so it comes from it comes from some racists made it up a long time ago it comes I'll tell you where it comes from Jews have this like sort of prayer Poncho thing called seed seed it goes under it's like a t-shirt but it's like made like a poncho it's like I have no sides and it's got these white tassels sometimes you'll see that white tassels coming out of it at the bottom they're called seat seat and the white tasks are for like in times of trouble we would tie razors to the end of that nope create a [ __ ] bubble of safety but anyway I guess some lady was like watching the families to see and she was hanging them up the dry and some racists walked by had to say what you want about racists they're not the best people in the world but um they are very creative some of them walked by and they saw one hanging up and they were like I bet they [ __ ] through that and it just thought wasn't even a bad thing the hole is like that big so I'm like yeah spread that but then uh it changed it morphed the rumor morphed into like a regular bedspread with a little hole cut in the middle of it and here's how strong the rumor was I thought it was true up until legitimately two years ago I guess they thought like a woman like supposed to lie down naked and you cover her up with a sheet like she's dead you know and you line the hole up like right over her vagina and then you gotta get in there you know and like through the hole you guys remember the game operation yeah it's just like that but instead of using tweezers use that sweet tea yeah I think actually I don't know it might be that way it might be another way it might be that the guy holds a sheet like over him you know just puts it over and just has his dick out of the hole like like a walking glory hole just a dick I like [Music] um I don't know I always thought it was the former but it might be the latter yeah oh sorry but they're not Jews for the guys uh former and latter means first and second the reason the reason for the sheet that I always thought was twofold I thought it was just because these are like super religious people super Pious people and they're studying the Torah and the talmud which is like the Gomorrah all day and they don't want to be distracted you know anybody with a wife or a girlfriend you know you think about her naked sometimes so like to combat that they're just like cover her up with sheets you know what to [ __ ] look at her she won't be thinking about her don't be distracted and then the other reason is um there's a commandment to be fruitful and multiply in order to do that you have to have an erection and Jewish women it's the best way to say this uh it's not ugly it's not ugly that's not the word that's not the word it's not ugly here's the word I'm going to use inbred yeah we're an inbred race everybody the boys and the girls we've only been [ __ ] ourselves for like 5 000 years so if you don't get outside genetics [ __ ] starts to get weird and some people ask me is Judaism a race or religion and I'm like it's both like well how can it be a race I'm like because you can pick a Jew out of a lineup you know if you have eight men you're like the Woody Allen one obviously you come on come on let's go you know it doesn't work out with other religions you can't pick a Catholic out of a lineup unless they're in like the middle of raping a child you would have to get ski with the timing oh no I guess what you could do you could have a lineup and then release a child into the room and then lock the door and then he's got to play the waiting game you gotta wait for the one to start shaking and sweating and like talking to us keep it together Jeremiah you guys raping that I'm not I just want to know if you guys are going to rape that I'm not gonna rape it I'm not even thinking about raping it I just want to know if you guys gonna break hey can I smell his butt is that allowed dude I've been making fun of that Catholic uh priest sex scandal for like 20 straight years I can't stop making fun of it I have Catholic friends they get mad at me about it but [ __ ] off my buddy Steve uh he's Catholic he's a comic and uh I made a Catholic joke once and he got I got off stage and he just he was he had enough of it you know so I got off stage and he was like Ari what do we have to do to make you stop making fun of Catholics and I was like one thing foreign it's just that one thing are you guys not getting the message just stop raping children do you have a game plan in place to improve can I spitball with you a little can I suggest I don't know right or wrong but start raping adults for a while let's see how that works out it's 50 60 years something like that and then eventually maybe no rapes at all okay well I think we can all agree you know you're [ __ ] up as a group when raping adults is a step in the right direction yeah the only problem is now every time a Jew [ __ ] up sexually all my friends are like well well well guess you guys aren't perfect either yeah like [ __ ] what's his name Jeffrey Epstein that was about Epstein is a Jewish name if you don't know if you don't know before now you know if you don't know who Jeffrey Epstein is he was uh he ran an underage sex trafficking ring you know had his own private island where he did it Bill Clinton went there but just to play golf I think he said there was no golfer Bill Clinton lived so he went to [ __ ] child Island get a sweet nine holes here so uh anyway they're like wrote about Jeffrey Epson Ari he's a Jew and I'm like that spirit that is fair and I'll answer that uh from a Jewish perspective here's here's what Jeffrey Epson goes to show you it's that no matter what industry choose choose to go into we will rise to the top of that industry he's the number one name in under XX trafficking anyway the point is Jews have a look what's my point everybody's got to look you know even I mean continent to continent people way different in South America they do in Africa you know Canada they look it's like whatever even country to country people look different like I've been on tour of like Europe people looked at I was dude I was in Berlin four days in Berlin hottest women in the world I've been to Sweden and Brazil I thought they used to be the hottest it's German girls they're [ __ ] tens dude every one of them and the dudes too every dude there was like six foot five and chiseled let's just walk around Berlin for four days they're in the same beautiful men and women and for the first time in my life I was like yeah I get it now I guess I never looked at it from their point of view Germans are perfect and Jews all look like we're dying we are we're falling apart man you need outside genetics the [ __ ] starts to get weird same as look at the royal family in England they were like fill up your leader leader they're all half tards eat their own [ __ ] in the corner same as Jews we're falling apart every Jew has the same [ __ ] Jew pattern baldness you know that's why God's like trying to get laid do something cover it up if you have to I don't know we're falling apart nearsightedness I had Lasik eye surgery I still have glasses Dr Weinberg did a great job we're all neurotic we're like taystacks disease falling apart feed a glass of whole milk to a Jew watch him rain diarrhea for 40 days and 40 nights absolutely falling apart because we're inbreds kind of like uh do you guys know what pugs are the dog breed pug the most inbred of all dog breeds have you ever seen a pug get excited then struggle to breathe throw a ball through a pug four times in a row it's in the sound of him yeah that's what Jews are we're the pugs of the human world anyway the point is we have a look so every Jewish woman I've ever had sex with there's been like 10 12 in my life and every one of them for a moment or the whole time looking at her but at least for one moment I'll look at her I should look exactly like my Aunt Ruth and my boner's like no [ __ ] way so to combat that I always thought they just was like well why don't you just take a sheet cover her up so yeah they just [ __ ] Multiverse of holes and you're hooking there by the way here's what I should tell you there's two types of Jews I'm only talking about one type there's Ashkenazi and Safari so when the Greeks drove us out or the Romans are one of the [ __ ] thousand times we got driven out uh we got pushed in different directions and some of us went North to like Poland and Romania and Hungary and places some of us went East to like Syria and uh and Iran Iraq places like that those are called Sephardic Jews whereas my grandmother called them animals foreign they tear it I don't have them in our house and those people are tougher they're tougher Jews because they got some Arab in them and they're just like tough part they never had the Holocaust too so there's no victim mentality there the Holocaust never got to Syria so they're all like why why are you a victim just fight back you're like you just wouldn't understand but I'm talking about Ashkenazi juice Woody Allen juice that's the type I'm talking about so let me tell you uh let me tell you what we did in uh in seminary in Yeshiva Jerusalem all we did was study the Torah and mostly the talmud uh the gemara I'll use those words interchangeably it means the same thing uh and we pray three times a day we prayed uh it's a lot Muslims go five times a day you got us on that Christians play like twice a year uh and the tall mode is really just a series of what-ifs to help codify the law so the Torah will say something like like uh Thou shalt not kill right you get put to death if you kill but then Tom was like what about self-defense and you're like yeah good question Tom what good question so here's to my favorite what ifs from the talmud and these would still be done today um my favorite two okay what if what if you're having sex with your wife and in the middle of it she starts a period you know that could happen I know women whenever I've had sex with a woman and she's like oh [ __ ] it's on my period they always get embarrassed which is weird like I started my period early but I'm always like oh did you I can't even [ __ ] him and chicks always get embarrassed by it they're like uh sorry don't get embarrassed at least from my perspective I'm always like I live I love it you know it's like I started my period I'm like that's why you start your period early because I hit that back wall my dick starts appearing my dick is your God my dick is your move makes us feel powerful don't feel bad about it at all so uh what if you start your period early I would say you know just stop [ __ ] no big deal If I Was An Angel keep [ __ ] you know I got the sin you may as well enjoy yourself you know it's like if you get a parking ticket you don't move your car park for free for the rest of the day that's not what the rabbis the gamara say they said uh no you're not doing anything wrong until you find out you started your period and then when you're inside her vagina you can't pull out because pulling out is a stroke it's an enjoyable stroke so where are you gonna go it's like it becomes like a Chinese [ __ ] trap you know so this is what they say to do this is what they say I think in your uh your Daya or babakama one of those but you're [ __ ] right and then that you're she goes I start my period you're supposed to stop look up think of the glory and awe of God until your manhood subsides yeah you have to let your dick exit of natural causes oh what a fun bonding moment for you and your wife for her to feel you go soft inside of her and how could physic Premier Dick's point of view where you're just plugging away you know you're just like this and then all of a sudden it's like stops hello hello little movement please a little movement here also definitely stop thinking about God all right well probably gonna get out of here then [Applause] foreign [Applause] here's my favorite here's my all-time favorite what if from The Talbot uh it's about it's about dietary laws we have kosher you guys have heard that word right kosher yeah um certain things we can and can't eat and that's what we call kosher uh Muslims have halal Christians just go buck wild so you can't mix meat and milk no to mix meat and milk the reason for that is God is a [ __ ] you can't even go into it but like uh so I never had a chees</t>
+  </si>
+  <si>
+    <t>{'Quicoboy Reyna': '...welcher my ass!...for free, Ari?...thanks, dude...', 'Peter Welsh': '32:48 (!)😹', 'Redbeard': 'I’ve watched this almost every night for the past week. Lol so good been calling everyone goy. 😂 my cat clawed me and I called her goy and threw her off the bed lmao', 'BigBeans': 'Fourth time watching 🥳', 'Jake': '37:43 could have topped in off with "Athiests pray just once... on their death bed" or something I dunno I\'m not a comedian', 'yosef G': "No u can't eat the ham at the end u have to remove it", 'Kevin Bruce': 'Thank you Ari', 'Daniel Ivan': 'So this the guy Kanye was talking about? I get what he said after watching this garbage.', 'nasmahaysaa': 'Thanks', 'One True Faith': 'How can one Bible passage convict and unite an athiest to believe in GOD, an old covenant Jew to believe Jesus Christ is their Messiah, and a Protestant to know without a shadow of a doubt which ONE CHURCH Jesus Christ established?\xa0 How can a single Bible passage contain that much evidence to overwhelmingly convince each of those individual groups? \n\nIt\'s all in the Book of Jeremiah.\xa0 It contains New Covenant Prophecy and the "evidence" is clearly seen throughout 2,000 and ongoing years of history.\xa0 \n\nThe Book of Jeremiah was arguably written between 586-630 before Jesus Christ.\xa0 Yes, 500 to 600 years before Jesus Christ even transcended down from eternity, entered our time and was born as a very "visible" and "historical" GOD.\xa0 In His earthly life Jesus Christ fulfilled two very specific covenant promises that are also very "visible" throughout the course of history, evident today, and will be evident until His return.\xa0 You ask what two "visible" covenant promises?\xa0 Well, let\'s read Jeremiah 33:14-22 New Covenant Prophecy of when the Jewish Messiah would come, what He would do, and what He would establish throughout the course of history after He arrived. \n\nPer Catholic Revised Standard Version of Jeremiah 33:14-22 New Covenant Prophecy. \n\n14 "Behold, the days are coming, says the LORD, when I (being Jesus Christ and per John 10:30 "the Father and I are one") will fulfil the promise I made to the house of Israel and the house of Judah. \n\n15 In those days and at that time I will cause a righteous Branch to spring forth for David; and he shall execute justice and righteousness in the land. \n\n16 In those days Judah will be saved and Jerusalem will dwell securely. And this is the name by which it will be called: \'The LORD is our righteousness.\' \n\n17 "For thus says the LORD: David shall never lack a man to sit on the throne of the house of Israel,\n\n\n18 and the Levitical priests shall never lack a man in my presence to offer burnt offerings, to burn cereal offerings, and to make sacrifices for ever." \n\n19 The word of the LORD came to Jeremiah: \n\n20 "Thus says the LORD: If you can break my covenant with the day and my covenant with the night, so that day and night will not come at their appointed time, \n\n21 then also my covenant with David my servant may be broken, so that he shall not have a son to reign on his throne, and my covenant with the Levitical priests my ministers. \n\n22 As the host of heaven cannot be numbered and the sands of the sea cannot be measured, so I will multiply the descendants of David my servant, and the Levitical priests who minister to me." \n\nSo, where are these Davidic and Levitical GOD covenant promises stemming from Jesus Christ the Jewish Messiah you may ask? The Davidic Covenant promise is fulfilled by the Catholic Pope who sits upon the earthly throne in the Catholic Church where we see a "multiplication of decendents" on a throne with a clear 2,000 year lineage back to Jesus Christ.\xa0 And, the Leviticus Priesthood covenant is fulfilled by the Catholic Church Priesthood that was established in John Chapter 13 and\xa0 Chapter 20 with emphasis on verse 22-23 by Jesus Christ. \n\nBoth the Davidic and Levitical GOD promises are found in the ONE HOLY CATHOLIC AND APOSTOLIC CHURCH.\n\n\nNow, some intellectually dishonest \n\nThis is irrefutable historical evidence for not only our very "visible" and "historical" GOD Jesus Christ, but GOD keeping His covenant promises throughout 2,000 and ongoing years. \n\nPlease come join your GOD and savior Jesus Christ in the Lamb\'s Supper being the New Covenant Passover.\xa0 Where we "thank" GOD for what He has done for us and we get to feast as ONE DIVINE SPIRITUAL FAMILY.\xa0 May GOD\'S speed, grace and peace be upon you to enter His Kingdom of GOD being the ONE HOLY CATHOLIC AND APOSTOLIC CHURCH.', 'Jason': 'He came out like a fucking boss last night in Kill Tony. Jacked Blart Chrysalis schtick and did it better lol !!!', 'Christopher Kent': 'that rib is the only one that grows back...hhmmm', 'DaveOh': 'That closer is phenomenal in the weirdest fuckin way haha', 'Jory Marburger': '👏🏽 fucking beautiful Ari!', 'Menglong Youk': 'Holy shit. The masturbation story is horrifying.', 'beamo scrilla': 'Long time since the amazing racist', 'Shi Lee': 'Made my night thank you for being hilarious'}</t>
+  </si>
+  <si>
+    <t>UCkqNTF2SegipHCkwkBrq6hw</t>
+  </si>
+  <si>
+    <t>Ari Shaffir</t>
+  </si>
+  <si>
+    <t>2022-11-02T20:00:10Z</t>
+  </si>
+  <si>
+    <t>z5IimXRrCCo</t>
+  </si>
+  <si>
+    <t>The Problem with Me being Jewish</t>
+  </si>
+  <si>
+    <t>Get Surfshark VPN at https://surfshark.deals/illymation - Enter promo code ILLYMATION for 3 extra months for free. Thank you ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oh and for dinner my mom got you chicken what why because you're Jewish okay but what does that have to do with ham and Easter I don't know it's not Kosher is it but how am I supposed to know because you're Jewish oh well yeah but I'm not that Jewish oh oops oops and we say this in your name or who's ever name you pray to amen amen hi my name is Alyssa and I am Jewish uh no you're not you're pasty white with red hair listen Buster I may look like a hot and kissable version of Pennywise but that doesn't mean I'm not Jewish but you don't look Jewish your hair isn't curly your eyes aren't dark no go on say it uh your nose isn't big and hooked over correct I don't look like your typical animated villain character and I would argue no Jewish person looks like that only propaganda looks like that wait so does that mean I'll let you Google that one Jewish people can be any skin color speak any language and live all over the world just like Christians Muslims Hindus or any religious group but I understand where your confusion is coming from Jewish people are considered an ethno-religious group of people when someone says they're Jewish they could mean they go to a temple for religious Services they were taught to speak Hebrew or Yiddish and they observe Jewish holidays cultures and traditions or they could simply identify with and participate in their Jewish Heritage and community in their own secular way so without their religious stuff and there's also a huge gray area in between because everyone's different but no matter how they may Express themselves your Jewish friend probably knows the best place in town to get a bagel and no matter what you think of them and their lifestyle they are still Jewish which is so confusing I know take it from me I grew up Jewish emphasis on the ish though Once Upon a Time my parents both wore yellow to find each other on their first date a blind date my mom was Christian and my dad was Jewish well Dad didn't have like a bar mitzvah you know that religious coming-of-age celebration for Jewish kids the chair thing oh yeah the chair thing yeah my dad didn't do that oh man I know right that looks so fun anyway if I had to guess why it would probably be as a result of cultural assimilation assimilation is where an immigrant or their family lineage is pressured to disregard their Heritage and instead adopt the culture language even political ideology of the country they've moved to usually to blend in and avoid getting targeted of course this only goes so far for example if you're an Ethiopian Jew and you have dark skin you'll be racialized or assumed to just be black when arriving to the United States versus if you're a Scandinavian Jew and your skin is pale you'll be racialized or assumed to just be white and although my home country of the United States is known as a Melting Pot of cultures it's undeniable that how you look will Gravely affect how others treat you by this I mean my grandfather so my dad's dad was able to have a typical Jewish upbringing he learned Hebrew he lit the menorah he was bar mitzvahed he got to do the chair thing yeah but he was also drafted by the US military to serve in World War II oh the one with yeah the one with Germany fun fact when my grandfather served there was only a priest and a church for Christian religious Services no temples or rabbis for Jews like him but it was highly encouraged that everyone in the Army attend church so he a Jewish man attended Christian Church to blend in to assimilate why didn't he just not go no one was making him well sure no one forced him to go to church they didn't need to the social pressure for simply being the only Jewish person in a sea of Christian people during a particularly tumultuous time was all it took and the vocab word for this is called Christian hegemony hold on Christian [Music] hegemony hegemony all right and I don't know about you but if I survive something like that I'd be hesitant to raise my family outwardly expressing their Jewish Heritage World War II may have ended a long time ago but those ideologies are still very much alive and active today but I'll get into that later because it's not like this Jewish Heritage was hidden from my dad he always knew he was Jewish his friends did too that's how he ends up getting elected as president of his friend's benebrath chapter wait what I can't yes you can you're Jewish well yeah but I don't go to church temple temple sorry but still why me well Ethan's funking math Mitch is still on the teacher's bad side for flirting with Erica every day in second period and I'm still grounded for sneaking out but your record is clean what about Morty he's he's a good kid he can't he's Catholic what then why is he here he's the only one who can drive duh my dad accepted this position at first after all he ran on a post but he resigned soon after because as he told me he felt like a fraud he didn't grow up doing the typical Jewish things like his dad or his friends did he couldn't even speak Hebrew and my dad told me this feeling has followed him his whole life when he and my mom were about to get married he was scared that marrying a Christian would mean quote turning his back on his Heritage so to honor my dad's Heritage his father said a Jewish prayer in Hebrew to bless their marriage in addition to the regular American and Christian wedding traditions it was definitely not Orthodox it was probably not Kosher but if you ask me I don't think that makes my dad any less Jewish than his dad and although he had never really been in any kind of religious setting until he met my mom my dad was open to trying it out like I said my mom was Christian Lutheran to be exact which is basically a spin-off of Catholicism because a guy named Mart had 99 problems but the pope was not gonna be one baby he's starting his own church my dad told me he converted to Lutheranism so my brother and I would be raised under one faith that way he could fill in the blanks on our Jewish Heritage if we were ever confused and he tried his best I'll give him that but honestly there were so many holidays and I couldn't keep track so I just smiled and nodded and ate the little chocolate coins he gave me and the rest is history wow so despite your parents differences in their upbringing love really does conquer all yeah um that's what I thought too but it's so nice to meet you what happened to Aubry I liked her so yeah Grandma cell did not like my mom from the moment they met and it didn't help that my mom accidentally spilled apple juice on her floor that night and the stain never came out no matter how hard she scrubbed it and from then on Grandma cell took every opportunity to say horrible things to my mother until the day she died Grandma I mean and may she rest in peace but also that's kind of petty like really Petty it just didn't make sense that is until I started doing my own research on Judaism and my family's Heritage but sorry I'm getting ahead of myself because how did I go from confirming my faith in the Father the Son and the Holy Spirit at the rightful age of 11 to lighting my first Menorah in 2020 well it all started when I was doxxed doxing is when people find personal and sensitive information about you and publish it with the intent to intimidate harass and harm you and or the people in your life this happens to a lot of YouTubers unfortunately I'm not the only one and this happened to me while I was outside of the U.S visiting Japan in late 2018 and to say that this was the worst possible time this could happen would be an understatement let it be known I did call the police but they had never heard of doxing they didn't know what I was talking about and they insinuated I was prank calling them so nothing was done about it I couldn't file any charges or submit a report it also took 48 hours for YouTube to not suspend the account but give them one strike and here are my emails um I never heard back from them and it's been years so what does this have to do with me being Jewish well a certain subsection of people who don't like me or my videos not all elimination dislikers just a subsection of them that I hope is small identify as how do I put this they don't like how World War II ended and so if a Jewish person exists today and is happy or successful these people think it's because being Jewish is actually a front for being a member of a secret society that controls the banks the news the entertainment industry and anything that could slap a stereotype on really because they believe Jews are trying to take over the world and they must be stopped therefore when my YouTube channel took off and all these people found out I had a drop of Jewish blood in me they felt I was part of a grand conspiracy and thus I needed to be erased and they still do yeah this is news to me too surprise but after about two years of therapy I realized how is it that a group of strangers who want me and my family dead care more about my Jewish Heritage than I do that's not fair it's my Heritage and you can't have it so after reading Animal Crossing New Horizons of all the serotonin I could amidst the 2020 lockdown I began researching Judaism to learn more about myself and one of the first things I learned was according to Orthodox Jewish standards a child is only Jewish if their mother is Jewish so either the mother has a Jewish mother or the mother must convert to Judaism otherwise her kid's not Jewish even if the father is which made the juice of 87 incident make a lot more sense perhaps my grandma resented her daughter-in-law not because of an apple juice stain on the linoleum but due to the absence of this Orthodox standard in the family tree a family tree that from her perspective would now end with my dad when I learned this part of me started to worry that this meant I wasn't actually Jewish or I was horribly appropriating my dad's culture or worst of all I got doxxed for nothing but the next thing I learned couldn't have come at a better time one day while sitting in on a Shabbat service over Zoom one of the members played guitar and sang a song called ladour Fedor which means from generation to generation in Hebrew it's a Jewish phrase that refers to passing on our Traditions culture and history from one generation to the next like lighting one candle and sharing its flame eternally and I immediately thought back to when my dad would show me how to play Dreidel and all the times we made mossable soup together even back to when he tried explaining another Jewish holiday while I stared at him blank faced eating guilt I didn't know it until I heard that song but all that he did that was the door of a door and sure I didn't know a look of Hebrew and neither did he but he still taught me about our family and what it meant to be Jewish no matter what anyone including his own mother would say he didn't let the light go out and it was in that moment hearing that song that I truly felt connected to my Heritage for the first time since then I've been slowly learning more and more about myself and of course making more and more Jewish friends who also struggle with this I thought it was just a me thing thankfully those who would argue that I'm not actually Jewish are a super small group of people that I have yet to meet and though I can empathize with where they're coming from I feel like the world has changed and gotten a lot bigger more complex more importantly I feel like there are issues we should be coming together on because I can assure you an Orthodox Jewish person's lack of validation of my Heritage isn't gonna stop people like me patrilineal Jewish people from getting hate crimed hate like this has always been a problem it didn't go away when World War II ended I and all of your Jewish friends can assure you of that and lately it's become bigger louder I don't think non-jewish people realize it let alone know what to do to help so allow me remember in history class when the teacher would show us propaganda posters from decades even centuries ago and we would say wow those are so obviously horrible it's so obviously conveying a dangerous message how could anyone let this happen and our teachers had to insist though it seems obvious to us now people did in fact shrug it off and we know what that led to fast forward to today I believe our modern day version of propaganda posters are dog whistles that circulate on social media a dog whistle is basically propaganda that not only hides but also thrives in plain sight a lot of them will take the formula of a popular meme but inject it with a slide dash of dog whistle that way when it's called out by the person or group being targeted by it the user can just say what nah don't read into it like that or they'll pass it off as it's just a meme don't be so sensitive but I'll bet you 10 guilds I've already eaten that you have come across a dog whistle before I mean who hasn't procrastinated doing their homework by reading ridiculous conspiracy theories on Wikipedia until two in the morning you know the stupid ones like how Mark Zuckerberg Beyonce and other powerful people or celebrities are secretly lizard people and they have exclusive meetings where they wear cloaks do Secret handshakes and drink fruit punch they stole from children but lo and behold that is a dog whistle that was like an orchestra of dog whistles on the surface those sentiments sound like the perfect LOL XD random meme content because they're so ridiculous right who would believe that the thing is though these all originate from a very harmful piece of anti-jewish propaganda written in 1903 called the protocols of the Elders of Zion Jewish people unfortunately know this document very well so hearing anyone make light of these conspiracy theories is a major red flag if you want to learn more about it you can check out the United States State's Holocaust Memorial Museum's encyclopedia which is linked in the description below now of course you could use one of these unknowingly and that doesn't make you a horrible irredeemable person I mean I've used dog whistles before without even realizing it and I'm Jewish but that's the problem if you aren't aware what dog whistles are in current circulation you could unknowingly use them pass them on to others and alienate your Jewish friends or Worse put them in danger as speaking up in an environment rampant with dog whistle users would force them to out themselves to very dangerous people there's an awesome Tick Tock Creator named Zara zahava who's really good at breaking down the origins of old and new dog whistles in bite-sized videos I highly suggest you head to her page whenever you have a second I'm sure you'll learn something new because I can assure you every time you brush off a dog whistle as just a joke you lose a Jewish friend and gain a Yahtzee oh sorry to interrupt with my game of Yahtzee a dice game made in 1956 by Milton Bradley that's another thing if you use tick tock you know it's kind of hard to talk about this stuff online since words like that are understandably considered naughty words and you'll get in trouble for using them and although that censoring system means well helpful educational content like this sometimes gets wrongfully flagged and punished because they use that naughty word so although I can't say this word on this platform as it would risk my video getting removed and I will be placing a sponsor on this video to ensure my awesome team gets paid should this video be demonetized words like this need to be said out loud in real life and if you think my situation is bad that's nothing compared to what Jewish people who are more open about their identity have to deal with I've had friends tell me how they've been harassed stalked literally hunted down and attacked by strangers in broad daylight because they're Jewish yes World War II is over but anti-jewish ideals are are thriving they've just evolved with the times and we need to catch up that's why I'm making this video being Jewish should be a happy experience and a peaceful existence everyone I've gotten to know so far in this journey has been nothing but welcoming when a friend's mom found out I was Jewish she sent me home with enough kugel to feed a horse and a bunch of my Jewish friends and fellow Jewish creators helped me construct this video one of them being Raven from Tick Tock Raven reveals and I'll have links to everyone's social media below thank you for watching my videos especially this one and as always stay safe lastly it's time I give a huge thank you to surfsharkvpn for sponsoring this video there's a lot of stuff I talked about in this video that I encourage you to research but it might look a little suspicious in your browsing history and the last thing you want is an ad popping up thinking you'd be interested in some sketchy World War II memorabilia that's where surfshark comes in a VPN from surf shark will make sure that your City Country and internet history are not linked to your identity it does this by providing your computer your phone anything you want really with a little virtual mask by swapping your device's IP address with a different one that way all the information sent between your device and the internet stays encrypted private and protected from big companies who see what you click on sell your data to marketing teams who then Place those very suspicious ads in front of you as well as hackers looking to gain access to your personal information and they often do this through shared Wi-Fi networks you know like at your local coffee shop and surfshark never monitors tracks or stores what you do online but if you're not the type to Google weird things at 2 am a VPN also allows you to access media from streaming services that are normally region locked for example if there's a Netflix show that's only available in the UK your computer can put on a little bit VPN and pip cheerio you're good to go that sounds more Australian so if this sounds like something you'd be interested in use my link surfshark.deals illimation if you'd like to try surf shark for free for three months which will be right at the top of the description of this video and after downloading surfshark you can check out all the links to everything I talked about in this video without fearing you'll get a knock on your door from the FBI sponsors like these allow me to pay my awesome team and keep making serious topic videos that you like to watch so thank you again to surfsharkvpn for sponsoring this video </t>
+  </si>
+  <si>
+    <t>{'illymation': "Get Surfshark VPN at https://surfshark.deals/illymation - Enter promo code 'illymation' for 3 months for free. Thank you Surfshark for sponsoring this video!", 'Octojuice': '6:30 WAS THAT A RIDE THE CYCLONE REFERENCE', 'Nour Mottawea': 'I’m the first Muslim to comment this video', 'sloth spaghetti ': "i am Jewish and i have never experienced something like this but know it happens i just didn't know it was this bad", 'ifell': "I am from Pitt, and remember the Tree of Life shooting's effects very vividly.", 'Deb Thomas': 'I do not care that your a jew your a youtuber', ' 𝘦𝘻𝘳𝘢 ♡♡': "Well\nI have a little dreidel\nI made it out of clay\nAnd when it's dry and ready\nThen, dreidel I shall play\nOh, dreidel, dreidel, dreidel\nI made it out of clay\nAnd when it's dry and ready\nThen, dreidel I will play\nIt has a lovely body\nWith legs so short and thin\nAnd when it gets all tired\nIt drops and I will win\nOh, dreidel, dreidel, dreidel\nI made it out of clay\nAnd when it's dry and ready\nThen, dreidel I will play\nMy dreidel is so playful\nIt loves to dance and spin\nA happy game of dreidel\nCome play now, let's begin\nOh, dreidel, dreidel, dreidel\nI made it out of clay\nAnd when it's dry and ready\nThen, dreidel I will play", 'Meme Fortress 2': '"i may look like a hot and kissable version of pennywise" I think is the best illy quote', 'AriVi12': "16:00 wait, why is dice a bad word?? (Sorry for the bad english, it's not my first language)", 'Adrian Leviţchi': 'Im an Austrian and i skip art class esterday and i love being a leader in Germany 🌚🌚🌚🌚🌚🌚🇩🇪🤝🇦🇹', 'SmellyEggrolls21': 'As a german, I think otherwise', 'Layton Robinson': 'Listen im alright with jewish pepole its just that my school forces me to be jewish im atheist by the way and i want to eat non kocher food its just that judaism has put a big bolder on my back and its very hard to carry', 'saudi fatman': 'zionism and semitisim is not the same right?', 'surajit mahapatra': 'NAZI Germany', 'GoldfishChromeE': 'As a proud Christian, I can 100% say good for you! You got to learn your roots and thats a really cool experience! Also the "juice of 87\'" had me dead.', 'Scribble Cloud': 'pls correct me if im wrong but arent lizard people memes moreso making fun OF the belief in lizard people? like how tinfoil hat memes are making fun of people that are crazy conspiracy theorists, not subtly encouraging it', 'Craig Berman': 'I’m Jewish to!!!🇺🇸', 'JUST SOME GUY': 'I don’t understand anything in this vid', 'ᒍᗴՏՏᗴ': '1:09\n\nI love speaking circle &lt;333', 'Jaden Aizen': 'When my sibling an I were lifted on chairs, it was terrifying, i thought i was gonna break an arm...'}</t>
+  </si>
+  <si>
+    <t>UCsKVP_4zQ877TEiH_Ih5yDQ</t>
+  </si>
+  <si>
+    <t>illymation</t>
+  </si>
+  <si>
+    <t>2023-06-29T16:00:23Z</t>
+  </si>
+  <si>
+    <t>y1kxEW7lwxo</t>
+  </si>
+  <si>
+    <t>This Jewish Family Secretly Rules The World</t>
+  </si>
+  <si>
+    <t>This Jewish Family Secretly Rules The World.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">there are two ways to be rich make a successful business or be born rich today we're going to talk about a family that is the epitome of being born with a silver spoon a family whose wealth in the past was so great that people preferred to explain their wealth using conspiracy theories but what many people don't know is that their influence on global finance and decisions has not dwindled in this video I'll explain exactly how and why this Jewish Family secretly rules the world even today why the Rothschilds became so powerful the story of the Rothschild started with Isaac elkan and Rothschild he was born in 1577 and he is the earliest recorded member of the family to adopt the name Rothschild the name's origin can be traced back to a German term signifying at the red shield which specifically referenced The ancestral dwelling where the family resided for Generations even to this day the red shield remains prominently featured at the heart of the Rothschild coat of arms this is because during that era from which the family originated homes were identified not by numerical addresses but by unique symbols or colors from dominantly displayed as signs the Rothschild family is one of the most influential and Wealthy dynasties in the history of banking and finance their rise to prominence began in the late 18th century when Maya amshil Rothschild a Jewish money changer and Trader from Frankfurt Germany established his banking business and sent his five Sons to different European cities to expand the family's Network just so you know the Rothschilds played a crucial role in financing the Napoleonic Wars and Revolutions of the 19th century as well as supporting various industrial Agricultural and artistic Ventures but before we get ahead of ourselves keep in mind that the unbelievable success of this family has also attracted many conspiracy theories and anti-semitic attacks as if those were not enough the Rothschilds have also been accused of manipulating world events and controlling Global institutions for their benefit with that said let's take a step back to take a look at some of these theories one of the earliest and most influential conspiracy theories about the Rothschilds was published in 1846 by a French writer named George Danville under the pseudonym Satan in this work Dan Vale put forth a conspiracy theory alleging that Nathan Rothschild one of Maya amshel Rothschild's five sons who established a branch in London had wielded his Insider knowledge and financial prowess to manipulate the outcome of the Battle of Waterloo in 1815. this pivotal battle ultimately shaped the Destinies of Napoleon and Europe according to the claims made in the pamphlet well between 1813 and 1815 one of the five sons of Maya amshil Rothschild Nathan Meyer Rothschild played a crucial role in largely funding the British war effort he took on the responsibility of arranging bullion shipments to support the Duke of Wellington's armies throughout Europe and ensured the timely payment of financial subsidies to Britain's Continental allies in fact in the year 1815 alone the Rothschild family extended subsidy loans totaling 9.8 million pounds which would amount to approximately 710 million pounds in 2019 and thanks to their extensive family Network Nathan Rothschild received news of Wellington's triumphant victory at the bat of Waterloo in London a full day before the government's official Messengers could deliver the information on this particular occasion Rothschild's primary concern was not the potential financial advantage that the early knowledge could have offered him in the market instead both he and his Courier promptly rushed to deliver the news directly to the government but according to danville's Tale on that fateful day in June 1815 Nathan Rothschild was in fact a spectator on the battlefield witnessing the French Army's complete defeat as night descended afterward he urgently set out to reach the Belgian Coast however Rothschild's plans faced an unexpected challenge when a storm prevented All Ships from sailing undeterred Rothschild offered a substantial sum to a fisherman persuading him to Brave the wind and waves ferrying him to England upon arriving in London a full 24 hours ahead of the official news of Wellington's Victory Rothschild astutely capitalized on this exclusive knowledge to announce the Allied victory at Waterloo that caused a surge in the stock market he achieved this by buying up all the cheap stocks and bonds that had accumulated two days before the Victory and sold them at a huge profit when he gave the big news making a fortune for himself and his family the pamphlet containing the anti-semitic conspiracy theory gained extensive circulation and was translated into multiple languages disseminating these unfounded claims throughout Europe in fact many respectable institutions also believe the tales in day unveils pamphlet including Encyclopedia Britannica nonetheless subsequent research has debunked these assertions as entirely false and fabricated historical evidence confirms that Nathan Rothschild was not present at Waterloo and no records of a storm over the English Channel during that period exist and while the Rothschilds indeed benefited significantly from their involvement in the war against Napoleon they did not amass Millions through the announcement of the Allied victory at Waterloo also almost a century later rumors circulated that a Rothschild insurance company declined to ensure the Titanic this led to conspiracy theories linking them to the ship's sinking this complex and unfounded notion proposes that the Rothschild sought to eliminate prominent Jewish Titanic passengers who were outspoken critics of their supposed plot to seize control of the Federal Reserve System however there is no factual basis for such claims and the theory has been thoroughly discredited a more recent conspiracy theory about the Rothschilds involves their alleged control over the weather this Theory emerged in 2018 when Marjorie Taylor green a republican congresswoman from Georgia made a post on Facebook in her post she claimed that the Rothschilds were behind a wildfire in California that destroyed thousands of homes and killed dozens of people green also claimed that the Rothschilds had a secret laser beam in space that they used to start the fire for their benefit this claim was to be followed later by a theory that the Rothschild family caused the coronavirus pandemic to profit off of medical inventions this theory was also widely ridiculed and debunked as there is no evidence that the Rothschilds have any control over the weather or that they have any secret laser beam in Space the Rothschild's most famous and profitable move was however based on their astute calculations after the news of the British victory became public Nathan Rothschild foresaw that the peace would lead to a future decrease in government borrowing he then calculated that this would result in a rebound of British government bonds after a two-year stabilization period which would be crucial for the post-war restructuring of the domestic economy so in a bold and audacious Financial maneuver Nathan promptly acquired the Government Bond Market even at what appeared to be an excessively high price at that time he then waited for two years before selling the bonds when the market experienced a short-lived surge in 1817 yielding a remarkable 40 profit adding their significant leverage to the mix this profit amounted to an enormous sum for the Rothschild family with this issuing bonds for government loans became a significant part of his bank's operations in 1818 Nathan Rothschild orchestrated a 5 million pounds loan to the Prussian government which would amount to approximately 360 million pounds in 2019. his influence in the city of London grew to such an extent that between 1825 and 1826 he could provide enough coin to the bank of effectively averting a market liquidity crisis during the same period the Rothschild family was also actively involved in assisting Brazil to gain her independence from Portugal NM Rothschild and Sons a predecessor to the multinational Investment Bank and financial services company now called Rothschild and Co took a prominent position in raising a compensation of two million pounds on the London Market this compensation was offered to the kingdom of Portugal in 1825 as an incentive for accepting Brazil's Independence another instance was amidst the russo-japanese war when the Japanese government sought financial support from the London and Paris branch of the family the London consortium's issuance of Japanese war bonds amounted to a substantial 11.5 million pounds in 1907 currency rates equivalent to an impressive 1.08 billion pounds in 2012 currency terms but wait that's not all the Rothschild family has also financed the creation of an entire country Yes you heard that right they provided funding to Cecil Rhodes for the establishment of Rhodesia in Africa now known as the independent republic of Zimbabwe this place then became the site of the Rio Tinto Mining Company the first International expansion of one of the Rothschilds mining Ventures it goes without saying that the Rothschilds most probably claimed the title of the wealthiest family globally for a significant portion of the 19th and 20th centuries their financial reach even potentially surpassed the combined fortunes of today's figures like Jeff Bezos and Bill Gates they also generously funded several Ventures such as financing De Beers diamond mines and funding shamenda ferdunort or the northern Railway company which was a French rail Transport company the Rothschilds were also involved in the construction of the New York City Subways and even Club Med a French travel and tourism operator the Rothschild name evolved into a symbol of grandeur and vast wealth they were boldly distinguished by their passion for art their magnificent palaces and their charitable Endeavors various members of the Rothschild family also earned the titles of Barons and Lords bestowed upon them by two reigning Kings as the 19 Century Drew to a close the family boasted ownership or construction of at least 41 magnificent palaces these palaces were on a scale in Grandeur that might rival even the most affluent Royal households of that era such was their influence that Nathan or should we rather say Lord Rothschild was recognized as the most influential figure in Britain in 1909 by none other than the British Chancellor of the exchequer David Lloyd George expansion across Europe behind the scenes of the exploits achieved by the Rothschilds is the foresight of none other than Maya amchel Rothschild mayor amshel Rothschild was born in 1744. he was also the founder of the modern Rothschild dynasty and let's not forget to add the Rothschild International banking Dynasty Maya amshal was the son of amshul Moses Rothschild a money changer who had also dealt in rare coins and antiques meyeramshal inherited his father's business at the age of 12 after his parents died from a smallpox epidemic he soon proved his talent and ambition by expanding his trade and establishing contacts with import Nobles and Merchants he also married guttle schnapper the daughter of a wealthy Court agent who gave him 10 children five sons and five daughters Maya amshal's breakthrough came in 1769 when he became a court factor to William IX landgrave of Hesser castle one of the richest princes in Europe William was impressed by Maya amshel's Financial Acumen and entrusted him with managing his vast Fortune which included the prophets from renting out his soldiers to fight for Britain in the American war of independence Maya amshul also acted as a middleman for Williams transactions with other rulers and bankers earning commissions and fees for his services and in the wake of the French Revolution the Rothschild business experienced rapid expansion as they took charge of managing payments from Britain for the employment of Hessian mercenaries before long Maya amshal soon realized that he needed to establish branches in other European cities to secure his family's wealth and influence with this he knew he could access new markets and opportunities he also wanted to ensure that his five Sons Nathan Mayer James Mayer Salomon mayor Carl mayor and amshul mayor would work together as a cohesive unit rather than compete or quarrel with each other Maya amshul therefore devised a plan to send his five Sons to different locations where they would set up their own banking houses under his guidance and supervision he also instructed them to marry within their own family or other Jewish banking families to preserve their religious identity and prevent the dilution of their assets amsil Maya was the eldest son he remained in Frankfurt assuming the role of managing the original bank and overseeing the family's interests in Germany additionally he was entrusted with the responsibility of maintaining the connection with William of Hesser Castle who sought refuge in Denmark during the Napoleonic Wars and relied on the Rothschilds to safeguard his fortune Mayer was a conservative and devout man who preferred to avoid risks and conflicts he chose not to marry or have children and upon his passing In 1855 bequeathed his business to his nephews the Second Son Salomon Meyer moved to Austria in 1820 during that same year he founded SM Von Rothschild in Vienna Salomon skill fully led the Viennese Bank to remarkable success becoming a pivotal player in the advancement of the Austrian economy in acknowledgment of his invaluable contributions Emperor Francis the first bestowed Austrian nobility upon him in 1816 extending the same honor to all five brothers through a royal patent the bank actively funded Austria's first steam Railway the Northbound rail transport Network and supported several government projects that required substantial Capital raising additionally Salomon established influential connections within the country's aristocracy and political Elite Salomon amassed tremendous personal wealth investing in expansive properties art and Antiquities although he also made substantial contributions to philanthropic causes the accumulation of such immense wealth among a select few members of the Austrian Elite led to Growing civil unrest within the country amid mounting pressure the 74 year old Salomon reluctantly relinquished control of the bank to his son he then departed Vienna and chose to retire to Paris where he passed away in 1855 and then there's the third son Nathan Maya Rothschild with twenty thousand pounds in capital which is equivalent to 2.2 million pounds in 2022 he was dispatched to England to advance the family's interests in textile importing marking the establishment of their first foreign Branch Nathan obtained naturalized citizenship in 1804 during his time in England which marked the beginning of the English branch of the renowned Rothschild family he later established himself as a banker setting up n m Rothschild in 1810. he quickly Rose to prominence by taking advantage of the British government's need for funds during the Napoleonic Wars not only that but he used his network of couriers and agents to obtain information on Market movements and political events faster than his competitors enabling him to make profitable speculations on bonds and currencies his bank also helped finance Britain's purchase of a majority stake in the Suez Canal company in 1875 which secured Britain's control over the Strategic Waterway among the four adventurous Rothschild Sons Nathan attained the most remarkable success solidifying the family's position as a significant force in European and Global Affairs in 1824 a momentous collaboration between Nathan Rothschild and Moses Montefiore gave birth to the Alliance Assurance company an entity that has since become a part of the esteemed RSA group Nathan's strategic Acumen was further showcased in 1835 when he secured exclusive rights to Mercury mines in Spain with this bold move he effectively gained a virtual world Monopoly on this vital element crucial for refining gold and silver this invaluable Supply played a pivotal role in 1852 empowering NM Rothschild and Sons to undertake gold and silver refining operations for esteemed institutions like the bank of England and the Royal Mint in addition to Nathan's involvement in various government activities he also actively participated in the enactment of the slavery abolition act in 1833 alongside the slave compensation act of 1837 following the acts aftermath Nathan in conjunction with his business partner Moses Montefiore provided a substantial loan of 15 in Pounds to the British government valued at 1.51 billion pounds in 2023 this loan included interests that were eventually paid off by British taxpayers concluding in 2015 the funds were utilized to compensate slave owners across the British Empire following the abolition of the trade at the time of his demise in 1836 he already solidified the Rothschilds position as the foremost investment banker in Britain and Europe his personal net worth also stood at an impressive 0.62 percent of British national income after his passing his son Lionel Nathan Rothschild continued the family's business Legacy in England until his passing in 1879. the other two sons Carl Meyer Von Rothschild and baron James Mayer de Rothschild were both equally successful in planting the family's Legacy in Naples and Paris respectively while Carl Von Rothschild had occasionally been perceived as the least gifted among the five brothers his time in Naples revealed his true Financial Acumen and exceptional skills in cultivating crucial business connections Carl successfully established CM de Rothschild and Figley operating as an extension of the Rothschild banking families headquarters in Frankfurt Carl Mayer further wielded substantial influence with the bourbon King in Naples which elevated his standing in the region among the notable clients of the Naples Bank were esteemed institutions such as the Vatican the Dukes of Palmer and the Dukes of Tuscany he also built a strong rapport with the Finance Minister of Naples thereby solidifying his operation as the leading banking house in Naples however a few years after he died in 1855 the Rothschild Bank closed in Naples and the bank's assets were transferred to Frankfurt but thanks to Carl's achievements the Rothschilds further enjoyed a robust banking presence not only in England but also in three other prominent European capitals this widespread presence granted the family significant influence and a Competitive Edge over their rivals in the financial Arena the last son Baron James Mayer de Rothschild on the other hand expanded the family's banking Empire to Paris opening to Roth's child freyr or the Rothschild banking family of France after he arrived in the area in 1812 as an esteemed adviser to ministers and Kings he rose to become the most influential Banker in the country the Parisian Branch was also firmly established in no time as the banker to the French government in fact France's rise as an industrial Powerhouse could not have been done without James Mayer the baron played a pivotal role in financing the development of railroads and the mining industry after the Napoleonic Wars alongside these Ventures he expanded his wealth through strategic Investments including tea importation and the wine industry in 1868 James Mayer went on to acquire Chateau Lafitte a renowned Vineyard situated in the Bordeaux region of France this remarkable business has remained within the family's ownership to the present day and so with unwavering determination and astute business Acumen de Rothschild accumulated a fortune that ranked him among the wealthiest individuals globally at the time in all wherever the Rothschilds established themselves they were universally regarded as the titular leaders of the local Jewish Community the Rothschild constructed magnificent residences and accumulated the world's most extensive private art collection they had so much that the family once gave an estimated 60 000 pieces of artwork to public institutions among their vast array of four dozen Mansions is wadstone Manor which covers about six thousand acres The Manor was built for 1.5 million pounds which is about 124 million pounds in today's money or approximately 158 million dollars within the grand confines of Waterston Manor lie more than 45 rooms each room is also adorned with the finest displays of French 18th century decorative arts and exquisite 17th and 18th century paintings among the masterpieces showcased are works by esteemed artists like Boucher Gainsborough Reynolds Shada and fragonard accompanied by a remarkable array of rare Furniture porcelain tapestries clocks and sculptures in addition to Waterston Manor was the langau estate outside Vienna that rivaled the size of Manhattan their Pursuits also extended to owning renowned Vineyards and breeding Ray resources furthermore the French branch of the family established an industrial Empire encompassing steel plants and railroads however the landscape of the family Empire began to shift during the 20th century the Frankfurt house closed its doors in 1901 due to the absence of a male heir to continue the Legacy and as earlier mentioned the Naples branch of the family Bank also shut down in 1863 following Italy's Revolution which greatly impacted its aristocratic clientele despite this the Italian Rothschilds continued serving as financial advisors to the popes for years meanwhile the Austrian bank wants the Habsburg Empire's primary financier fell under the control of the Nazis in 1938. the Austrian Rothschilds also sought refuge in the United States in response to the tumultuous times and members of the English and French branches also followed suit following World War II the three surviving Banks situated in London and Paris and a Swiss bank founded by Edmund Adolf de Rothschild endeavored to rebuild and recover from the multiple closures but in spite of thing New Mexico Rothschild in London continued to flourish as a prominent gold bullion dealer and a merchant bank they also played a significant role in advising Margaret Thatcher's historic privatization program this program oversaw the sale of many major businesses including British Airways British Telecom British steel and British gas the bank therefore remained steadfast in offering valuable Council to major corporations and governments the year 2008 however ushered in A New Beginning for the Rothschilds the family decided to consolidate all of their Holdings under a single company named Paris orlil now Rothschild and Company this unification of the family businesses occurred approximately two centuries after the five sons of Maya Rothschild ventured across Europe despite the ups and downs the Rothschilds remain ever relevant their influence can also still be felt in various economic sectors to this day the Rothschilds today presently Rothschilds Holdings Encompass a diverse range of Industries including financial services such as RIT Capital partners and Company financier now Edmund de Rothschild group there's also their involvement in mining showcased by their ownership of Rio Tinto mining Corporation and a stake in glencore mining the Rothschilds are not also left out of the real estate scene as well as energy and charitable Endeavors Additionally the family boasts ownership of over a dozen wineries located across the globe this includes Chateau Mouton Rothschild and the Chateau Lafitte estate which is valued at a whopping four billion the Rothschild family likewise started making moves to privatize Rothschild and Company by repurchasing the shares listed on stock exchanges in 2023 this transaction values The Firm at an impressive 3.7 billion euros equivalent to over 4 billion a bulk of the family wealth has also been distributed among descendants and heirs over the years throughout the generations descendants have likewise entered into marriages with royalty and other prosperous families such as the Rockefellers and more recently the Hiltons with the Union of James Rothschild and Nikki Hilton for those in the dark the Hilton family holds varying degrees of power wealth and status in the United States but most importantly they are widely known for the Hilton Hotels and Resorts Group which was established by Conrad Hilton in 1919 now back to the Rothschilds the Rothschilds family's Collective net worth is currently estimated to be an astounding 400 billion dollars and some projections even suggest it may reach up to 1.2 trillion dollars a significant portion of the family members are also actively employed within the closely held corporations owned by the family some have also invested in various Ventures that contribute to the generation of the family's wealth with that said let's delve into the lives of some of the wealthiest living members of the Rothschild family and where they are today David Mayer de Rothschild David Mayer de Rothschild is a British Adventurer and environmentalist the 44 year old is the youngest of three children of Sir Evelyn de Rothschild and Victoria Lou shot According to some sources his net worth is estimated to be around 10 billion dollars making him one of the richest people in the world he is also regarded as the richest Rothschild alive de Rothschild became one of only 42 people and the youngest British person to ever reach both geographical polls he was also part of a team that broke the world record for the fastest ever crossing of the Greenland ice cap as a result of his explorations he went on to establish the adventure ecology organization which operates as a Vibrant Community and network for engaging in discussions concerning climate change and related challenges de Rothschild is also arguably the most audacious among the Rothschilds he is an Ardent environmentalist who has garnered immense admiration from his peers for his efforts likewise he also went as far as building and sailing a boat made from reclaimed plastic bottles and other recycled materials called the plasticky across the Pacific Ocean he did this to highlight the problem of plastic pollution additionally he has authored a collection of books recounting his daring travel expeditions to remote and secluded destinations Ariane de Rothschild ariani de Rothschild is a French banker and the CEO of Edmund de Rothschild group a private banking and asset management group she is in fact the first woman to run a Rothschild branded financial institution Ariana was married to Benjamin de Rothschild the son of Edmund de Rothschild and the heir of the group from 1999 until his death in 2021. today she is reported to have an astounding net worth of over 5 billion ariani started her career as a broker at sociate General in New York and then joined AIG an insurance company where she met Benjamin de Rothschild a client of AIG in 1993. so after their marriage in 1999 she joined the family business and took charge of the group's lifestyle assets such as wineries Farms hotels and restaurants ariani joined the board of Edmund de Rothschild group in 2006 and quickly Rose to the position of Vice President in 2009 throughout her tenure she dedicated her efforts to environmental and social impact Investments as well as streamlining the group's diverse assets and subsidiaries her exceptional leadership led her to assume the role of the president of the executive committee in 2015 before becoming the CEO of the institution in 2023 ariani also oversaw securing complete ownership of the group by Purge using outstanding shares from public shareholders lady Lynn Forrester Rothschild lady Lynn Forrester de Rothschild is an American British businesswoman who is the founder of the Coalition for inclusive capitalism a charity devoted to advancing economic and social inclusion she is also the Chief Executive Officer of el Rothschild a private investment company that she now owns the company was previously co-owned by her third husband sir Evelyn Robert de Rothschild who was a member of the Rothschild family until his death in 2022 lady Lin has a net worth of approximately 673.6 million dollars she is also currently a board member of the Estee Lauder Companies the McCain Institute for International Leadership and the Aranda Rothschild Foundation she is also a member of the Council on Foreign Relations International advisory Council of Asia house UK and a supporter of various political causes and candidates in 2008 lady Lin played a pivotal role as a prominent fundraiser for Hillary Clinton's campaign subsequently she attracted attention for her endorsement of John McCain in addition to these the CEO has been a vocal advocate for inclusive capitalism a movement that aims to make capitalism more sustainable Equitable and beneficial for all stakeholders she has organized and spoken at several conferences and events on this topic as well as published opinion pieces in various media Outlets Nathaniel Philip Rothschild Nathaniel Philip Rothschild also known as Nat is a british-born financier who has settled in Switzerland and is a cyan of the prominent Rothschild family according to Forbes his net worth is estimated at one billion dollars he's also the chairman of volex PLC a UK listed manufacturer of electrical components Nathaniel started his career at Lazard and gleacher two Corporate Finance firms before founding and selling several telecommunications businesses in North America and Europe he then became a major shareholder and chairman of Atticus capital a hedge fund that managed billions of dollars in assets Nat was born in 1971 in the United Kingdom he is the only son and Heir Apparent of Jacob Rothschild the fourth Baron Rothschild who is worth an estimated 5 billion dollars in fact the New York Times has dubbed him the man who may become the richest Rothschild as he is reported to be in line for a 40 billion inheritance set up in Swiss trusts that is one who loves a luxurious life he travels the world in his 62.31 million Bombardier Global 6 000 private jet this jet can fly up to 6 000 nautical miles it can carry up to 17 passengers and two crew members in a spacious and luxurious cabin that features a full-service Galley and a private stateroom but that's not all the 52 year old billionaire also owns a private yacht called planet nine the yacht which cost an amazing 102 million dollars can accommodate up to 16 guests in eight cabins and 26 crew members in 13 cabins she also features a luxurious interior alongside a lot of entertainment and relaxation options Baron David de Rothschild Baron David de Rothschild is a French banker and a member of the French branch of the Rothschild family in 1987 he recreated the bank in Paris after it had been nationalized by the Socialist government in 21 he named it Rothschild and sheer bank and expanded its activities to include asset management and mergers and Acquisitions in 2003 he orchestrated the merger of the French and British branches of the family business establishing group Rothschild where he assumed the role of executive chairman Baron de Rothschild also further expanded his responsibilities in 2018 he took on the positions of supervisory board chairman for Rothschild and Co and chairman of Rothschild continuation Holdings a Swiss holding company Baron David de Rothschild has an estimated net worth of around 575 million Euros which is equivalent to 634 million dollars in addition to his involvement in the family business Baron David has held the position of town mayor for an impressive 18 years in the town where the Rothschilds established their Residence at Chateau in Normandy besides he is a proud owner of a share in the renowned Chateau Lafitte Rothschild Vineyard the Rothschilds are a Hard Knock to crack and just as you can also tell Wars and conspiracy theories have never stopped them from ruling the world from anywhere they may be what aspect of the Rothschilds history do you find the most interesting and intriguing feel free to share your thoughts in the comments section below also for more captivating videos like this click on one of the cards currently displayed on your screen </t>
+  </si>
+  <si>
+    <t>{'Elaine Williams': "They didn't get this wealthy through being honest  . THESE ARE SOME DARK SOULS", 'Jeff Rudeseal': 'Stop bitching about it and go make your own fortune.', 'ดาวมณี โจนส์': 'สวัสดีคะทุกทุกท่านดิฉันอยากจะบอกอะไรสักอย่างต้องมีคนฝนราชวงค์อังกฤษที่จ้างคริสโตเฟอร์มาแต่งงานเพาะทำไม่บ้านขายง่ายง่ายและสโมสรเคยฝากเปเปอรของสโมสรมาให้ดิฉันแต่คริสโตเฟอร์ไห่ให้ดิฉันรู้ทุกทุกเรื่องและอย่างที่มาหนนี้มีเรศนัยมากมากเลยเพาะบริษัททรูมูลมีตั่วออกไห้คริสโตเฟอร์จอนโจนส์ได้อย่างไรดิฉันไม่ใช้คนโง้นะคะทีจะดูอะไรไม่ออกโปรดกรุณาขอต่อศาลโลกเป็นทำไห้ดิฉันด้วยและพระบาทอยู่ทีใหนมาช่วยประชาชนอย่างดิฉันด้วยเทิดนะคะฟีด', 'David Delgado': 'This defends the Money Lenders...\n\nI wonder why the Khazars published this and other videos!?', 'Wrist Candy': 'Drench Nobility Paysors are the richest apparently', 'Homo Deus': 'The lazy and feeble mind will always point fingers and accuse.', 'Matt': 'And I thought Trump billionare t billionares were richests😮😮😮😮', '@NarrowPather': "They aren't the wealthiest family, nor are they seated at the top of the pyramid. They're the face and name they want us to recognize as being so.", 'alan jax': 'hitler worked it out, as he said if you dont lend germany the money, we will take the money! at least he was honest unlike them,so you could say the rothschilds were partly responsibe for the holocaust as they failed to heed hitlers warning', 'Cuger Brant': 'ZZzzzzzzzzzz', 'Lydia Grace': 'They are ugly despite the expensive suits and sponsor criminals', 'adhd machine': '0:30 that is a picture of alexander hamilton', 'Ali Ismail': 'I feel dizzy after watching this video :)', 'Firedoor Pushkin': 'A LOT OF WHAT THEY SAY IN THIS VIDEO IS PURE RUBBISH AS THEY ARE NOR SUBSTANTIATED AND THERE ARE CONTROLS OF THE WEATHER AND THE ROTHSCHILDS DID MAKE MONEY OUT OF THE KNOWLEDGE  OF THE NEWS OF THE BATTLE OF WATERLOO AS THEY PUT IT ABOUT  THAT WELLINGTON HAD LOST SO CAUSING  ALL INVESTORS TO SELL THER SHARES WHICH THEY BOUGHT UP AT CENTS ON THE DOLLAR.', 'Adelchi Di Palma': 'I am happy that the truth is coming out. But the truth is the lye and the  iye   is the truth.'}</t>
+  </si>
+  <si>
+    <t>UCKQcazUy4R2p4nBWsxwQJyg</t>
+  </si>
+  <si>
+    <t>King Luxury</t>
+  </si>
+  <si>
+    <t>2023-08-27T08:17:34Z</t>
+  </si>
+  <si>
+    <t>0VAylWxDQfk</t>
+  </si>
+  <si>
+    <t>Judaism Explained</t>
+  </si>
+  <si>
+    <t>Sign up for an annual CuriosityStream subscription and you'll also get free access to Nebula (a new streaming platform I'm ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This video is brought to you by
+Curiosity Stream Get access to my streaming
+video service Nebula when you sign up for Curiosity Stream
+using the link in the description Judaism, at 4000 years old is one
+of the oldest monotheistic religions and the granddaddy of
+Christianity and Islam. But even though its teachings
+helped create the world’s two most popular
+ religions many people don’t know what
+Jews actually believe. What is the Torah?
+What’s a Covenant? and why don´t people on the Middle
+East worship mermaid anymore? Well, let’s find out. Judaism developed here in the eastern
+Mediterranean over the last 4000 years. Today there are about
+15 million Jews making it the tenth most popular
+religion on earth. Right, let’s jump straight
+ into their beliefs. Tanakh is the Hebrew
+name for the Hebrew Bible, known to most English
+speakers as the Old Testament. But obviously, they don’t call it that since they don’t recognise any New Testament. The Tanakh is actually a
+trilogy and the word Tanakh is made up of the names of the
+3 sections of the Hebrew Bible. T: for Torah N: for Nevi’im 
+and K: for Ketuvim The first section, the Torah, is the most
+sacred book of the Jewish People. The Torah consists of
+the five books shown here and is sometimes called
+the Five Books of Moses. Let's summarise this very long and
+very sacred book in a few paragraphs, it should be easy! In the beginning,
+God creates the world in six days and then has a deserved
+rest on the seventh. Later on, God starts talking to a guy
+named Abraham The Hebrew. He tells Abraham to leave
+his home in Mesopotamia and go to a land called
+Canaan, which is here. God makes a deal or covenant
+with Abraham, promising: "I will make of thee a great nation" and offers "the whole land of Canaan" to
+him and his descendants. To seal this special covenant
+God said unto Abraham “Every man child among
+you shall be circumcised.” And Abraham was like:
+we’re going to do what now! “ye shall circumcise the
+flesh of your foreskin, and it shall be a token of the
+covenant betwixt me and you” Circumcision was a symbol
+literally “cut into the flesh” of the Jewish People to
+show their covenant with God. And has been done by every Jewish male
+for thousands of years The Covenant is extremely
+important in Judaism. Later Abraham's grandson called
+Jacob literally wrestles with God or an angel of some sort
+for an entire night. So from then on, Jacob would be called Israel
+ "one that struggles with God". Jacob/Israel has twelve
+sons and their descendants would become known
+as the Children of Israel or Israelites and give their name to the land
+of Canaan now known as Israel. The Children of Israel would be
+enslaved in Egypt. But then one of them
+called Moses would under God's guidance lead the
+Israelites out of Egypt. Moses and his people arrive at Mount Sinai.
+Here God gives Moses the entire Torah which contains 613 Mitzvah
+or commandments the most famous of which is the 10 Commandments
+written on two stone tablets. This new Covenant requires Jews
+to worship only this God and to follow His commandments. In return, God will bless the Jewish people and make them a holy nation living
+in the Promised Land, which is Israel. The Israelites would eventually
+form a kingdom and one of their kings, Solomon, builds a Holy Temple
+ in Jerusalem,  which houses the Ark of the Covenant
+and becomes the sacred heart of Jewish worship. Ironically enough Solomon’s
+kingdom would cut itself in two. Israel, populated by 10 tribes descended
+ from the sons of Jacob in the north and Judah populated by the other 2 tribes,
+primarily the Judah in the south. In 722 BCE the Assyrians
+conquered Israel, leaving Judah as the sole
+surviving Jewish kingdom. Which is this guy, Judah,
+a random son of Jacob, and not even the one with the
+dazzling coat of many colours gave the religion of Judaism
+ and the Jews their name. In 586 BCE the Babylonians conquered Judah, demolished the Holy Temple,
+into exile and slavery in Babylon. The destruction of the Holy
+Temple and Babylonian exile is a heartbreaking historical
+event for Jewish people. But then in 539 BCE along came Cyrus
+with his big Persian army and cool hat. He wrecks the Babylonians, frees the Jews,
+and rebuilds the Holy Temple. And that concludes our retelling of the Tanakh.
+It is foundational to all Jewish belief and my summary barely
+scratches the surface. So you can go and read more by checking
+out links in the description or just waiting until I make
+a video just about that. In 70 C.E. the Romans destroyed
+the Holy Temple ….again, and sent the people into another exile. The Jews moved out across Europe, North
+Africa, and the Middle East forming a diaspora which periodically suffered persecutions, pogroms,
+and genocides from their neighbours. This 2000ish year exile is considered
+to have lasted up until 1947 with the partitioning of Palestine and the creation of the modern
+State of Israel in 1948. Now that was a very brief summary of 2000
+years of very complex history, so please bear that in mind. 2. God So Abraham lived in a world that
+believed in many, many gods. You had your Marduks, your
+Nergals, you even had Dagans, everyone loves Dagan,
+look at him the fancy merman. But Abraham believed
+in One God. An eternal, all-powerful,
+all-knowing creator of the universe, and the source of all morality. He has no children, he has no rivals,
+ he has no equals. This is known as monotheism
+and Judaism would spread this concept
+across the ancient world acting as an origin for both
+Christianity and Islam. Today, nearly everyone in this region
+follows a monotheistic religion and merman worship
+has dropped significantly. The names of God used
+the most in the Tanach are Elohim and the
+Tetragrammaton, which is honestly one of the
+coolest words ever. The Tetragrammaton
+is the letters YHWH. The actual pronunciation YHWH
+was lost thousands of years ago. Today it is sometimes pronounced as Yahweh. But that was just one theory. Many Orthodox Jews will not actually
+say the name out loud and ones said HaShem, “the name”
+or Adonai "My Lord” instead. Many Orthodox Jews won't even
+write words like God down, as a sign of respect and will
+use something like G-D instead. The Jewish God also takes an
+active interest in human affairs and interacts with humans on Earth. Humans can develop a personal
+relationship with God. God granted humanity freewill and they,
+like Jacob, can “wrestle with God”, and find and relate to God
+in their own personal way. The Hebrew Bible barely mentions heaven
+or hell. Heaven is just where God lives. It doesn´t mentions a place
+called Sheol, but it’s kind just a vague underworld
+where souls go after death. Doesn´t give any details. But the Bible does make it certain
+that the soul lives on after you die. When Abraham dies, for example,
+the Bible says: "he breathed his last, dying at a
+good, ripe age, old and content and he was gathered to his people....”. The Bible describes a bunch of different characters
+being gathered to their people and sinners being cut off from their people. So while the body returns
+to the earth the human soul goes somewhere to live on
+with their ancestors. Jews accept that they do not know what the afterlife would be like or
+what its rewards will be, but they think it will be based on
+the kind of life they lived on earth.  So they try to follow God's path
+ and commandments as closely as possible because even if they don’t know
+what rewards they´ll receive in the afterlife they know following God´s commandments
+here on Earth will make this world better. Many Jews try to act with Tzedakah
+or Justice or charity. Tzedakah comes from
+the Torah which says “thou shalt not wholly reap
+the corners of thy field..... neither shalt thou gather
+every grape of thy vineyard; thou shalt leave them
+for the poor and stranger". Today many Jews donate 10% of their income
+to the needy as part of Tzedakah. Many Jews today and in the past have hoped
+for the coming of a masheach or messiah. Which is prophesied in the Tanakh. The Messiah is a Jewish leader that
+will bring about the Messianic Era. They will rebuild the Holy
+Temple in Jerusalem and bring all the Jews back
+into the Promised Land. Which will bring about
+the perfection of the world and an end to all
+hunger, war, and suffering. When the Messiah comes, every Jew
+who ever lived will be literally resurrected. They will return to Jerusalem to be present when
+God creates a new heaven on Earth. This is why Jewish law
+demands that Jews must be buried with any
+amputated limbs lost in life. Jewish law also forbids cremation. All to keep the physical body intact
+for when it is resurrected by God after the arrival of the Messiah. For Jews, the Messiah has
+obviously not yet arrived because there is still suffering
+and inequality in the world. We already saw at the Tanakh but another book is also extremely
+important to the Jews. The Talmud.
+The Talmud is a collection of different books and is over 10 million words long
+and covers 38 volumes. It is a massive collection of
+commentary on the Torah and on itself on how the Torah or
+it’s commandments should be interpreted. It's filled with debate,
+legal interpretations, history, ethics,
+philosophy and legends. Within a few lines you
+can see rabbis that lived centuries apart debating
+a topic in the Talmud, it’s pretty interesting. It provides the foundation for Jewish law
+and is a guidebook for Jewish life. So those are some Judaism believes But Judaism is more
+than a religion. It is also a people, nation,
+culture, and civilization but not a race.
+There are black, asian, and white Jews. There are people born Jewish
+and people convert to Judaism. There are atheist, Agnostic, and a buffet of
+differing levels of religious Jews. According to Jewish law a Jew
+is a child born of a Jewish mother or a person who converts to Judaism. Some modern Jewish denominations also
+now accept descent through the father. Since the Medieval Period, there have been
+two major groups of the Jewish People.  Ashkenazi and Sephardi. The Ashkenazi are the Jewish community
+that developed in Central and Eastern Europe. They speak Yiddish, a combination of Hebrew
+and the languages of Central Europe. Yiddish words like bupkis, chutzpah, and klutz are
+familiar in English speaking pop culture because most Jewish immigrants in the
+United States were Ashkenazi. The Sephardi Jews are descendants of the
+Jews of Spain, and those who fled from Spain to other
+Mediterranean countries and North Africa. They have their own language, Ladino,
+a combination of Hebrew and Old Spanish. But unfortunately, this language
+is under serious threat of the extinction There are also communities of Jews who do not
+fall into these two categories such as the Jews of Iran
+and Iraq, Yemen, Ethiopia, China, and Georgia along
+with many, many others. All these different groups make up a diverse
+range of Jewish beliefs and cultures. What many Americans and Europeans think of
+as Jewish culture or Jewish food is really Ashkenazi culture
+and Central and Eastern European food, adapted to Jewish kosher laws. An Ashkenazi will eat Schmaltz herring  while a Sephardi will enjoy couscous. An Ashkenazis will celebrate
+ with a glass of schnapps, a Sephardi will go for some Arak. Ashkenazis called Saturday, Shabbos,
+Sephardis called Shabbat. Before the Second
+World War about 9 million Jews lived in Europe,
+5 million in the Americas, 800,000 in Asia, and 600,000 in Africa.
+Just above 15 million in total. About six million Jews were systematically
+murdered during the Shoah, the Hebrew term for the Holocaust. The emigration, expulsion,
+and extermination of Jews from their old heartlands
+during the 20th century has made North America and Israel
+home to the majority of modern Jews. Today there are many different
+ denominations of Jews. Ranging from Jewish atheists
+to Orthodox Jews. Orthodox Jews believe the
+Torah is the direct word of God and they strictly follow it's
+words and commandments. The best known Orthodox Jews
+are the Hasidic Jews, Jews that are recognisable
+and distinct fashion, which has been appropiated by hipsters. There is also Reform, Conservative,
+ and Reconstructionist Judaism who all cover a wide
+ range of beliefs. From not believing in a personal
+or supernatural God and thinking ritual and ceremony
+have no place in the modern world to belief in God and the Torah but changing
+their interpretation as society evolves. Shabbat or the Sabbath or Saturday
+is the 7th day of the Hebrew week and the most important day for Jews. Since God rested on the seventh day,
+Jews do the same. It is a day of physical
+and spiritual rejuvenation. Jewish law prohibits
+any work on Shabbat. Activities such as doing business,
+spending money, shopping, housework, driving, using electricity,
+or even using the phone are discouraged. While things like prayer
+or reading are encouraged. The laws of Kosher
+regulate the Jewish Diet. What is Kosher? Well according to the Torah
+and Jewish law. All vegetables, fruits,
+grains, and nuts are kosher. When it comes to meat
+a kosher animal is one that both chews its cud
+and has a cloven hoof. Don't worry I didn't know
+what cud was either. Cud is a bit of food that an
+animal chews and then swallows and then vomits back into their
+mouth and then chews again. Which is why some animals can just
+appear to be chewing all the time. Examples of kosher animals
+are cattle and sheep. While nonkosher animals include pigs,
+dogs, rabbits, and well humans actually. Kosher animals must also be killed
+in a certain way called shechita. This method uses a trained
+professional with an incredibly sharp knife to deliver
+quick death to the animal. Finally all blood must be drained from the
+animal because blood isn’t kosher. Today kosher food can be
+bought from kosher shops or recognised by special
+kosher symbols on products. All shellfish, birds of prey like eagles or
+owls, and fish without both fins and scales like shark, whale, and porpoise
+are not kosher. From the destruction of the Second Temple
+in 70 CE until today, the synagogue has been the centre
+of Jewish life and worship. In every synagogue, you’ll find
+a handwritten Torah Scroll. Which is read aloud
+during services. You’ll also find a rabbi. A rabbi is a trained
+Jewish scholar and interpreter of Jewish law. They conduct many Jewish
+events, such as circumcisions, Bar and Bat Mitzvahs,
+weddings, and funerals. While there you may
+notice people wearing a kippah also known as
+yarmulka on their heads. Judaism originated in
+the Middle East, where a sign of respect to
+God is a covered one´s head. Orthodox Jews believe they are
+always in the presence of God, so they wear a kippah at all times. More liberal Jews wear
+a kippah sometimes. You might also notice
+that many Orthodox Jew have long curly hair on
+the sides of their head. These are called Payot
+and Orthdox Jews do not cut this hair because of a
+command on the Torah that says  “Ye shall not round
+the corners of your heads'' You can learn more about
+Synagogues, the history of the Jewish people,
+and much, much more in the gorgeous documentary series
+Sacred Spaces, over on CuriosityStream. CuriosityStream is a
+documentary streaming service that will give you access to
+thousands of documentaries including some featuring top
+names like David Attenborough and Stephen Hawking,
+along with exclusive originals. Normally you’d get unlimited
+access starting at just $2.99 a month and the
+first 30-days completely free if you sign up at
+curiositystream.com/cogito and use the promo code “cogito”
+during the sign-up process. But during these tough times CuriosityStream
+is offering a 40% Off Stay at Home Deal  to help you pass time during quarantine. And by signing up to
+CuriosityStream you will be helping me and the Youtube
+educational community, because CuriosityStream loves independent
+creators and wants to help us grow, so they’re offering Cogito
+viewers free access to Nebula when you sign up at
+CuriosityStream.com/cogito. Nebula is a streaming
+video platform I’m helping to build along with lots of other
+independent creators like TheLowSpecGamer, MiaMulder, and KnowingBetter
+along with a bunch of others. Nebula even hosts original content such as
+Tom Scott’s new game show Money. All ad-free and earlier than Youtube.
+This video was up on Nebula days ago. So go to curiositystream.com/cogito
+and start enjoying amazing content on CuriosityStream and Nebula
+while helping to support educational creators
+whenever having to sit through ads. So those are the basics of Judaism. It isn't
+even close to covering everything. I probably only covered about 1%.
+One video simply can't cover everything. Religions are too diverse,
+too deep, and mean too many different
+things to different people. But you can find all the sources
+used in the description. If you liked this video
+please subscribe. If you are interested in
+supporting the channel,  there are links for Patreon and
+my t-shirt store also in the description. If you liked this video I think
+you’d really enjoy my videos on Hinduism, Sikhism,
+and Zoroastrianism. Which you can see on screen
+or linked in the description. Thank you so much for watch. </t>
+  </si>
+  <si>
+    <t>{'Cogito': "CuriosityStream is doing a 40% Off Stay at Home Deal so a year subscription has gone from $20 to $12! Sign up for an annual CuriosityStream subscription and you'll also get free access to Nebula (a new streaming platform I'm helping to build along with other creators). Use my promo code when signing up to get a 31-day free trial: https://curiositystream.com/cogito", 'Martin Coyle': 'Are you from Monaghan?', 'ks k': 'we actually know the pronunciation of yhwh but we do not say it', 'Norski': 'I’m currently studying for a religion test and this was super helpful', 'Bella Marley': '2:02 😂', 'Aferg1986': 'I’ve been studying religions and found your videos! Thank you!', 'Mercedes wolk': 'Politely ,Christian from USA \n\nJewish is on my ancestry DNA 🧬 \n\nSo how isn’t it a race ?\n\nLove to everyone ♾️☦️', 'Powerneck500': 'I really can’t believe, that people believe in this pure nonsense..\n  All religions included..\n      Is there any proof of any Gods or Heaven ??😂', 'Peter Rocc': 'I tell you, Nay: but, except ye repent, ye shall all likewise perish. (Luke 13:5)\nEnter ye in at the strait gate: for wide is the gate, and broad is the way, that leadeth to destruction, and many there be which go in thereat: Because strait is the gate, and narrow is the way, which leadeth unto life, and few there be that find it. (Matthew 7:13-14)\nAnd whosoever was not found written in the book of life was cast into the lake of fire. (Revelation of John 20:15)', 'Dan Dillinger': 'Makes me dislike more', 'turts_power': 'Christianity and Judaism is kinda the same cus in the bible it also showed the moses thing', 'Neo2527 W': "Isn't it Jewism rather than Judaism?", 'Daniel Ritchie': 'I heard there is unlimited Crunchwrap supremes in Sheol', 'Hackin Tosh': 'Judaism is a newer religion, not an old one. It\'s mainly about the Talmud and Kabbalah. Kabbalah is the occult and was forbidden by the real Jews in the Torah that this video claims they follow. The Star of Chiun (Saturn) was also forbidden by the real Jews (Amos 5:26) and Judaism has taken it as their symbol. Judaism is fraud and the people who claim to be Jewish hail from Edom like Herod the Great who they also consider "Jewish". He put real Jewish children from the tribe of Judah to death.', 'Torterra tortellini': 'I’m an atheist. Why do I keep getting recommend videos about religion?', 'Jaze': 'Why does God care on your penis foreskin? Really curious.', 'ThePugPrince': 'I pray that all Jews and Muslims find Jesus and accept him as their lord and savior.', 'Hylumi': 'so was Judaism based from Zoroastrian beliefs or vice versa?? or did both originate separately?'}</t>
+  </si>
+  <si>
+    <t>UCKMnl27hDMKvch--noWe5CA</t>
+  </si>
+  <si>
+    <t>Cogito</t>
+  </si>
+  <si>
+    <t>2020-05-02T12:00:59Z</t>
+  </si>
+  <si>
+    <t>_jgM_37wGOE</t>
+  </si>
+  <si>
+    <t>Are Jews White?</t>
+  </si>
+  <si>
+    <t>While some Ashkenazi Jews may appear white and identify as such, the concept of whiteness is complex. Historically, Jews were ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- What do all of these
+celebrities have in common? Yes, they're all hilarious,
+quirky, occasionally irreverent. All right, and they're Jewish. - Was he Jew? - He was.
+- Yes. - Plus, they all share some
+physical features, curly hair, light skin, just your
+average white people, right? - That's right. - Not so fast, because whiteness and race in general is
+complicated, and whether Jews count as white has become an
+increasingly thorny question. So let's explore, are Jews white and what
+does it mean if they are? I'm gonna let you in on a little secret. Jews come in all shapes and colors. From India and Morocco to
+Brazil and the Philippines, Jewish communities exist
+literally all around the world. Okay, you might be thinking, I get it. Jews aren't exclusively white, but what about Ashkenazi
+Jews whose ancestors lived in Eastern and Central Europe? Many of these Jews appear white and a whopping 95% of
+American Jews are Ashkenazi and do identify as white in surveys. But let's take a step back. What does it even mean to be white? "That's easy," you might say. White just means light skin tones. Simple as that. Or is it? If you're familiar with history, you know what's not quite that simple? Race isn't just about skin color. Race is a social construct,
+meaning people invented it to promote a particular worldview. One where whiteness is the default and everyone else is the other. It's hard to trace
+exactly when the concept of whiteness began. As the historian Nell Irvin Painter said, "White identity didn't
+just spring to life, full blown and unchanging." It seems to have had early roots in a sense of European identity
+with purity and virtue. But historians trace its major
+debut to the 17th century when Europeans started
+spreading their ideals across the world through
+imperialism and colonization. When these European
+colonialists encountered people with darker skin, they decided to put them in some kind of hierarchy. So they started implementing
+racial categories. These categories weren't
+just ways to place people in neat little boxes. There were a justification
+for the enslavement and exploitation of indigenous
+peoples around the world. Whiteness is a messy term
+whose definition changes from place to place. It follows its own nonsensical logic. In fact, it's this nonsensical logic and hazy definition that's
+made it so powerful. Each group of rulers
+gets to adjust the rules of whiteness to suit what serves it best. In America, it was the one drop rule. If anyone had any African ancestors, even one drop of African blood, they weren't considered to be white. In Nazi Germany, it was the designation of
+honorary Aryan Hitler gave to the Japanese and
+Chinese to certify them as part of the white Aryan race. White during the British rule of India versus the American South during Jim Crow versus Germany during the Third Reich were all defined differently. But what did they all have in common? The ruling group was called white and everyone else was, by
+accident of birth, less than. In other words, whiteness is, by definition, white supremacy. And when it came to Jews, considering the long history
+of persecution Jews faced from the Crusades to the Inquisition to the Holocaust, and on
+and on, it's pretty clear that European society considered Jews to be categorically separate and inferior. And if whiteness was historically
+linked to being Christian, well, then Jews were definitely not white. So when did Western
+society start referring to Jews as white? And when did many
+white-presenting Jews begin seeing themselves as white? In America, as early as the
+1790s, Jews were included in the legal definition of free white persons
+eligible to become citizens. Sephardic Jews had already
+been living in America for more than a century,
+along with a small number of African American Jews
+who didn't have the benefit of racial ambiguity. But by the late 1800s,
+there were thousands of Jewish immigrants streaming
+in from Eastern Europe and they were different from the majority of
+white American society. They spoke their own
+language, ate different food, and celebrated different holidays. And while America may have
+been founded by immigrants, it was only certain kinds of
+immigrants that were welcomed, namely white-presenting
+Anglo-Saxon Christian immigrants. Ashkenazi Jewish immigrants, not so much. Swarthy Jew became a common slur. Employers shut their doors to Jews, so much so that requests
+flooded city courts to change Jewish sounding last names. The famous anti-slum crusader
+Jacob Riis considered Jews to be one of the lowest,
+dirtiest ethnic groups. Populist racist politician Thomas Watson considered Jews even lower than Black people on
+the social totem pole. Not to diminish that the Black community
+has always born the brunt of white supremacist rage in America. Post World War I,
+anti-Semitism only got worse. Unease among the European majority rose, communism was rising in the Soviet Union, and Europe was a mess. Many felt that their
+society had been infiltrated by foreigners, especially groups like Jews who simply didn't
+blend into the dominant culture. So where did Jews fit into
+America's racial hierarchy? On one hand, Jews were
+beginning to rise socially as they became educated and
+their economic status improved. Many Jews had started assimilating, taking off their religious
+garments or working on the Sabbath to get jobs that would've been
+barred to them otherwise. And yet, Jews still lived separately and differently from the
+mainstream white population. Jews weren't white, and yet
+they weren't not white either. And that presented a problem for white Anglo-Saxons trying
+to reorder their social world. This so-called Jewish problem, combined with the Great Depression fed harsh anti-Semitic rhetoric. Weekly radio show host Charles Coughlin attracted the attention of tens of millions of Americans
+with his Jew hating rants. Even the most liberal elites of Anglo-Saxon society placed the blame for anti-Semitism on Jews
+for not assimilating. In response, many white-presenting
+Jews tried even harder to prove their belonging in white society by asserting
+their relative whiteness in comparison to Black Americans. For example, some Jewish social clubs started performing in blackface. After all, only whites
+could put on blackface. So if white-presenting
+Jews put on blackface, that would make them white too, right? I know it's gross and ironic, cosplaying as Black to try
+and prove that you're white. By the 1930s, many Jews were still clawing to gain acceptance into American society. Certain neighborhoods and
+clubs still barred Jews. Many Ivy League schools
+still had Jewish quotas to prevent Jews from
+endangering the school's status as white men's colleges. Most Jews still wouldn't have
+defined themselves as white. After all, most of society still wasn't accepting Jews as white. Being that Jews were restricted
+from full participation in white society, Jews
+were often only able to purchase homes and open stores in non-white neighborhoods. For many black Americans, this meant that Ashkenazi Jews were the most proximate
+non-Black ethnic group. This certainly allowed for positive relationships to develop. Unfortunately, this
+proximity also manifested in ethnic tensions and
+exploitation of Black people. White Americans may not
+have seen Jews as equals and yet some Black Americans were experiencing
+white-presenting Jews as part of the harmful white power structure. After World War II,
+things began to change. Having served in the
+American armed forces, many Jews were eligible
+to take full advantage of GI Bill benefits that
+Black veterans were denied. White-presenting Jews slowly
+rose out of the non-white, non-American work in the
+slums, and began moving to white collared jobs as
+managers and professionals. And with more assimilation
+and a rise in economic status came more acceptance. It wasn't until very recently
+that the average American would consider a
+white-presenting Jew to be white, or that such a Jew would
+consider themselves white. And even today, many
+white-presenting Jews feel unsettled with being categorized as white. After all, the history of whiteness is inextricably connected to the history of the persecution and oppression of minorities, including Jews. Mass shooters in Norway,
+New Zealand, and the US, as well as the January
+6th insurrection in D.C. have all invoked whiteness and the maintaining of
+white power as motives for their actions. The Tree of Life shooter in
+Pittsburgh justified his actions by referencing the Jewish
+people's non-whiteness, and the Charlottesville white supremacists not only viewed Jews as non-white but also as destroying white culture. - Jews not replace us. - And yet, while history
+has often thrust Jews into the position of victim
+and outsider, in the space of only two generations, many
+Jews have assimilated into and risen up in American
+society in major ways. And these two realities once
+again bring up quite a bit of tension for people trying to fit Jews into a simple category. Are Jews part of the establishment
+that oppresses people of color or part of the
+victims of the establishment? Should Jews be considered
+a racial minority or should Jews be considered
+part of the problem? And can the complex
+intersection of history and identity really be boiled
+down into two clear sides? It's a weird position to be in, right? Not white enough in some respects, yet too white in others. And the truth is this
+conditional whiteness is a form of antisemitism in and of itself. For one, labeling all Jews as white completely erases the experiences and identities of Jews of color, Jews like myself who have no option of assimilating into white America. Painting Jews as part of the establishment of oppressors also ignores the real and frightening anti-Semitism that still endangers Jews today. Recent FBI data revealed that per capita, Jews are the top target for hate crimes in the United States. The rising violent attacks
+against Orthodox Jews in New York sadly supports the statistic. Sure, a kippah is possible to take off while skin color is not. But oppression Olympics is a harmful game. And to suggest that Jews
+aren't truly victims and that they can just
+shed their religious and ethnic markers is just
+another form of victim blaming. Implying that Jews can
+remove their Jewishness also dismisses the history
+of Jews being persecuted as a race in places like Nazi Germany where it was nearly impossible to pass as part of the Aryan mainstream. To this day, many white supremacists look for physical markers associated with Ashkenazi Jews like dark, curly hair or aquiline noses to racially
+identify Jewish Americans. Labels can be helpful. They can give people, a community a way to categorize themselves in a context to help them
+understand their experiences. They can also serve as a mirror for people to see their own faults and privileges and
+honestly, work to change. But we also have to know
+the limits of labels. Race is complicated. Jewish identity is complicated and neither can be boiled
+down to a simple label. It's not black or white. </t>
+  </si>
+  <si>
+    <t>{'Air Charter': 'Biblically, I tend to believe the ancestors of Jews were dark-skinned', 'DON MICHAEL': 'Arabs are white', 'Veronica Vanderver': "Do your research people don't take everything for granted on this video you have to reserch slavery Atlantic slave trade by Thomas Sowell. And social justice verses biblical Justice by Dr Voodie Baucham. And white slaves on YouTube", 'tmatt1999': 'You beg the question are Jews a religious group, or are Jews a race?  I always viewed them as a religious group.  I will say this, I am an Italian-American and in college, I dated white protestant women whose families came from Northern Europe, I dated Black women, I dated Hispanic women and I dated Asian women.  I did not receive strong objections from parents until I dated a Jewish woman.', 'gordum her seyi': 'this discourse sucks so hard\nmy ashkenazi family is darker than you, "jew of color who cant choose to assimilate"\nyou completely ignored that arabs and mizrahim are also white in the u.s., this issue isnt about ashkenazim in the first place. yet you imitated the people who made it that way, who are just sadists mocking holocaust survivors.', 'Warren': "All Japanese will stay Japanese because they don't cross borders into other people's countries and cultures", 'Batfleck Forever': 'If Jews ARE white, all accusations of white supremacy are also anti-Semitic in nature. If whites control everything, then Jews also play a hand in that control, using their influence to disenfranchise racial minorities. Also, Israel must then be considered a white supremacist state that oppresses the nonwhite Palestinians and therefore must be destroyed for the sake ending racism and protecting racial minorities.\n\nIf Jews are NOT white, then racial minorities are vastly overrepresented in media, entertainment, law, and other fields with strong influence in the political and economic landscape. This debunks the narrative of white supremacy.', 'Jesus Christ': "There are 6 white races, Aryan, Slavic, Yamnayan, Corded-Ware, Ano, and Sememites. These are proven with genetic data. Yamnayan and Semites are the closet related with cousin mitrochondrial dna, and this is why we share neaderthal ancestry and phenotypes like red hair and neaderthal bunds. Please use genetic data, this anti-racism is only accelerating race realizism in the 21st century. Ano are the rarest white race and they as you would say maynot have phenotypes as us, thats no more genetic drift than between the semites and Yamnayan culture in western indo-europe, around 13k years ago. We know this due to genetic testing and burial mounds. It wasn't until 3k years ago when aryans took the wheel and chariot and horses from the Yamnayan and Semetic traders of indo-europe and the middle east, it wasnt until culture stressors in eastern indoeurope that youll see white  haplotyples in Yamnayans to become more dominant due to social stressors, even thought they were hyperhomogenous still due to war mimicry developes due to social stressors. You can see this in danish genetics today as theyre homogenously 98% Yamnayan Culture today while Germany, Ukraine and Austria are heavily aryan (caucasians) thats where the term Caucasians come from which is not where indo-europeans come from, we come  europe, not caucasian. Duh.", 'miamibitch305fl': 'It’s only because of blacks and racist blacks that the common thought process that Jews, Italians, and Spaniards are white', 'slapajoo77': 'Proof Jews are evil. In this time of anti white hatred jews are the only people trying to convince you they are not white.', 'Jeffrey Schwarz': "Truth be told all humanity originated out of Africa.   Two hundred fifty thousand years ago humanity's ancestors wandered the savanna of Africa and then spread all over.", 'Alla Uk': 'Some of your historical facts are not true about Jewish people from Old Testament (Torah) scriptures you spoke of ‘Why Jewish people were banished from their land in Israel?’ \nIn OT scriptures, When Jewish people inner married non Jewish seed (pagans) from other nations, such group of pagans would lead Jewish people astray into abominations. So, Yahweh (God) sent Jewish prophets to rebuke evil among Jewish people. However, when Israel would not repent after awhile, Yahweh finally, sends his judgement on his people so that they would repent and turn away from evil and be righteous in his eyes. And he also did this to preserve the blood line for the Messiah as to fulfill the scriptures.', 'H Kay': 'Well articulated', 'Scy14': "Hello fellow Whites, we as White people should give up all our resources. But not me, I'm jewish.", 'Francisco Sánchez': 'Interested that Jews created marxism'}</t>
+  </si>
+  <si>
+    <t>UCU63EiU7Y-8xcRntPIRVrzA</t>
+  </si>
+  <si>
+    <t>Unpacked</t>
+  </si>
+  <si>
+    <t>2023-05-31T12:00:23Z</t>
+  </si>
+  <si>
+    <t>6BosIU_YI-8</t>
+  </si>
+  <si>
+    <t>Why Don&amp;#39;t Jews Believe in Jesus?</t>
+  </si>
+  <si>
+    <t>Jews for Jesus and other Jewish messianic movements claim people can believe in core Christian tenets and still be Jewish.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- The Jewish people have
+a complicated relationship to the world's most famous Jew. No, not Albert Einstein or
+Sigmund Freud or Larry David. I'm talking about the
+1st century rabble-rouser that Christians believe is the Messiah and Jews, well, don't. And while I'm proud of how far
+Jews and Christians have come in bridging historical divides, Jesus as the Messiah continues to be the major fork in the road between the two religions. Seems pretty cut and dry, right? Not so fast. - You are Jewish?
+- Yeah, I'm Jewish. - And you believe in Jesus?
+- Absolutely. - So how can you claim to be
+Jewish and believe in Jesus? (bright music) Is Jesus for everyone? For once, every single Jewish institution is on the same page. If you accept Jesus as the
+Messiah, you're not a Jew. You're a Christian. And to understand why we gotta rewind to the
+early days of Christianity. Put yourself in the shoes, or sandals, of a 1st century Jew living in Judea. Your home is under a
+brutal Roman occupation that taxes you and interferes
+with your religious freedom. Your leaders are fighting about
+the best way to be Jewish. Your community is deeply divided
+between rebels, Hellenizers, and even an apocalyptic cult. It's a hot mess. In fact, it's exactly the kind of mess that Jews believe will
+precede the Messiah. You know, it's always darkest
+before the dawn kind of thing. First, they're suffering, then the Messiah shows up to
+bring the ultimate redemption. An autonomous Jewish kingdom
+in Israel, peace on Earth, the ingathering of all Jewish exiles. Sounds pretty good, right? Especially amid the chaos and
+violence of 1st century Judea. So it's not that surprising
+that a bunch of miracle workers and would-be Messiahs were
+running around at the time. Like Choni the Circle-Maker. That's actually what people called him. And Judas of Galilee and the
+anti-Roman rebel Theudas, and the carpenter from Nazareth
+who drew crowds of followers with his fierce love for his fellow man. Remember, the Jewish
+people were fighting a war on two fronts. One against the Romans and
+one against each other. Jesus' message, which was
+rooted in Jewish teachings, found an eager audience, and some truly believed that he would end the Roman occupation and restore the independent
+Jewish monarchy. But that never happened. The charismatic leader had
+too much political influence, so the Romans crucified him and went right on persecuting
+the rest of Judea's Jews. And for most Jews, that was that. Jesus hadn't kickstarted
+the Messianic Age. In fact, though no one
+knew it at the time, the Romans were about to
+destroy the Jewish Temple. And peace on Earth? Have you watched the news lately? We've got a long way to go. The carpenter from Nazareth just didn't check all the boxes he needed to be considered the Jewish Messiah. But some of Jesus' followers
+continued to believe. As the new sect grew to
+include pagan converts, its Jewish characteristics
+all but disappeared. By the 2nd century, Christianity had morphed
+into its own religion entirely distinct from Judaism. For millennia, the two
+religions maintained a sharp separation marked by mutual distrust
+and a lot of antisemitism. And yeah, I'm putting that very lightly. But in the 1800s, Jewish converts to Christianity decided to bring their
+newly adopted religion closer to its Jewish roots. They worshiped in what
+they called synagogues, maintained certain Jewish practices, and even incorporated
+elements of Jewish culture into their Christian worship. Over time, these communities evolved into the so-called Hebrew
+Christian movement. By the 1970s, a new branch
+of Christianity was born. Its followers called it Messianic Judaism. As in we can be Jewish and
+still believe in Jesus. - You're gonna believe in Jesus Christ? - I know it sounds
+funny, but I'm gonna try. - And while there are different branches of Messianic Judaism, you're probably most familiar with their best known
+representatives, Jews for Jesus. But don't be fooled by their name. There's nothing Jewish about
+what these groups believe. There are evangelical Christians who use Jewish symbols to lure
+Jews closer to Christianity. I wanna be clear, I've got absolutely nothing against Christians or Christianity. You do you. No, my problem is with
+Christian missionaries who appropriate Judaism
+in order to convert Jews. So where did Jews for Jesus come from? The movement's founder
+was a Baptist minister named Martin "Moishe" Rosen. Not the most common name
+for a Baptist minister. That's because Rosen grew
+up in an Orthodox community but converted to Christianity in 1953. - Church?
+- Yeah. - Your last name's Steinberg. - Oh, I'm a Jew for Jesus. - And he spent the rest of his life trying to convince his
+fellow Jews to follow him. Rosen knew very well that
+Jesus was a hard sell for even the most secular Jews. Jews have had a long and
+often unpleasant history with the Church and most of us are pretty
+skeptical of Christian evangelism, so Rosen came up with a plan. He repackaged Christianity
+as a Jewish movement, emphasizing Jesus' Jewish roots and including Jewish rituals. His movement placed Jews and
+Judaism front and center, fooling potential converts into thinking they were signing up
+for a Jewish movement. Since 1973, Jews for
+Jesus has spent millions trying to lure Jews to Christianity. They've tried everything. Handing out pamphlets on the street, mailing Orthodox Jews Yiddish
+language DVDs about Jesus, taking out radio and subway ads. With over a dozen
+offices around the world, including in Israel, the movement claims hundreds
+of thousands of followers. Their followers will tell you
+that they're fully Jewish, that they live Jewish lives, that accepting Jesus doesn't
+mean renouncing Judaism. But let's be real, none of that is true, because the theology of Jews for Jesus is explicitly Christian, which means it's entirely
+at odds of Jewish beliefs. How so? Let's look at five
+of their major tenets. First up, Jesus is the Messiah. (buzzer buzzing) Yeah, not a Jewish concept. Judaism is very clear about what the Messianic
+Age will look like. Spoiler, not this. Number two, man was born in sin and Jesus died to atone for those sins. (buzzer buzzing) Also not a Jewish concept. We don't believe that
+humans were born in sin. We've got free will. Some of us use it to do good,
+some of us use it to do bad. Those are the sins we need to atone for, not the sin of being born human. Number three, the only way to avoid hell is to accept Jesus as your savior. (buzzer buzzing)
+(man laughs) Yeah, that's also not gonna work. Now, we're not totally sure
+what happens after we die. Is there a hell? Maybe-ish. It's complicated. But Jewish scholars do agree on one thing. If there is a hell, it's absolutely not the same
+hell that Christians envision. And it's your actions, not your beliefs, that are most likely to send you there. Number four, Jesus is both
+God and the Son of God. (audience laughs)
+Definitely not. Judaism sees God as singular, utterly outside of our comprehension, and certainly not human. Number five, like the Hebrew Bible, the New Testament is divinely inspired. (buzzer buzzing)
+Also no. We believe that only the Hebrew
+Bible is the Word of God, and the Jewish commandments it describes? Yeah, we still follow those. I could go on and point to things like Jews for Jesus' focus on conversion which is not a Jewish value, but you get the picture. There's simply nothing Jewish about Jews for Jesus' theology. It is word for word textbook Christianity. So how has Jews for Jesus and
+Messianic Judaism more broadly managed to convince some
+Jews that you can be Jewish and practice Christianity
+at the same time? Well, they've downplayed
+their Christian theology. You know, the Trinity, original sin, hell, all stuff that runs
+counter to Jewish beliefs. Instead, they focus on
+Jesus' Jewish roots. They host Shabbat dinners
+and Hanukkah parties, they wear T-shirts with Hebrew slogans, they co-opt Jewish symbols
+like the Star of David or the Menorah, they call their churches synagogues and their religious leaders, rabbis. Oh yeah, and they don't
+call themselves Christians. Instead, they say they're
+fulfilled or completed Jews. - I consider myself a completed Jew. - Which is pretty insulting. All of these practices
+are purposely deceptive, designed to entice Jews into
+practicing Christianity. Even other Christian organizations are split on Jews for Jesus. In fact, lots of Christians are split on whether to evangelize to Jews at all. Christian-Jewish relations
+have never been as strong as they are now, and a lot of that has to
+do with mutual respect. The wider Jewish community wholeheartedly condemns Messianic Judaism. Organizations like Jews for
+Judaism and Outreach Judaism promote Jewish education and literacy so that vulnerable Jews
+have the tools to recognize when they're being evangelized. So the next time you see Jews for Jesus missionizing on the street, remember this. They might walk the Jewish walk, they might talk the Jewish talk, but they're ambassadors
+from another religion. It took centuries for
+Christianity and Judaism to achieve mutual respect. Our ancestors couldn't
+have dreamed about a world where Christians and Jews worked together on important issues, but groups like Jews for Jesus challenge those hard-won accomplishments by claiming that Judaism is
+just a gateway to Christianity. We should have more respect
+for each other than that. </t>
+  </si>
+  <si>
+    <t>{'Thehole Yourin': 'Free Palestine', 'Nduati Patt': "Proverbs 30\n \r[4] Who hath ascended up into heaven, or descended?\nWho hath gathered the wind in his fists?\nWho hath bound the waters in a garment?\nWho hath established all the ends of the earth?\nWhat is his name, and what is his son's name,\nIf thou canst tell?\n[5] Every word of God is pure:\nHe is a shield unto them that put their trust in him.\n[6] Add thou not unto his words,\nLest he reprove thee, and thou be found a liar.\nEcclesiastes 12\n \r[13] Let us hear the conclusion of the whole matter: Fear God, and keep his commandments: for this is the whole duty of man.\n[14] For God shall bring every work into judgment, with every secret thing, whether it be good, or whether it be evil.\n\n \rKing Jame version\n \r\nWhat will matter at the end is not which/what religion or which/what tribe but obedience to the whole word of Yehovah Elohim\nShalom", 'Anime Adaptation': 'This videos shows how ignorant Jews are to the truth.', 'UnitedHerb868': 'Im not jewish but i gotta say love these videos,\ndisolved quiiiite a few conspiracies for me.\n😮😮😮😮❤\nKeep it up bro', 'da zimmermann familia': 'Anyway, why you put tovia singer in the last clips? Is he a messianic jews? I thougt he isn islamic jews? Who was work in indonesia to blend up islamic with jews.... he is an idiot...', 'Bride Gabriel Mount Zion, Heavenly Jerusalem': 'There are two kinds of faith in Israel. Judaism is the faith that crucified the Lord Jesus Christ. The other faith is called Messianic Jews. They believe in the Lord Jesus Christ. Peter and Paul were one of them.   \r\n\r\nJeremiah 8:6\r\nI listened and heard, but they do not speak aright. No man repented of his wickedness, saying, ‘What have I done?’ Everyone turned to his own course, as the horse rushes into the battle.\r\n\r\nWhy is there a war between Israel and Palestine?\r\nLord Jesus Christ raised me to help the world of Gentiles understand what is written in His words. He called me \'daughter of Zion.\'  Please read the prophecy below and understand what you read. The war between Israel and Palestine is spiritual. It is written the God of Heaven gave all the lands of the Palestinians to the children of Israel as an inheritance. He commanded them to drive out the Palestinians. The Lord of hosts said the reason why He did not allow them to take all the lands in the days of Joshua is so that He can train His people to fight. \r\n\r\nGenesis 26:1-3\r\nThere was a famine in the land, besides the first famine that was in the days of Abraham. And Isaac went to Abimelech king of the Philistines, in Gerar. Then the Lord appeared to him and said: “Do not go down to Egypt; live in the land of which I shall tell you. Dwell in this land, and I will be with you and bless you; for to you and your descendants I give all these lands, and I will perform the oath which I swore to Abraham your father. \r\n\r\nJoshua 13:1-7\r\nNow Joshua was old, advanced in years. And the Lord said to him: “You are old, advanced in years, and there remains very much land yet to be possessed. This is the land that yet remains: all the territory of the Philistines and all that of the Geshurites, from Sihor, which is east of Egypt, as far as the border of Ekron northward (which is counted as Canaanite); the five lords of the Philistines—the Gazites, the Ashdodites, the Ashkelonites, the Gittites, and the Ekronites; also the Avites; from the south, all the land of the Canaanites, and Mearah that belongs to the Sidonians as far as Aphek, to the border of the Amorites; the land of the Gebalites, and all Lebanon, toward the sunrise, from Baal Gad below Mount Hermon as far as the entrance to Hamath; all the inhabitants of the mountains from Lebanon as far as the Brook Misrephoth, and all the Sidonians—them I will drive out from before the children of Israel; only divide it by lot to Israel as an inheritance, as I have commanded you. Now therefore, divide this land as an inheritance to the nine tribes and half the tribe of Manasseh.”\r\n\r\nJudges 3:1-6\r\n Now these are the nations which the Lord left, that He might test Israel by them, that is, all who had not known any of the wars in Canaan (this was only so that the generations of the children of Israel might be taught to know war, at least those who had not formerly known it), namely, five lords of the Philistines, all the Canaanites, the Sidonians, and the Hivites who dwelt in Mount Lebanon, from Mount Baal Hermon to the entrance of Hamath. And they were left, that He might test Israel by them, to know whether they would obey the commandments of the Lord, which He had commanded their fathers by the hand of Moses. Thus the children of Israel dwelt among the Canaanites, the Hittites, the Amorites, the Perizzites, the Hivites, and the Jebusites. And they took their daughters to be their wives, and gave their daughters to their sons; and they served their gods.\r\n\r\nWhy do think the Lord God of Heaven wants to drive out the Palestinians? It is written that Palestinians have been oppressing the children of Israel since the days of Abraham. You need to understand when God gets angry, it is for an everlasting time. Who can reverse what He already said?   \r\n\r\nGenesis 26:15\r\nNow the Philistines had stopped up all the wells which his father’s servants had dug in the days of Abraham his father, and they had filled them with earth.\r\n\r\nDeuteronomy 9:14\r\nLet Me alone, that I may destroy them and blot out their name from under heaven; and I will make of you a nation mightier and greater than they.’\r\n\r\nIsaiah 43:13\r\nIndeed before the day was, I am He; And there is no one who can deliver out of My hand; I work, and who will reverse it?”\r\n\r\nWe cannot say the words of God or the Holy Bible is made up. Read below; What He said in His words is truly happening in our times. Catastrophes will come from the north. Floods came to destroy many people in Morocco and Libya, war from Russia, and wildfires from Canada.  \r\n\r\nJeremiah 47:2\r\nThus says the Lord: “Behold, waters rise out of the north, and shall be an overflowing flood; They shall overflow the land and all that is in it, the city and those who dwell within; Then the men shall cry, and all the inhabitants of the land shall wail."\r\n\r\nThe Spirit and the bride,\r\nGabriel, an angel of the Lord\r\nDaughter of Zion,\r\nMount Zion, Heavenly Jerusalem', 'nothing here': 'Moses was shown the Menorah. Judaism came in to being. \nJesus was shown the Latin Cross lamp. \nThe Saducees hid this and had him crucified on a wooden Roman cross, a crude and vulgar facsimile of the Latin Cross. Thus the religion of Paul came into being.\n\nNow it so happens that Jesus was one of two Christs. He is the Machiach ben Yoseph. The second Christ, alive now,  is the Machiach ben David.\n\nOn his ascension, the world will turn inside out. Then Christianity the last lamp of God to be revealed, will begin. \n\nSoon. 😘', 'Mark G': 'Was Moses a Jew/Judean(G2453), or a Judahite(H3064) in any way?  No, neither were most of the "Hebrew Israelites" described in the "Hebrew Scriptures" about the "Hebrew Faith"..  👎\n\nJesus Christ is not a Jew “Judean”(G2453), he is a Judahite(H3064) a Levite and an Ephraimite.. Though born in Bethlehem, according to Matthew 2:23 &amp; Luke 1:4 Jesus is a Nazarene, a “Galillean”, Galilee was part of Israel not Judah or Judea, non-Judahites(H3064).. Equally significant is Mary’s relation to Levi Luke 1:5, Luke 1:36, and King David’s crystal clear relation to Ephraim and Judah 1 Samuel 17:12 Micah 5:2-3 Ruth 1:1-2..', 'Mystery Surprise Toys': 'Funny how you mention antisemitism but you mention nothing about any of the antichristian hate.', 'Burnaby Hawkes': 'Jesus loves you, brother. Please do not lose hope in finding the Truth, even when life gets hard.', 'Natalie Stillion Grable': 'I don’t consider Catholicism as Christianity', 'Vic Bryant': 'Ouch, as a Christian you all have a lot explaining to do.  Either Jesus was who he says he was or he was simultaneously a genius and a complete madman which is absurd.  Judaism died when Jesus rose from the dead, come home.', 'Gideon Basson': "Moses began his blessing by praising the Jewish people for accepting the Torah unconditionally. He contrasted the Jews’ acceptance of the Torah with the other nations’ refusal to accept it, when G‑d offered it to them before giving it to the Jews.\n\nThe Noahide Redemption\n\nוַיֹּאמַר ה' מִסִּינַי בָּא וְזָרַח מִשֵּׂעִיר לָמוֹ הוֹפִיעַ מֵהַר פָּארָן וגו':\xa0(דברים לג:ב)\n\n[Moses] said, “G‑d came from Sinai [to give the Jews the Torah], shining forth to them from [Mount Sei’ir, after offering the Torah to the Edomites]; He appeared [to the Jews] from Mount Paran [where He had offered the Torah to the Ishmaelites].”\xa0Deuteronomy 33:2\n\nThe Edomites and Ishmaelites represent all non-Jewish nations, past and present. By offering the Torah to the non-Jewish nations, G‑d rendered them receptive to later accepting their obligation to observe the “Noahide” laws. These are the seven categories of commandments that must be observed by all non-Jews. In order to properly accept this legal code, the non-Jew must acknowledge that G‑d gave it to humanity as part of the Torah that He gave at Mount Sinai.\nFurthermore, in the Messianic future, the non-Jewish nations will be refined and no longer oppose the lifestyle and world-vision of the Torah. By approaching the nations of the world with the option to accept the entire Torah, G‑d implanted within them the receptivity to both their present obligation to accept the Torah’s authority over them – obligating them in the Noahide laws – as well as their future acceptance of the Torah’s world-vision, transforming them into active participants in the final Redemption.1\nWhy are the none Jews Reject Upto today Rejected G-D \nAnd follow man made Religions!? Like Christianity and all the other religions of the world why are you rejecting G-D and follow a man made religion", 'Ely JB': "This world was meant to fall apart. Who are we to think we can stop or prevent that from happening or stall.. I see all the comments yet i understand all of them truly! Logic and emotion. I see the bigger picture.. the things that are meant to happen a certain way. For Armageddon to come. There will be an unnatural peace first. And I see how it started to happen. It all started with the chosen people and it all will end with them when the time comes. The thriving of israel will be crowned with the messiah that represents their earthly peace. And that's when truth will come shining in the sky. Until then. We all are meant to chant am Yisrael chai 💙 regardless of what we believe. Cause that's the truth. It's the inspiring stubbornness of israel that made them survive preserved and thrive despite all odds 💙 a Christian syrian Zionist here. Was born in a non-practicing muslim family a kurdish dad a phoenecian coastal mom. And i am happily married to a Christian American man of jewish roots. Could it get any more complicated? Oh yes it can. The future will bring wonders of muslims converting to judaism. Of Christians once true losing their faith to universalism. All shall fall into place. And people will yet again judge the book by its cover, bad. Or good. Until the circle breaks. Cause change is inevitable. And so is the end of earth. May we all find peace in the wisdom of the now and here and find joy in the simplicity of the natural. And draw hope from the loving heart of our creator to saturate us all.", 'Havish K': 'That is y Hindus  r best', 'Ritzy': 'Jesus is lord', 'FinalLugiaGuardian': "Messianic Jews are essentially Judaism's Mormons.\n\nAnd according to Messianic Jews you are a false Jew.\nThe various Jewish sects will either agree or disagree, but if these act like jews and call themselves Jews then they are Jews.\n\nI'm still gonna respect the validity of their Judaism in the exact same way I respect Ben Shapiro's Judaism.", 'MPD': 'Jesus said He was God. Upon His resurrection from the dead He showed His disciples the wounds in His hands, feet and side where He had been pierced with nails as He was fastened to the cross, and where He had been thrust with a spear. In Zechariah 12:10 the prophet writes, and this is God speaking, "I will pour upon the inhabitants of Jerusalem the spirit of grace and of supplications and they shall look upon Me Whom they have pierced, and they shall mourn for Him...and shall be in bitterness for Him." The prophet predicts that a day will come when the Jewish nation will recognise the One that was pierced as God Himself, and when that realisation finally dawns on the Jewish people, they will weep and mourn bitterly in repentance for having rejected Him for ages. Jesus ascended to heaven from the Mount of Olives (Acts 1:12). In Zechariah 14:1-4 the prophet predicts that the LORD Himself "shall go forth and fight against those nations" that will attack Israel. "And His feet shall shall stand in that day upon the Mount of Olives," the prophet writes. In other words when Jesus descends from heaven in defence of the Jewish people, His feet are going to land at the same spot from which He ascended to heaven. Oh God, when are your chosen people, the Jewish nation, going to realise this? Jesus said that  as Messiah He had come to suffer and die and bear the judgement for the sins of mankind. In Isaiah 53:8-12 the prophet writes, "For He was cut off out of the land of the living: for the transgression of My people was He stricken...when Thou shalt make His soul an offering for sin...He hath poured out His soul unto death...and He bore the sin of many, and made intercession for the transgressors." But Isaiah predicted that the Jewish people would not believe, for he begins his prophecy about the vicarious sufferings of the Messiah by saying, "Who hath believed our report? and to whom is the arm of the Lord revealed?"', 'Großkomtur': 'The Star of David resembles the pentagram of the devil.'}</t>
+  </si>
+  <si>
+    <t>2023-08-30T12:00:04Z</t>
+  </si>
+  <si>
+    <t>JXRAxyCZSIU</t>
+  </si>
+  <si>
+    <t>CAN I Be Jewish AND Believe in Jesus? | Asking Jews in Israel</t>
+  </si>
+  <si>
+    <t>Jeff and Elisha are Jewish Israelis who love sharing their faith in Jesus. Watch as they engage in thought-provoking discussions ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what makes somebody Jewish yeah damn bro that's a deep question wow what a question you're Jewish yeah what makes you Jewish I think it's that the collective memory that collides us and it's the glow of our people um it's our mother's Jewish okay yeah if your mother's Jewish then philosophically you're a Jew I think maybe you might believe there's a legal understanding there's kind of a common understanding there's a genetic understanding depends if you're if you're a Hitler you you've got one definition of it and if you're the rabbinate of the state of Israel you have a different understanding of it just born from Jewish parents his feeling if you feel Jewish Jewish like a Chinese person feels Jewish then they're Jewish Jewish cause the rules of the Bible ah okay so what was the rabbi say the Bible says yes bottom line is an awful lot of it has to do with who puts their law in together with the Jewish people [Music] oh I mean Jewish values brother that's like something that's only like in in the Jewish Community you know it's it's the love of the country it's a love for the people it's it's a law for life itself so if I would say I love people I love family I honor my father and mother and I love Israel would that make me a Jew well if you're being like strictly then it has to go after like the mother that's what makes you do if your mom's a Jewish born and raised in Israel yeah all my life and I'm not Jewish so and and your parents Jewish my mother is not Jewish yeah I thought it is did you know that in the Bible it was the father yeah yeah so you're technically Jewish all right biblically oh absolutely yeah but these days are not no okay according to the religious yeah okay but according to your ethnicity then you would be Jewish so let's say somebody grows up we'll just say for to keep it easier atheist in the from the former Soviet Union but all his life you know is Pat line five on the passport Jewish everything's every you know he's no one's let him forget it he doesn't know anything he's not even technically Jewish because his mother's Mother wasn't Jewish or something like that he comes here he puts on a Saha uniform he might even die for his country I'm not going to go tell his family well yeah but he's he's not really Jewish so Gabe let me ask you something I was in the military and Iron Dome I've been to two Wars okay with my life in risk and today I stand here and I believe in Jesus okay would you consider me as a Jew I I don't know anything else about you but okay so I would think I don't think that you um uh I don't know that's would you be a Jew and believe in Jesus probably not speak and uh it's this is something that that is you know widely widely considered it's not just agnosticism it's something antithetical considered antithetical to to Judaism look I'm not I'm not going to try to to the rabbinic Judaism but not for us as Jews that believe that he fulfilled the prophecies through the Old Testament you see what I'm saying yeah I know it's the first Believers of Jesus they've been Jewish except very few of them actually in Israel were which is why Christianity didn't spread in Israel it spread through the Roman Empire so if it was so obvious it it it didn't catch on very well here it's a handful of followers I believe that this is a fulfilled prophecies throughout the Testament but it says that the Messiah needs to be a light to the Nations yes so this is Jesus who is the biggest and famous Jew in the whole world and on top of that it says that the Jewish nation has a veil on them that are not seen who the Messiah is and I see this really come to life through Jesus uh what if you want to say that the general message of Judaism to the world it's uh if you boil it down let's say into ethical monotheism there is one God and there are Universal do you know the Hebrew word for once yeah do you know the difference so one doesn't necessarily mean one can mean this is one group we believe that Jesus the Holy Spirit by God are one right not contradicting what if I believe in Jesus and I'm Jewish yes all questions I got so do you think that someone can believe in Jesus if they're Jewish and still be considered Jewish I mean yeah I don't uh I'm not really in an authority to speak on whether how religious you are or if you're correct or incorrect sure um you know I'm not I'm not wise enough to give you those answers but but as long as your mother is Jewish then you are technically Jewish or if you have a proper conversion I mean isn't it both wasn't Jesus like Jewish you know from the beginning you know what I mean that's right I don't know man it's it's like saying no Judaism is like the first religion we're all kind of like brothers and sisters you know of course we we have some uh separations but I mean in the end it should be a big family so did you know that Jesus was Jewish I did know that yeah do you know he was Jewish no Jesus yeah Jesus was Jewish born here in Israel yeah did you know that he came first for the Jewish people yeah yeah yeah have you heard of the name of Jesus what do you think about when you hear the name of Jesus I learned that Jesus is a Christian and we don't love him because of him grow up a little bit in the hills in my age I understand it's not so it's not like it's a release so you know why he came what he wanted to do why he came maybe I don't know I know that the name Jesus is okay he was a saint I think that's cool do you know what he came to do like while he was here no so according to the Tanakh someone is supposed to come and so according to the Book of Daniel according to other prophecies like Ezekiel and Isaiah yes to take down the punishment to take on our sins and he was the one and he was the one that came on time Jesus came to show you that he loves you so much that he died for you I was like my mom you will die for your kids man and we are God's children so then so nice talking to you can I pray a prayer for you please God I pray that you revealed to your then how much you love him and that he will know that you've come here specifically for them for this interaction to stir their hearts and Minds towards you that he is unique special and loved by you thank you Father and I pray that you reach into their hearts and you give them that sense of understanding and knowing that you are the Lord and savior of the world I pray these things in the name of Jesus amen amen oh my God thank you that was really nice amen amen thank you much love man so Jeff what does make somebody a Jew well what makes somebody Jewish is being born of Jewish parents and being converted to Judaism if you're not already of Jewish image or of the people of Israel so back in the early days the first Believers of Jesus were Jewish that's right it would have been considered odd being a gentile and believing in Jesus yeah that's that's a great point because we hear a lot you know you can't be Jewish and believe in Jesus you can't how can you be Jewish and believe in Jesus and what we found is going back to the to the first century Jesus was Jewish followers Jewish the writers of the Bible were Jewish and they had a very difficult time sharing the Jewish Messiah with the Gentiles so Peter was like should I even give this out to the to the Gentiles yeah it was very difficult for the for the Jewish people of that day to share the Jewish Messiah and one one thing that's really cool about Jewish people of that day is that even though they believed in Jesus as the one that fulfilled The Prophecy from the Tanakh fulfill the Messianic hope they still continue to go to synagogue and Temple and stay within the Jewish Community until they were told that in the 130s is the Messiah and they said well our Messiah has already come we can't believe in him as the Messiah and that's when there was a major fracture between religious Judaism and Messianic Judaism and the Messianic Jews were no longer allowed in the synagogue that's a good point yeah if you guys agree or don't agree write it down in the comments we would love to hear what you guys think and have to say about this matter don't forget to like share and comment and subscribe to the channels and we will see you on the next one God bless you guys but hey can I jump in which way this way I don't know what to do I don't know what to do Joe John John John awesome and then to the cross with the cross can I share the cross with you of Jesus yes wow Ohio State </t>
+  </si>
+  <si>
+    <t>{'Mi YAH': '🌻❤', 'Thehole Yourin': '😂', 'arun': 'You guys god bless you', 'Radek': "The double of misfavour for Israel belongs to the past. That's why our Holy Creator allowed to re-establish Israel as an independent state in Palestine.\nTheir eyes are still blind but they will recognize our beloved Redeemer. The time of trouble will come upon Jacob but he'll be saved by God. The Jews will be mourning the One they pierced, as for the only Son.\nTheir eyes will be opened for our Lord Jesus. But:\nI don't understand why the Messianic Jews accept the idea of Trinity, which is completely false and not based in the Bible.", 'Avner Rosenstein': 'A Jew is a person who is a descendant from the Kingdom of Judah, whose mother is Jewish or a convert that follows the 613 mitzvot. The person that is asking the questions says to someone that "according to the bible, if your father is Jewish, you are a Jew. Not true at all. Read Leviticus 24:10-11 and read Ezra chapter 10. Both of these chapters deal with incidents. In Leviticus it\'s the son of an Egyptian father and Israelite Mother. This son is called the Israelite Woman\'s son....NOT the Egyptian Man\'s son. In Ezra 10, It\'s Israelite Men and foreign women. The Women AND their children were thrown out because the women didn\'t actually convert and their children WERE NOT JEWISH. With this said...the creators of this video need to read the Tanakh quite a bit more before making such assumptions @01:28 in the video.\n\nTribal designation is from the Father but that doesn\'t make them Jewish as in the case of Ezra 10. \n\nLastly, if you believe in Jesus you can still be Jewish but solely as long as you do not have him in prayers and call him G-D. If you do that\'s Idolatry.', 'Melissa Barham': 'I am a convert to Eastern Orthodox Christianity. Was born into the Roman Catholic faith. I searched so hard and for many many years for the first century Church. I think that it is wonderful what you guys are doing. It does seem to me though that being in Israel and knowing the full history of Christianity and the Church, that you would be Orthodox and not Protestant. Though you have found Jesus Christ, why are you not looking for the true Church and examining yourself to see if you are in the faith? Dig deeper. May God open your eyes to the truth. I promise you that this Church will be the greatest discovery of your life. It is the most beautiful treasure. May it be blessed. Lord Jesus Christ Son of God have mercy on me a sinner. ☦️❤️', "YAHWEH'S servant": "Being of Hebrew blood in NO WAY makes you Jewish. Only one thing can make a person a Jew. The definition of a JEW is: a person who believes in and keeps the COVENANTS made with YAHWEH!!! That's it period... it's not complicated or deep.", 'Pastor Rehan James Ministry': 'Sir kindly pray for my ministry', 'eschur': 'Stop harassing Jewish people', 'Денис Утарбаев': "Guys, just, please, don't forget to be humble servants like He was. Bless you!", 'Thomas Shoff': 'The KJV BIBLE SAYS THAT JEWS ARE BLINDED TOWARD JESUS AS THE MESSIAH.  SOME JEWS WILL SEE THE TRUTH AND CONVERT TO CHRISTIANITY.  GOD BLESS!', 'Words Of Fire': '“If the world hates you, remember it hated me first”\n\nJesus.', 'Geoff McKenzie': "Deut. 32:4 The Rock is God. But who is the Rock? 1 Cor. 10:4 The Rock is Christ! Thus, Christ is God.\nMoses wasn't allowed to see the face of the LORD, just his back. And yet Scripture says Moses was a friend of God and spoke with him face to face! With whom did he speak face to face? Jesus Christ!\nWhen Moses appointed the 70 judges/elders, the Scripture says God took of the Spirit that he had put on Moses and gave it to the judges. There's your Holy Spirit!\nThe Trinity/Godhead is all right there  in the Pentateuch. \nIt's not simple for a Jew to see past the veil into the NT. But do they have the WILL to see the Savior in the OT if we show them? I pray so.\nKeep sharing the Gospel, guys. This is beautiful to watch. ❤️ 🕊️", 'Butcher the Silence': 'the fulfillment of Judaism is Catholicism - that is the new eternal sacrifice (the mass where we consume God in the Flesh);  a Catholic person is the new Jew- the old jews who have not converted are practicing a dead end religion that has missed the boat completely.  the Real Jew is a Catholic person who eats the real  Flesh of Christ; the New Passover Lamb. Eating His Flesh = the Resurrection=the final stage of Abrahams linage/covenant.', 'Ali Yahu': 'Wow, I came across this randomly , and it blessed me. Todah for what you are doing for the Master.', 'Jason Kim': "Shalom sons and daughters of Abraham. If you do not know who Jesus is or what He came to do. Please research the old and new testament and you'll discover there is a connection what was prophesied to events coming to fruition.", 'W Booker': 'Of coarse Jews can believe in Jesus.  He is the Messiah!', 'Mr Shemzy': 'What the TaNaK says!!!!', 'Leo G': 'Very smart target the most unlearned group of people and sell them fairytale story then post it as proof that jews believe in yoshke', 'Jeffrey Ortiz': 'HalleluYah! Yahusha is King 🙏❤️🙌💯🔥'}</t>
+  </si>
+  <si>
+    <t>UCSaN7bio-LGA9FXyEvJlYVw</t>
+  </si>
+  <si>
+    <t>SO BE IT!</t>
+  </si>
+  <si>
+    <t>2023-09-15T16:00:23Z</t>
+  </si>
+  <si>
+    <t>B5Hw_dGODfk</t>
+  </si>
+  <si>
+    <t>Record rise in antisemitism</t>
+  </si>
+  <si>
+    <t>Jonathan Greenblatt , CEO &amp; National Director of the Anti-Defamation League, joins Katie Phang to discuss the record rise in ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THE STATE OF FLORIDA, WITH THE THE STATE OF FLORIDA, WITH THE FRONT ROW SEAT TO THE RISE IN ANTISEMITISM, I WANT TO WARN YOU THAT SOME OF THE VIDEO WE'RE ABOUT TO SHOW YOU IS DISTURBING. LAST, WEEK SEVERAL NEO-NAZI GROUPS GOT THAT AND THE ATLANTA AREA ON A BRIDGE OVER THE INTERSTATES, AND OUTSIDE IT DISNEY SPRINGS, WHICH IS DISNEY WORLD. SHOUTING ANTISEMITIC AND WHITE SUPREMACIST MESSAGING. THAT SAME DAY, JUST NORTH OF ORLANDO, DEMOCRATIC STATE REPRESENTATIVE, ANA ESKAMANI, CAPTURED VIDEO OF ONE OF THESE EXTREMIST GROUPS MARCHING AND CHANTING, QUOTE, WE ARE EVERYWHERE. THESE RALLIES ARE JUST PART OF AN EVER ESCALATING SURGE OF HATE IN ANTISEMITISM IN FLORIDA. THE GUNMAN AND LAST MONTH'S RACIST SHOOTING AND JACKSONVILLE HAD SWASTIKAS SEAN ON HIS ASSAULT STYLE RIFLE. LAST WEEK, AT THE U.S. OPEN IN NEW YORK, -- WAS INTERRUPTED BY A FAN SINGING AND NOT SEESAWING SPECIFICALLY THE SONG OF HITLER DURING A MATCH. A REPORT BY THE ANTI-DEFAMATION LEAGUE FOUND THAT IN 2022, ANTISEMITIC INCIDENTS IN THE UNITED STATES ROSE 36%. AN ALL-TIME HIGH. AMERICAN EXCEPTIONALISM. JOINING ME, NOW JONATHAN GREENBLATT, CEO AND NATIONAL DIRECTOR OF THE ANTI-DEFAMATION LEAGUE. JONATHAN, IT'S ALWAYS A PLEASURE TO HAVE YOU ON THE SHOW, ALTHOUGH WHY WE HAVE YOU ON IS ALWAYS SO DIM TROUBLING TO ME, BECAUSE IT DOESN'T LOOK LIKE IT'S GETTING ANY BETTER, FRANKLY. 36%, THAT NUMBER IS NOT ONLY ASTOUNDING, BUT DISCUSS STAIN. WHAT KIND OF ENVIRONMENT IS ALLOWING SUCH HATRED IN ANTISEMITISM TO THRIVE IN FLORIDA, ESPECIALLY IN A STATE LIKE FLORIDA? &gt;&gt; REALLY A NAPOLEON SITUATION, KATIE. OVER THE PAST DECADE, WE HAVE SEEN THE NUMBER OF ANTISEMITIC INCIDENTS REACH RECORD HIGHS IN 2019, 2021, AND THEN LAST YEAR IN 2022. LITERALLY THE TOTAL IS MORE THAN 500% GREATER THAN IT WAS JUST TEN YEARS AGO. WE ARE TALKING ABOUT RISES IN HARASSMENT, IN VANDALISM, VIOLENCE. WE KNOW THAT THIS IS ADL BECAUSE WE ARE THE OLDEST -- IN THE COUNTRY. WE TRACK THIS THROUGH OUR OFFICES EVERY SINGLE YEAR. WE'VE BEEN DOING IT FOR DECADES. WHY ARE WE AT THIS POINT? WELL I THINK NUMBER ONE, IT HAS BECOME WEAPONIZED IN THE POLITICAL SPHERE. YOU CAN TURN ON YOUR TELEVISION, OPEN YOUR PHONE, WITHOUT HEARING SOME POLITICIAN USE ANTISEMITIC REMARKS, OR RACISM, OR OTHER UGLY TERMS TO DEMEAN THEIR OPPONENTS, OR TO DENIGRATE THE OTHER. THE OTHER SUPPORTERS. I THINK SECONDLY, EXTREMISTS FEEL EMBOLDENED. WE'VE SEEN THAT LOUDLY, AND PROUDLY, AND THERE, WORDS IN FLORIDA IN THE PAST FEW WEEKS. I MEAN,, KATIE THIS IS A NEW IN FLORIDA. IN THE LAST, LET'S, SAY JANUARY 20 TO AUGUST 22, WE HAD MORE THAN 400 WHITE SUPREMACIST PROPAGANDA INCIDENTS IN FLORIDA. FLORIDA IS THE HOME TO HORRIBLE GROUPS. NOT ONLY THE ONES WHO MARCHED LAST WEEK, THE DEFENSE, LEAVE BLOOD TRIBE, THE ORDER OF THE BLACK SUN. WE HAVE SUNSHINE STATE NATIONALISTS. WE HAVE THE WHITE LIVES MATTER NETWORK. WE HAVE NOT SOCIAL FLORIDA. THEY ARE ALL, YOU KNOW, UGLY, HATE FULL ORGANIZATIONS. AND NETWORKS. THEY ARE ACTUALLY FLOURISHING IN FLORIDA. THEN LET'S NOT FORGET THE FACT THAT SOCIAL MEDIA IS A SUPERSPREADER OF ANTISEMITISM AND EXTREMISM, AND HATEABLE KINDS. YOU'VE GOT RAGING WHITE SUPREMACIST, YOU'VE GOT HARDENED ANTI-ZION US, YOU'VE GOT ARMED MILITIA MEMBERS WHO ARE USING SOCIAL MEDIA TO AMPLIFY, AND TO EXPAND THEIR IMPACT. &gt;&gt; JONATHAN, LET'S SPEAK FRANKLY THEN ABOUT WHY FLORIDA SEEMS TO BE A BEACON FOR THESE HATE GROUPS. THE RALLIES THAT WE JUST SHOWED AT THE INTRODUCTION TO YOUR INTERVIEW, THEY'RE BECOMING A NEW MONTHLY OCCURRENCE IN THE STATE. IN JUNE, FOR EXAMPLE, THERE WERE PEOPLE WAVING NEO-NAZI SIGNS ALONG SIGN SUPPORTING GOVERNOR RON DESANTIS, PROTESTING US AT DISNEY WORLD. THE GOVERNOR'S OFFICE REPORTEDLY HAVE NOT GIVEN ANY PUBLIC RESPONSE, OR MENTION OF THE EVENTS. WHY, JONATHAN, IS SOMEONE LIKE RON DESANTIS NOT PUBLICLY DENOUNCING THESE RALLIES? &gt;&gt; IT'S REALLY BEWILDERING AND DEPRESSING. LOOK, RHONDA'S ANTIS'S IVY LEAGUE EDUCATED INDIVIDUAL. HE HAS, AGAIN, LIKE THE BEST EDUCATION YOU CAN IMAGINE. ANYONE WHO KNOWS THEIR HISTORY KNOWS THAT WHEN YOU DON'T CALL OUT HATE, IT GETS A FOOTHOLD, AND IT SPREADS. SO IT'S HARD TO UNDERSTAND WHY HE THINKS THAT IT'S IN HIS INTERESTS. I'LL BE HONEST, THESE HATE GROUPS ARE NOT UNIQUE TO FLORIDA. WHAT WE NEED FROM POLITICIANS ON THE, LIKE RON DESANTIS, OTHERS IN THE, YOU KNOW, RACE, AND PEOPLE ON BOTH PARTIES, BECAUSE NEITHER SIDE OF THE SPECTRUM IS EXEMPT FROM THIS. WHAT WE NEED, KATIE, ARE CLEAR, CONSISTENT CALL OUTS OF HATE. NO MATTER WHEN IT HAPPENS, EVEN IF YOU THINK THAT THESE PEOPLE MAY SOMEHOW SUPPORT YOU. I THINK THIS HAS WARPED. AND THE END, ANTISEMITISM AND HEY TOOL CONSUME US ALL. WE SAW THAT IN JACKSONVILLE, KATIE. THEY SPENT FRIDAY IN JACKSONVILLE, AT THE FUNERAL FOR ONE OF THE VICTIMS OF A HATE CRIME SHOOTING THE PRIOR WEEK. LET ME TELL YOU, IT WAS A STARK REMINDER OF THE PAIN, THE SUFFERING THAT IS STEREOTYPING, AND BIGOTRY CAN CAUSE. &gt;&gt; YOUR ORGANIZATION IS CALLED THE ANTI-DEFAMATION LEAGUE. PERHAPS TO SOME PEOPLE THAT DON'T KNOW, IT'S NOT JUST AN ORGANIZATION THAT IS TRYING TO COMBAT ANTISEMITISM. IT'S TO COMBAT ALL TYPES OF HATE AND EXTREMISM. CURRENTLY, IN A BATTLE WITH THE, QUOTE, WE'RE JUST MEN IN THE, WORLD ELON MUSK, THREATENING TO SUE THE ATL FOR A BILLION DOLLARS, BIZARRELY, AND MY LEGAL OPINION, BLAMING, AT THE ATL, FOR TWITTER 60% DROP IN ADVERTISING REVENUE. THERE ARE A NUMBER, JONATHAN, OF BAD BUSINESS DECISIONS MADE SINCE ELON MUSK PURCHASED TWITTER ABOUT A YEAR AGO. THAT COULD BE TO BLAME FOR THAT DROP IN PROFITABILITY. WHY DO YOU THINK MUSKETS TARGETING YOUR GROUP
+SPECIFICALLY? SPECIFICALLY? (VO) (VO) (VO) &gt;&gt; I'LL LEAVE IT TO YOU TO FIGURE OUT WHY HE'S RUNNING HIS BUSINESS THIS WAY. I'LL SIMPLY SAY, THE TECHNIQUE OF BLAMING THE JEWS IS AS OLD AS TIME ITSELF. I MEAN, THEY DESCRIBED ANTISEMITISM AS THE OLDEST HATRED BECAUSE IT'S BEEN AROUND FOR SO LONG. MAKE NO MISTAKE, ATL, JONATHAN, I DIDN'T CALL HIM AN ANTI-SEMITIC, CALLS PLATFORM ANTISEMITIC. NOT ONLY ARE WE NOT CALLING FOR BUSINESSES TO BOYCOTT TWITTER, ADL ITSELF WAS SPENDING MONEY ON TWITTER UNTIL THIS WHOLE DEBACLE BEGAN, SO THE NOTION THAT WE'RE TRYING TO KILL TWITTER IS IN ITSELF DEFAMATORY. IT'S PLAYING DOWN, BECAUSE THE FACTS DON'T SUPPORT THAT, KATIE. I'LL TELL YOU WHAT THE FACTS TO SUPPORT, TWITTER HAS A PROBLEM WITH ANTISEMITES AND RACISTS, AND WHITE SUPREMACIST ON THE PLATFORM. IF YOU DON'T HAVE TO TAKE MY WORD FOR IT, JUST SEARCH, HASHTAG BANNED THE ATL. YOU CAN SEE IT FOR YOURSELF AT THEIR PERMITTING. I DON'T KNOW IF YOU KNOW THIS, BUT YESTERDAY, LINDY OCARINA, THE NEW CEO, ANNOUNCED A TWITTER HAS A NEW POLICY ON ANTISEMITISM. I BELIEVE THIS IS LAUDABLE. I'M EXCITED TO SEE HOW THEY ENFORCE IT. WHEN THEY GET IT RIGHT, WILL EMBRACE THEM. WHEN THEY GET IT WRONG, AND THEY'VE GOTTEN IT WRONG FOR A LONG TIME, WE RESERVE THE RIGHT TO CALL LINDA AND ELON, AND THE COMPANY, OUT. WE WANT THEM TO DO BETTER. WE KNOW THE WORLD WOULD BE A BETTER, SAFER, HEALTHIER PLACE IF TWITTER WEREN'T BETTER, HEALTHIER, SAFER PLACE. FOR ITS JEWISH USERS, ALL MINORITY USERS, AND THE WORLD ITSELF. &gt;&gt; TO YOUR POINT, IT'S ONE THING TO HAVE A PLAN, IT'S A WHOLE OTHER THING TO EXECUTE IMPLEMENTS CONTENT MODERATION. THIS IS BEEN A HUGE PROBLEM SINCE ELON MUSK HAS TAKEN OVER ACTS. JONATHAN GREENBLATT FROM THE ANTI-DEFAMATION LEAGUE, THE ATL, </t>
+  </si>
+  <si>
+    <t>{'Oskarnaut': 'HEIL', 'ra dow': 'under bidens rule', 'D. light': "Good thing the racist won't  inherite the kingdom  of  God", 'Chang Bo': 'Free Palestine', 'HighschoolDropOut': 'We will never forget the terrorist attacks isreal did on September 11', 'Liquidgal': 'Funny how this is actually the ADL that is pushing this non sense. Just as bad as Anti Hate in Canada. I dont believe for one minute that those people on the bridge is real. Anti Hate &amp; ADL need to go &amp; be defunded.', '1911 Earthling': 'Keep supporting the invasion of America by illegal aliens and we will be deported or worse eventually.', 'Sean D Moore': 'The Republican party.', 'bri tanny': "Good. Antisemitism isn't for no reason.", 'nascar8and20': 'Of course its happening here in Florida. Look who we have as governor? A POS!', 'W W': 'I think a lot of this has to do with the FACT that certain people don’t seem to be held accountable for their wrongdoings. \n\nThis is not going to get better when you have characters like SBF &amp; his family (one example of many) stealing from the general public without any real consequence. \n\nIf the Rabbis want the world they say they do, then people like Epstein (another example) need to become examples. \n\nWe are nation of law &amp; order, regardless of the ethnicities of the perpetrators…\n\nOtherwise, this will continue, and no law or rule will ever stop it.', 'Coral Clark': 'We must remember that intelligence is not only measured by education . So much has to do with our intentions , our heartfelt motivations. Does one choose kindness or ego driven  hatred?', 'Adam Braun': 'Why do they always pronounce it “Semetec?”', 'Linkard': "It's the rise of Nazism. This needs to be said plainly", 'Bobby Bryant': "Its common since why ron DeSantis isn't denouncing them that whos mainly voting for him sama as trump", 'Cosmid': 'Reading these comments just proves their point', 'MasterSplinter': 'It couldn’t be because one lunatic man was elected and brought back the medical ages of racism and was praised for it?', 'iammobius100': 'Imagine being an Elderly WWII veteran going down the highway and seeing this...', 'Magnussy Hirschfeld': 'Don’t forget to eat your goylop and take your fentanyl-laced gender hormones. We know who’s behind this bureaucratic agenda.'}</t>
+  </si>
+  <si>
+    <t>UCaXkIU1QidjPwiAYu6GcHjg</t>
+  </si>
+  <si>
+    <t>MSNBC</t>
+  </si>
+  <si>
+    <t>2023-09-10T22:30:01Z</t>
+  </si>
+  <si>
+    <t>UH3JnHifVtU</t>
+  </si>
+  <si>
+    <t>Disturbing levels of antisemitism facing young people | 7.30</t>
+  </si>
+  <si>
+    <t>As the federal government pursues a ban on Nazi symbols, new research reveals the disturbing levels of antisemitism facing ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Music] it's the kind of thing that you don't really expect going into it like you're a young uni student but it is a real problem and it's impacting us and it's on the rise and that's really scary Zach Morris had experienced anti-Semitism before but nothing prepared him to hear a joke about Jews in a tutorial in his first semester of uni next thing we're going to do and then someone at the group right met maybe a few weeks before just goes we're going to kill the Jews and I kind of froze now in his fifth year studying law and Humanities Zack says the incidents have continued I've been you know in my law cohort in a class with a student who was sending messages to other students saying why are you friends with Zach Morris he's a Jew [Music] a survey of more than 500 students commissioned by the Zionist Federation of Australia and the australasian union of Jewish students has found nearly two-thirds of respondents had experienced anti-Semitism at Uni more than half of the students surveyed said that they had hidden their Jewish identity identity it's heartbreaking because Jews don't feel comfortable being Jews on campus many of my friends I know just won't all hide things or won't wear you know Jewish jewelry or identifiers just out of concern that all it takes is one person you know to ruin your day or worse one in five said that they had stayed away from campus in order to avoid anti-semitism you want to brush it off but you can't because it keeps building and building and building and you're being targeted for a fundamental part of your identity University's Australia chief executive Katrina Jackson said in a statement there is no place for racism or any form of discrimination on campus and in society certainly when I went to University some 30 years ago that wasn't the case so that is really disturbing Jane Joseph runs the Melbourne Holocaust Museum which has tens of thousands of visitors each year this is this is the last chance I'm giving you are you're gonna hand the Jews or not a national survey last year found relatively few people in Australia deny the Holocaust but Nazism on the streets of Melbourne has created fear I think it's Melbourne Holocaust Survivors who we interact with are horrified to see the rise of anti-Semitism in Melbourne today anti-Semitism has been around for thousands of years and has been described as the world's oldest hatred now social media has given it an even bigger platform fueling conspiracy theories about covert the assertion that kovid was genetically engineered to spare Jewish and Chinese people is deeply offensive rapper Kanye West has publicly repeated anti-semitic slurs I could literally say anti-semitic and they can't drop me here in Australia trolls have targeted a Jewish AFL player the 18 year old was targeted by horrific anti-semitic racism on social media there is more social media out there than there was a decade ago but the rate of anti-Semitism has grown faster than the rate of adoption of social media new research from the online hate Prevention Institute and the executive Council of Australian jewry shows alarming levels of anti-Semitism on major Tech platforms including Holocaust related content the traditional anti-Semitism which is the other really big category ranges from conspiracy theories such as Jews controlling the world the banks the government Etc but it also includes more historic forms that keep reappearing things like the blood libel things like claims that Jews kill Jesus Andre obla who led the research comparing nine different platforms says the problem was most prevalent on Twitter this group which recently had its account suspended has simply set up a new one people can defame and demonize whole groups of people and it's very difficult to get prosecutions on that researcher Julie Nathan has compiled reports of violent anti-semitic posts by several people one man was investigated by New South Wales police but the office of the director of public prosecutions declined the approval to charge him with hate speech threatening or inciting violence so it is very concerning because I think people who are calling for violence against anyone uh should face the law and the law needs to be effective to deal with them in a statement New South Wales police said that the odpp had declined to approve the charge in 9 out of 11 cases some states like New South Wales and Victoria have banned Nazi symbols While others are preparing to in June the federal government introduced a bill that would ban the Nazi swastika and the SS symbol by Banning the Nazi symbols we are sending the clearest possible message that there's no tolerance in our country for any form of racial or religious vilification no tolerance for anti-Semitism I've said in introducing this legislation that if we need to go further we will Andre obila says Australia needs a broader ban on the glorification of Nazism as well as laws requiring Tech platforms to take down more hate speech we do it for pollution we do it in all sorts of other areas of Regulation why don't we do it in social media Zach Morris says a lot of anti-Semitism stems from ignorance and in the real world he chooses to engage the people behind it like his classmate who joked about killing Jews so I took him for coffee and we had a good long chat and since then we've actually become pretty close friends and he's done a lot of real good in you know calling out anti-Semitism on campus [Music] </t>
+  </si>
+  <si>
+    <t>No comments</t>
+  </si>
+  <si>
+    <t>UCxcrzzhQDj5zKJbXfIscCtg</t>
+  </si>
+  <si>
+    <t>ABC News In-depth</t>
+  </si>
+  <si>
+    <t>2023-08-14T11:00:20Z</t>
+  </si>
+  <si>
+    <t>rWeU5Ier36g</t>
+  </si>
+  <si>
+    <t>What is behind rising anti-Semitism around the world? | UpFront</t>
+  </si>
+  <si>
+    <t>The past five years have seen an increase in anti-Semitic violence around the world. We have witnessed mass shootings at ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the past five years have seen an increase in anti-semitic violence around the world we've seen mass shootings at synagogues violent attacks on Jewish people in the streets and Jewish cemeteries desecrated and while anti-Semitism isn't new the current social and political landscape has given rise to conspiracy theories and populist leaders who are aiming to exploit anti-semitic tropes for political gain what's more there are descending views within the Jewish community on how to actually Define anti-semitism so what are the best ways to identify and combat anti-Semitism and how do we separate anti-jewish rhetoric from criticism of the state of Israel and its policies that's our discussion in this week's upfront special foreign T Rosen Reconstructionist Rabbi and founding member of Jewish voice for pieces rabbinical Council and Lara Friedman president of the foundation for Middle East peace and contributing writer to Jewish currents and the American Prospect I want to thank you both uh for joining me on up front uh in February two Jewish worshipers were shot while leaving their respective synagogues in Los Angeles in recent years violent anti-semitic attacks have increased all across the world in the past five years we've seen mass shootings at synagogues in Pennsylvania California and Hala Germany Jewish cemeteries from from Istanbul to Illinois have been desecrated and defaced swastikas are painted on Jewish homes uh Rabbi Rosen you're a Jewish Community leader are we seeing an emboldening of anti-Semitism oh I think there's no question I think there's no question I think we can date it back to the rise of alternationalist regimes around the world that started to use anti-Semitism for their own political purposes and that really kind of unlocked it you know gradually since then I think 2018 with the synagogue shooting in Pittsburgh was a huge Rubicon and and wake up call for the Jewish community and for the World At Large and I think it's just been progressing since then Laura to your point many in the Jewish Community say that the past few years have have felt different according to the American Jewish committee's annual survey a little over 80 percent of American Jews say anti-Semitism has worsened in the country uh in the past five years and in a 2018 European survey 90 of European Jews said anti-Semitism is getting worse getting reliable data on hate crimes is is often difficult and there are large gaps when it comes to actually tracking incidents so so what do we know is anti-Semitism getting worse right now so I don't think there's any question I mean Rabbi Rosen is right I mean you you can tie this to the rise of of ultra nationalism to white supremacy we've seen it in the United States with the rise of of you know the Trump era and and mega politics something has been Unleashed and arguably it's something that was always there there's a reason why for for most certainly Jewish Americans our our parents our grandparents have always warned you have to keep watching because anti-Semitism is real it exists below the surface and now it's really it's really coming out and it seems like it's very much Unleashed and I think the personal experiences of most of us you know if you're on social media and you have a Jewish name it doesn't matter what you're talking about you're probably getting hate named at you really I mean for me it really started being Unleashed with the Trump era um you know my last name is Friedman I'm very clearly and unapologetically Jewish and the hate is out there whether I'm I'm tweeting about things related to Israel or things related to you know local politics or whatever it's ever present there's no question the classical sense of what is anti-Semitism hatred of Jews threatening of Jews targeting of Jews because they are Jewish is surging in the United States and it's surging around the world in 2017 there were white supremacists who shouted Jews will not replace us while marching with torches in the unite the right rally in Charlottesville Virginia uh that's the kind of overt anti-Semitism that I think you're talking about many however lean on more coded forms of anti-Semitism uh more coded rhetoric including leaders like former U.S president Donald Trump who repeatedly refuses to disavow neo-nazis and insist that there were very fine people on both sides after that rally in Charlottesville he also ran a political ad that featured a number of prominent American Jews including George Soros the philanthropist including uh Janet Yellen Federal Reserve chair while warning of global special interests that have robbed our working class and stripped our country of its wealth I mean the tropes abound there Soros was also targeted by the Hungarian prime minister Victor Orban whose government has repeatedly sought to minimize hungary's role in the Holocaust uh what's the impact of this kind of anti-Semitism the coded anti-Semitism on the political and the cultural cultural mainstream yeah and those kinds of dog whistles you know those kinds of coded references they've been around for a long time they fired predated Trump but particularly in Europe I think the difference is when when the president of the United States is doing it um and tweeting it incessantly when he brings people into his administration you know people like Steve Bannon and Mike Pompeo uh that that raises it up to a whole new level but he's been very Trump has always been very expert at sort of treading that line uh that we all know what he's saying but he always will you know take a step back when he needs to but what it ends up doing is making it it legitimizes it it mainstreams it and it emboldens people who have no you know compunction about taking things up to the next level whether it's through violence or whether it's through you know popular figures like Kanye West last year and he's one of the most popular entertainers in the world so that has I think definitely raised to in terms of acceptability to a whole new level many anti-semitic theories are tied up with broader uh white supremacist beliefs like great replacement uh Theory the white supremacists who murdered 11 Jews at the Tree of Life synagogue in Pittsburgh in 2018 he chose that synagogue specifically because it hosted a branch of a refugee Support Network help me understand and Laura I'm actually going to start with you uh what is the relationship or the interplay between xenophobia and anti-semitism look I mean I think if you go back to throughout history um in Liberal forces Ultra nationalist forces ethnic ethnic superiority has always focused on Judaism Jews have always been a convenient foil a convenient weapon to be used in culture wars political Wars in countries I think what we're seeing today isn't isn't New in any way I think it is the modern version of this and it's on steroids because of social media because of the way that the the the media today deals with truth and not truth I think what we're seeing today is is the you know the current version of what you saw in Europe in our grandparents era if you want someone to blame who do you blame we're losing our privilege who do we blame we blame the Jews who do we blame we blame the Jews because they're powerful we blame the Jews because they're taking over we blame the Jews because they have a different set of values from us which by the way does get into this question of conflation because then you've got the you know the the fetishization of Israel and Judaism by folks who are also anti-semitic which is you know the Trump loving people and saying they can't be anti-semitic because they like Israel I think Lara's point is really well taken I think you know Prejudice is Prejudice and they're all interlocked and they all have their unique aspects and I think anti-Semitism has its own unique kind of tropes that have always been around uh and in particular replacement theory is something it's nothing new as she said it dates back to the protocols of the Elders of Zion it's rooted in this conspiratorial Trope about Jews who are seeking world domination and are using other minorities and other peoples to as as kind of Pawns in um in their in their plans so you know we I think we need to be clear that yes you know these oppressions whether it's racism whether it's islamophobia transphobia lgbtq phobia they they're all interconnected they all have their unique aspects to them but ultimately they're under the same umbrella of Oppression it's systemic oppression of people from political purposes Laura we're at a moment where where Jewish communities around the world seem to be grappling uh with Zionism as a concept uh this isn't a new conversation and yet it feels particularly urgent uh at this moment uh you've written about the contrast between the definition of anti-semitism that focuses on hatred of Jews because they are Jews as you talked about earlier in this conversation and another definition that encompasses some criticisms and condemnation of the state of Israel and its policies now this newer definition uh as Anthony Lerman put it posits anti-zionism as quote the same bigotry that motivated pogroms and the Holocaust uh what are your thoughts on making anti-zionism and anti-Semitism synonymous I mean they're you it's understandable why we're seeing this effort to conflate anti-Semitism with criticism Israel and anti-zionism or at a moment in history when um successive Israeli governments have walked away from even a pretense of wanting peace of the Palestinians of recognizing Palestinian rights and a self-determination all of those things that that gave Israel a lot of cover and gave it some protection for criticism of its actual current Day In This Moment policies of Oppression against Palestinians it doesn't have that cover anymore and by conflating criticism of Israel or criticism of Israeli policies with anti-Semitism it's a way of avoiding that discussion altogether there are legitimate reasons to criticize Israel there are legitimate reasons to criticize or reject Zionism that aren't having anything to do with how you feel about the Jewish people it this framing absolutely says irrelevant we don't care it's also and going back to what we've been talking about so far today it is morally indefensible where in a period of actual Rising real anti-Semitism and to shift the focus and shift the energies that should be focused on fighting anti-Semitism to defending Israel and to making it about quashing criticism of Israel is again it's it's it's utterly indefensible and what we saw in the Trump era it's not merely that it's indefensible and it wastes energy from things that you should be fighting it actually gives cover to anti-semites with President Trump you had president Trump publicly basically saying you know the Jewish American Jews are insufficiently supportive of their country they mean he means Israel it it is clearly anti-semitic to equate Jews with Israel and that's part of this definition that I actually agree with the definition that that's being promoted called the international Holocaust remembrance alliance definition includes saying it you're holding all Jews responsible for the actions of the state of Israel is anti-Semitism I agree with that but under the framework that is being adopted by the ultra nationalists who are very clearly focused on Zionism and fetishization of Judaism as part of maybe a political and largely Evangelical Christian viewpoint it's a Viewpoint in which Jews are basically bit players Rabbi what do you what do you make yeah I mean I think Jewish organizations like American Jewish committee Anti-Defamation League they spend an inordinate amount of time on conflating anti-zionism and criticism of Israel with anti-Semitism and it as Laura said it muddies it muddies the waters the point we're not able to really focus on where the real danger is coming from I mean I also think from an ideological point of view I agree with Lara that it's it's it it is illogical it it's and it's morally indefensible but I think also from a strategic point of view if we're really trying to address the issues of the rise of anti-Semitism that we've been talking about it is a diversion it's diverting attention and resources away from where we need to be focusing Larry you talked about the ihra the international Holocaust remembrance Alliance and their definition of anti-semitism in recent years countries like Germany and the U.S have adopted uh that working definition which says that it is anti-Semitic to quote deny the Jewish people their right to self-determination for example by claiming that the existence of a state of Israel is a racist Endeavor you've called this definition explicitly politicized and you've cautioned as you mentioned earlier that it can be easily used to weaponize the fight against anti-Semitism in 2020 the U.S state Department considered labeling three Global human rights groups Amnesty International Human Rights Watch and Oxfam as anti-semitic because of their stances on Israel and Israeli actions in the occupied territories oh what are the potential repercussions of this so the the idea of this of having this definition I mean and I'd encourage people to read about this because the lead drafter on the IRA definition is a guy named Kenneth Stern and he is publicly basically said this isn't what it was meant to be used for it was meant to be used for research it was never meant to be used as an enforced and enforceable um definition what we're seeing though is obviously this effort to weaponize it and enforce it and you know again setting aside the question of whether people's in people have bad intents I think there's a lot of people who say we need a definition anti-Semitism Rising you have to Define it to fight it we have hate crimes laws across this country hate crimes laws that bar actions that bar discrimination that that punish violence that is motivated by religious hatred by ethnic hatred all of that really does cover anti-Semitism the effort here and if if you take people at their word if you listen to the people who were who are most instrumental in in pushing this definition and trying to get it into law in the U.S they're explicit the reason we need this legislation this in law is to quash criticism of Israel we already have laws that prevent people from attacking you because you are Jewish that's a hate crime that already exists in law the value added here is the Israel piece of it and the value added is the the the Clause that you read right which is the self-determination there's another clause in there that talks about not holding Israel to double standards which I refer to as the all lives matter version of this cause which means you're only allowed to criticize Israel if you're criticizing every other country in the world that is doing similar things and if you're not criticizing every other country in the world that proves that you are ipso facto anti-semitic because you're focusing on Israel's bad behavior last month uh some 400 Jewish settlers marched through the West Bank Town of hawada burning cars and homes killing one Palestinian injuring hundreds more a senior Israeli army military commander referred to this as a pogrom a term that historically has referred to the 19th and 20th Century anti-semitic Rampages on Jewish towns in Eastern Europe talk to me about the weight that a term like program carries in the Jewish cultural imagination and what does it mean to hear it applied in the Palestinian context sure and it's also interesting that an Israeli military official was using absolutely but you know the word pogrom absolutely I mean it it is a it is a word that has deep emotional and historical resonance for for Jews but it's also it's also a technical term you know and it's not owned by Jewish people it's not historically it is not historically only applied to Jews you know pogrom really Technically when we're talking about a book rum it is it is a massacre uh that occurs that is in some way instrumentalized by a government but is carried out by local populations but is in many ways enabled for government for political purposes by governments that's what happened in tsarist Russia you know when when we saw you know peasantry and and local locals throughout Eastern Europe attacking attacking and killing and naming Jewish populations but it was very much because they were carrying out the desires of of the leaders of tsarist Russia you know the the reports that we're hearing out of huaratta was that the military in many ways looked the other way and allowed these settlers to to run amok throughout the village there's numerous reports of this that's why a military leader could use a word like pogrom because he understood that um and that he knew that there were real real problems in the Israeli military and that there are deep relationships between the Israeli military and the settler community so I mean I think when it comes to a word like pogrom you know I think there are many in the Jewish community that want to exceptionalize Jewish oppression that they want to see somehow these words only apply to Jews that we can't you know compare anything throughout history to the oppression of the Jewish people whether it's in Israel or anywhere else in the world the IRA definition also includes by the way comparing Israel to Nazi Germany which is you know a very slippery kind of argument you know it all but it also exceptionalizes that that there's nothing that we can compare to you know use that using Nazism to compare to the Jewish people we can't that somehow off limits even though Nazism was State oppression it was an extreme form of of uh State violence against a specific minority which is not exceptional it's something that we've seen throughout history and we need to be able to make these connections if we're going to fight them I mean for years we were told you can't use the word apartheid because that shuts down the conversation people can't hear it and you know for years policing the discourse to try to keep it within the comfort zone of Jewish Americans didn't make Jewish Americans any more amenable to taking seriously the concerns of Palestinians and the violations of Palestinian rights I will say that language has has weight it matters having the word pogrom used here does for certainly for Jewish people everywhere it evokes something very specific and it's exactly what Rabbi Rosen said it evokes you know state-backed violence the marauding the lack of accountability it's all of that which you saw I think people use it in the context of horror with with purposes with agency it means something Rabbi Rosen in 1933 15 years before uh the founding of the state of Israel Germany began revoking citizenship for Jews uh back then almost every Nation refused to take in Jewish refugees even as the Holocaust was escalating now let's fast forward to 2015. after shooter killed four Jews in a Paris kosher market Israeli Prime Minister Benjamin Netanyahu said to all the Jews of France and to all the Jews of Europe the state of Israel is your home uh these statements were widely criticized as being politically motivated and simply aimed at boosting European migration to Israel but thinking about all these recent attacks uh what do you say to people who say there is a need for a Jewish State uh in majority Jewish control uh as a place precisely for this reason so that Jews can be protected from the kind of violence that we've been witnessing over the past few years it's interesting when Netanyahu made that statement uh in in response to what happened in France he went to France and spoke in a in a French synagogue and the French Jews in the synagogue was having none of it in fact they stood up and started singing the French national anthem while he was urging them to to flee to Israel so you know I think in the in the diaspora Jewish Community obviously there is not has not been a rush to to emigrate to to the state of Israel among Jews when these kinds of things happen I think look the the notion of Israel is a safe haven has been at the core of Zionist ideology ideology from the very beginning that the world is incorrigibly anti-Semitic that Jews are essentially endangered by living in the diaspora and they need as a minority as a minority and they need a state of their own that will guard their physical safety their well-being well let's look at what's happened I mean is Israel is Israel a safe place for Jews I mean if you look at violence against Jewish people um is Israel is you know has become in many ways a kind of uh this its own embattled State that's that's uh been focusing its energies almost exclusively on on trying to protect Jewish lives and Jews throughout the diaspora have have not made that Exodus to Israel as as early zionists were anticipating so but that wouldn't negate the argument that the formation of a Jewish state with the Jewish majority control does provide safety it depends on what you mean by safety you know do does everybody need this does every group of people need a military that of their own to be able to safeguard their their well-being there are other ways to to achieve security um fighting for equal rights in the communities in which you live making common cause with other peoples who are endangered as well um you know safety insecurity through solidarity I think historically you could make a strong a strong argument that over militarism only endangers everybody in the end and Israel is one of the most militarized countries in the in the world you know I mean you should make no mistake about that um does that make Jews or anyone else safe in the long run I'm I would say no but I think it's definitely something we should be talking about and arguing about um you know Judaism has always been a diaspora focused religion Jews have always lived throughout the diaspora and it diaspora has been historically in in many instances unsafe for Jews there's no question about that I'm not trying to deny that the question then becomes how do we ensure Jewish safety is it through nationalism is it through ethnic nationalism in other words basing a state primarily on the identity of one particular people and even though there are many people from other groups who happen to historically live in that place is that is that a recipe for safety for Jews or anyone else I think that's a question we should be openly talking about and I don't think it's anti-semitic to uh to challenge that that thesis can if I just add I think it's also important to take a step back there is rising anti-Semitism in the world it needs to be contended with it needs to be recognized it needs to be fought Jews are not facing a Nazi Genocide everywhere in the world right now right taking seriously the rising anti-semitism's threat of anti-Semitism is not synonymous with Jews everywhere that they live are on the verge of losing their citizenship and finding themselves stateless and homeless without protection that is that is a false framing even if that is a framing that maybe sits deep in the in in the core for a lot of Jewish people who think of the history that isn't where we are today in in the United States Jews are very safe we are we are in good position we we have strong security organizations we live in states that have we live in a country that has rule of law we have states that have hate crimes laws we're not we're not by any means the most vulnerable the most insecure population we are among the populations that is most on top of this and in a position to defend ourselves I just think that this framing of which is which is grounded in like an existential fear for Jews everywhere in the world is out of step with where we are today it is possible to take seriously and prioritize fighting anti-Semitism and the and the the trends that are that underlie it without making this about we actually have to make sure that no matter what there's a place because someday we're all gonna have to pack up our bags and flee it's also I just have to say it Jewish safety at the expense of safety of other people is not safety at all and that's I think a fundamental issue with Zionism itself Rabbi Rosen uh Larry Friedman thank you so much for joining me on up front thank you everyone that is our show up front we'll be back next week [Music] </t>
+  </si>
+  <si>
+    <t>{'Etienne rasnecker': 'Talmud:The book of the Devil himself', 'TEARIKI TAVAI': 'ITS ALL ABOUT THE TREATMENT OF THE PALESTINIAN PEOPLE AND ITS GOING ON FOR SO LONG ABOUT THE KILLING OF THE PALESTINIAN PEOPLE EVERY DAY FOR CENTURIES 😢😢😢😢😢😢', 'Nick Pr': 'Number one is the actions of the Israeli government for sure.', 'Roman SpongeBob': 'Stop raping our children and the genocide of our (White European) people.', 'Philipos Brooks': 'Dancing Israelis and Barbara Spectre\n\nDon’t look those up as a start', 'Chris Bana': 'Israel has helped in this rise', 'Asron moore': 'they have to dehumanize them first, make it socially acceptable.', 'Ryan G': "Marc Lamont hill ..a guy who was fired from CNN because they said , simply  by him saying free Palestine..is anti semetic lol.. . And he's felt the need to defend those who attack his decency and free speech .", 'M B': "Now do a show why Jews hate white people, ahhh right, can't make a video on that", 'B Real': 'Based', 'Costt Sadam': 'Did you know circumscision is anti-semitic?', 'Land': 'We read your Bible. We know what you said about Jesus. And we read what you said about little kids and we know what you wrote about us.', 'Know One': 'Is the truth anti-semitism?', 'Olive Oliver': 'Why aren’t you on CNN anymore ?', 'splinterbyrd': 'In the archaeological record, we find evidence of war and conflict in the prehistoric when we know from palaeoclimatology that there was scarcity of food and other resources.\n\nI suspect that antisemitism, racism, homophobia and all the other current aggro comes down to one thing. As James Carville remarked back in 1992;\n "It\'s the economy, stupid"', 'Itachi Uchiha': 'synagogue of satan....', 'zack Abee': 'I’m not sure why would they even call it antisemitism it’s supposed to be called anti Jewish. Cause semantics refers to Arabic, Hebrew etc.', 'Chilldudeski': 'The increase in antisemitism is cause by people noticing what jews are doing. The same things the have been doing for thousands of years.', 'Safe&amp;Effective!': 'The same group that literally wrote all of the books in the Bible (except for Mark and Luke) were also smart enough to write theirselves in it as "Gods special chosen people".\n\nHow much more of a true "Supremacist" can one possibly be than to refer to their self as that?', 'mister E': 'What is behind rising anti-Semitism around the world? Moral decay, degeneracy, erasure of traditional cultures and customs, media domination, racial conflict, division etc.'}</t>
+  </si>
+  <si>
+    <t>UCNye-wNBqNL5ZzHSJj3l8Bg</t>
+  </si>
+  <si>
+    <t>Al Jazeera English</t>
+  </si>
+  <si>
+    <t>2023-04-13T08:06:16Z</t>
+  </si>
+  <si>
+    <t>On4QmiyhFPk</t>
+  </si>
+  <si>
+    <t>Are Jews Privileged?</t>
+  </si>
+  <si>
+    <t>While right-wing antisemitism can be easy to spot, there is a growing phenomenon among some left-wing activists who are ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- The Jewish people are famously
+inclined towards debate. But these days we all
+sadly agree on one thing. Antisemitism is on the rise. - Leave our country, go back to Israel. - Antisemitic incidents are a record high. - Hate-filled, antisemitic flyers appeared yesterday morning. - The Satanic Jews. (chanting foreign language) - Suspect is talking about all these Jews need to die. - Far right antisemitism
+is easy to identify. We're all too familiar with its
+slogans and its death tolls. - Jews will not replace us. - But no community is immune. The world's oldest hatred
+is politically blind. - Congresswoman Ilhan Omar under attack for antisemitic tweets. - It'll seep into any
+ideology if we're not careful. Even spaces dedicated to social justice can be guilty of antisemitism. And as a progressive,
+it's scary to realize that sometimes the call is
+coming from inside the house. - Disgusting kind of anti-Zionist things coming from the political left. - From the river to the
+sea, Palestine will be free. - So how do we recognize when antisemitism starts infecting our own
+political communities, and how can we fight back? (intense music) It sounds a little sci-fi,
+but I see antisemitism as the world's most competent shapeshifter that adjusts to fit every culture's needs. I mean, think about your average antisemitic conspiracy theories. On the one hand, Jew haters believe we're impure and subhuman, barely better than animals or weeds. Yet these very same antisemites also claim that we're superhuman,
+that we have the resources, intelligence, and power
+to control everything from the weather to the
+media to world governments. Seriously, guys, make up your minds. But this utter lack of
+internal logic is exactly what makes antisemitism so dangerous. It can play dress up with
+any ideology in any cause. That might sound like a stretch. How can antisemitism infect
+the fight for justice? Well, it doesn't have to. If we can learn to recognize the signs of creeping antisemitism, we
+can tear it out by the roots and ensure that our political communities are safe for everyone. But every ideology is susceptible, because antisemitism
+has the unique ability to latch onto almost any cause. I'll give you an example. I spend a lot of time
+thinking about identity. Maybe everyone does. Who am I? How do I fit into the world? I've found a lot of comfort
+in building a community of thoughtful, empathetic
+people who are grappling with those same questions. But I've also, on occasion,
+experienced a lot of pain, because these days it
+feels like these questions have been weaponized by
+some bad faith actors. I think that every person
+should be able to decide who they are for themselves, to recognize our own challenges and privileges, to name our own suffering
+and our own triumphs. But I haven't always been able to do that within my own political community,
+and that's really tough. See, I fully believe that some people have greater advantages than others. In some circles, this
+is known as privilege. You know, the idea that
+some social structures cater to one group while excluding others. I'll give you an example. Until 1974, American women
+simply did not have the right to open bank accounts without
+their husband's permission. If you didn't have a husband, or your husband didn't give
+permission, well too bad. That particular societal structure catered to men, leaving
+out half the population. That's the definition of privilege. To me, it's a valuable concept, because it helps us identify opportunities to change our world for the better. So what's the problem? How can such a foundational concept ever be weaponized against Jews? Well, like I said, it doesn't have to be, and often it isn't. But applying the concept
+of privilege too broadly to entire identity groups
+can actually cause harm. In some spaces, Jews, a tiny minority, disproportionately
+affected by hate crimes, are seen as uniquely privileged and accused of propping
+up oppressive structures. How does that even happen? This seems like a leap. Well it is, and yet it happens. Back in 2020, a virtual town
+hall at Stanford University was Zoom-bombed by racists. They flooded the chat with swastikas and slurs against Jews and black people. But Stanford's Diversity,
+Equity, and Inclusion Committee decided not to focus on the
+antisemitism on display. They said it would distract
+from the anti-black racism. The implication being that black people are less privileged than
+Jews and more deserving of focus and attention. This binary totally ignores
+that black Jews exist, forcing them to choose between different facets
+of their identity. These are two minority groups
+that are being harassed by the same racist trolls. But Stanford decided that only one had a valid
+reason to feel unsafe. The other had too much privilege for Stanford to be concerned about them. And that really frustrates me,
+because it does two things. First, it turns the valuable
+concept of privilege into a binary, a zero-sum game in which the winner takes all, and that takes away our right
+to define our own experiences. In this case, a Jewish person was saying, "Hey, this sucked for me. "Can we address it?" And instead of listening,
+instead of letting Jewish people define their own experiences the DEI Committee ignored
+them, effectively saying, "Your experience is less important "than someone else's
+because you're Jewish." Even worse, some people
+even accuse the Jews in the room of being racist, for wanting the DEI Committee to address antisemitism. Let me repeat that. Jews were accused of racism
+for wanting to acknowledge the white supremacists target
+them as well as other groups. Doesn't that seem off? Once you start defining
+someone else's experience, someone else's identity, someone
+else's privilege for them, as the Stanford DEI Committee did here, you're on a slippery
+slope towards the kind of rigid dogma that can
+feel hostility towards Jews. In fact, some spaces have even gone so far as to claim that Jews
+uphold white supremacy. How can Jews, the targets of
+white supremacy also uphold it? But before we get there, I want
+to be clear about something. Race is a relatively new social construct with a sprawling and elastic definition. The concept of whiteness
+was invented in Europe in the 17th century to
+justify the enslavement of Africans and the colonization
+of indigenous Americans. And today, it's mostly used
+to denote the majority, the privileged, the powerful. It's a weird label to apply to Jews. For most of our history,
+our neighbors made sure to remind us of our otherness. No matter where we lived, we
+were first and foremost Jews, standing outside categories
+like European or Arab. Even tolerant countries
+like the United States took time to accept us. Well into the 1940s, the 1940s, Americans consistently
+ranked Jews as the racial or religious group that
+posed the greatest threat to the welfare of the United States. I wanna repeat that,
+because it's so wild to me. As the US was in the middle
+of fighting a world war, as Jews were being
+slaughtered in death camps, Americans were pointing to Jews as the greatest threat
+to their way of life. In response, many Jews tried
+their hardest to assimilate. They took off their kippah,
+changed their last names, and did their best to be white. But white is a slippery
+term, whose definition seems to change constantly,
+because ultimately, the word white is often used
+as shorthand for privileged. In some circles, it's
+explicitly associated with white supremacy. And I just can't get over how wild it is that this term is now being
+lobbed at Jews as a weapon. As a Jewish person online who has come in for his fair share of
+white supremacist trolling, being told you uphold
+white supremacy is painful. Can't we just exist without having to constantly justify our existence? Sometimes it feels like the
+answer is no, especially when we're forced to take
+ideological purity tests before we can be accepted. Women's March organizer,
+Linda Sarsour, claimed that you can't be a
+feminist and a Zionist, essentially demanding
+that Jews have to choose between their own liberation
+and the liberation of women. It's a totally false binary. Of course you can be both. Or take the Chicago Dyke March's ban of pride flags with Jewish stars. The Chicago March is
+explicitly anti-Zionist, and the organizers didn't
+want to trigger anyone who finds Israel oppressive. It's a dogmatic and disheartening attitude that specifically singles out Jews. I mean, Pakistani Americans aren't asked to denounce Pakistan in order
+to be considered feminists. Christians aren't told
+to hide their crosses before they're allowed to
+stand up for gay rights. Only Jews are told to pick a lane. Believe in your own
+liberation or believe in ours, but you can't be your
+full self and do both. But how can you say you're
+pursuing justice and equality, while you're setting up tests
+to exclude Jewish people who you don't agree with? Shouldn't social justice be
+more expansive than that? - Around the world, we
+saw attacks against Jews. Where are my social
+justice warrior friends? - Can't we work towards
+the same worthy goals without having to march
+in ideological lockstep? I wanna build the kind of
+world where we can stand alongside each other in solidarity, even when we don't agree on everything. And I think the blueprint
+for what that looks like lies in the Jewish tradition. That old chestnut, two
+Jews three opinions? Well, it's true. One of our foundational texts, the Talmud, is literally a record of
+hundreds of years of debate. Jewish tradition isn't afraid
+of intellectual challenge and diverse viewpoints, and
+it isn't afraid to pick a bone with accepted wisdom,
+and neither should we. We don't have to accept
+someone else's definition of our identities. We don't have to agree
+with outsider's definition of what constitutes antisemitism. We're allowed to push back
+against simplistic narratives about how privilege functions, or who is ideologically pure enough to be welcomed in progressive spaces. We are allowed to raise
+questions about whether ideology, right, left, or center,
+is being used against us. None of this is easy,
+and none of it's fun. Being the lonely voice
+of dissent can expose you to a lot of anger and criticism. - If I'd said that I would
+not debate with a Pakistani, I would rightly be called a racist. My question for you is are you a racist? - But being defined by
+others or being told what we should or shouldn't believe, that's not a price we should
+have to pay just to be accepted in our own political communities. Because defining your own
+identity is not a privilege. It's a right. And it's time we reclaim that right from any and everyone
+who seeks to deny it. </t>
+  </si>
+  <si>
+    <t>{'Pineapple': 'Ummm tell me how Jewish people are more oppressed than Blacks when blacks cannot conveniently hide their identity whenever they feel threatened? Jews are discriminated against I get that but what I don’t get is when Jews say they are the most hated people in the world.🤔', 'Syppy': 'this is the equivalent of asking if Asians are priveleged', 'ytndslk': 'If defining your own identity is a right, then anybody may identify as Jewish, right? Hmmn', 'Always Fabulous': 'All what I know be black at the same time jew not easy in that world. Some of The white Jews don’t want to accept black Jews. So what is the point.', 'Daniel Kingsley': 'Jewish✡ people are my friends🤝! and I will protect my friends🤝!\n\nPlease give me your comments if you agree with me.', 'Jessica Burdman': 'Thank you for your voice.  We need it.', 'Christopher C': "Many anti-semites don't seem to realize that there are many Jews who don't enjoy the same level of privilege as those who are rich and powerful. Many of us are just regular Joes who make a modest living, but since we're Jewish it's automatically assumed we enjoy more privilege than most other people. Not all of us have Rothschild money and power.", 'Malikav Anon': "It didn't happen.\nBut it should have.", 'Adamcarlo Misseri': 'Stop jewish supremacy!', 'Mike Reut': 'This is Not true ….white People were selves also Not only Blacks …get ur facts right .', 'Michael': 'Power is privelege', 'Australia Infelix': '🤣🤣', 'Nesher': "Let's be honest, in the US.. blacks are the most racist people there, but say that and you're considered racist hahaha", 'M B': 'Jews hate whites and love to play victim, cry more', 'WIL S': "I get along with conservative Jews , however the Leftist Jews are Bat Sh*t crazy !  They are as crazy as the Sharia Law Muslims .   Any Jew who supports the democRAT Leftist party is an oxymoron !   Hitler started the Leftist / progressive movement to start mild communism called Socialism !   The democrat party started the kkk and had black slaves while the white Christian Republicans freed them !    This channel is a far left channel ...and it's ironic Jews call themselves leftist when the Leftist Hitler wanted to kill them all .  \n\nSo any Jew calling themselves a Leftist is calling themselves a Nazi !    Any Jew who supports the democrat party is supported the party of jim crow the kkk party .    Again this channel is far left propaganda !     I hate far left and far right  so it's ironic this channel calls everything that goes against their propaganda right wing !", 'Carlos Lam': 'Stanford essentially said, "You Jews have been enslaved, oppressed, banished, and murdered for 4 millennia, but we\'ll ignore that history so that we can focus on a \'more deserving\' demographic."', 'Muhammad Ahmad': "So solidarity with Palestinians is considered anti Jewish? Or calling out Israeli occupation and theft of Palestinian land is anti semitic? Or saying that Palestine will be free from Zionist occupation is also anti semitic? Zionist stole and illegally occupy Palestinian land and still enjoy support from the western world, if that is not privilege, I don't know what is"}</t>
+  </si>
+  <si>
+    <t>2023-08-16T12:00:20Z</t>
+  </si>
+  <si>
+    <t>9zHLU4Vgcu0</t>
+  </si>
+  <si>
+    <t>The murky myths behind antisemitism | DW Documentary</t>
+  </si>
+  <si>
+    <t>Antisemitism has existed for millennia, and it is still widespread today - in nearly every country in the world. Almost all Jews have ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Music] foreign [Music] there are a lot more anti-semitic incidents than you might think that's Anna cancer researcher in Munich and Doran judge in Berlin what most people only see when it hits the headlines they've experienced in everyday life discrimination because they're Jews and it never went away it can be subtle it can be in your face sometimes anti-Semitism can be hard to recognize even in yourself but no no don't run away you don't necessarily have to have a malicious intention to say something anti-Semitic Ally I describe myself as a liberal Jew here we have a tradition-oriented community there was one bad incident where someone drove by the synagogue on a motorbike and shouted Heil Hitler this was during drop-off time for the kids at daycare when a lot of parents bring their children and then at a party someone said to me did Hitler forget one or something Adolf Hitler was the dictator of Nazi Germany responsible for the systematic murder of six million Jews as a Jew what do you do in a situation like that it's um I was pretty stunned captain and I was interviewed it was supposed to be for a feature in a major German magazine afterwards we had a coffee and we were sitting together and then out of nowhere came the question but come on let's be honest with Jews it's always about the money right and you just think wait a minute did I hear that right and that's just one Trope that's been due in the rounds for centuries in fact anti-semitic tropes are nothing new they've been passed down and reappear in every era repackaged and seemingly shiny and new for the Next Generation [Music] anti-Semitism comes in many different forms Miriam venzel director of Frankfurt Jewish Museum Germany so let's look at that example about wealth and money historically Jews were excluded from many professions in Europe and among the jobs they were allowed to do was traditionally dealing with coins or exchanging money that was the case in the early modern period and this led to the idea that Jews have something to do with money [Music] times of Crisis provide particularly fertile ground for spreading anti-semitic tropes and conspiracies an age-old and murky myth The Hidden Hand you can see it it's not there but there's an assumption that there is some something sinister Harry dubnov history Professor George Washington University side even in cases like the covert pandemic right oh these questions of who exactly benefits from the covert and then implying that actually it's a conspiracy of a Jewish you know businessman and and peer and companies that are producing the um the vaccines and so on it's a convenient idea that there's a small group of people secretly controlling the world in reality it's an ungrounded conspiracy theory that's really old that of course is absolutely the core anti-semitic narrative and it's a Christian one this Hidden Hand is a baseless anti-semitic Trope dating back as far as the Middle Ages when Christianity strove to become the dominant religion in Europe and began to persecute Jews and that means that the conspiracy theory that Jews are doing something in secret is always part of the mobilization of feelings which in turn leads to acts of violence I often wonder what do Germans actually say over a family Christmas dinner for example if anti-semitic conspiracy theories come up at the table do you stay silent or do you speak up you should say something because ignoring anti-Semitism won't make it magically go away let's stay in Germany for a while so why does it seem like it's so difficult for a lot of Germans to confront anti-Semitism today maybe because they see it as something gone and overcome I think a lot of people associate anti-Semitism only with World War II that Hitler created anti-Semitism and it was all over in 1945 and that's just completely a historical so that's another thing anti-Semitism isn't just a Nazi thing but although Jews were long subjected to violence expulsions forced conversions and systematic persecution the Nazi era was undoubtedly without parallel starting in 1933 the Nazis used anti-semitic legislation and propaganda to create a culture of segregation and hostility all over Nazi occupied Europe Jews were eventually detained in ghettos and deported to concentration or death camps where they were subjected to forced labor atrocities and mass murder by the time Nazi Germany surrendered six million Jews had been murdered the minute we automatically think that the step next after anti-Semitism is already Holocaust we find it problematic to identify the more Sinister uh the more mundane the discriminatory practices the tropes the trafficking of stereotypes that is not automatically tomorrow is letting God forbid for a complete nihilism in the genocidal practices so you're an anti-semite only if you say Jews should go to the gas Chambers anything else is legitimate criticism so don't be mistaken the bar for anti-Semitism isn't set up murder it can also sound like this if you look pretty for a Jew but what does that do to a person you notice it when my grandmother gives me matzo crackers on Passover and I put them in the car and she says no never leave them lying around hide them I don't want my neighbor to see that we're Jewish there are a lot of Jews in my circle of friends who aren't open about being Jewish because they've had bad experiences with anti-Semitism it's just stressful for me to pretend 24 7. so I'm open about being Jewish if someone has a problem with that they should just come and sort it out with me I think there are many different reactions because it's quite distinct even in the same person there's the feeling of that I'll get my suitcase out I have to be better prepared for what's happening can I really permanently belong to society here am I sufficiently protected where do I move for some Jews that one place they can feel safe is Israel the world's only Jewish State since 1950 Jews from all over the world and Gentile converts to Judaism are entitled to settle in Israel and receive full Israeli citizenship if they want to for me as a practicing Jew it's meaningful when I can celebrate Jewish holidays there and um and it's a safe haven there's also the feeling that there's a country that there's a place to Simply Be um and to maybe not have the feeling of being in a minority that's historically been of great importance to Jews but walking down the street wearing my Star of David and knowing that nothing will happen it's an incredible feeling as a Jewish but the decades since the founding of the state of Israel have seen a new facet of anti-Semitism emerge Israel related anti-Semitism more often than not political events linked to Israel also prompt a rise in anti-semitic attacks Way Beyond Israel's borders especially when there's a flare-up in the israeli-palestinian conflict and conflicting as soon as there's conflict in Israel the atmosphere here immediately becomes tougher more uncomfortable so what's always a bit irritating for me is when I say I'm Jewish and then people criticize me for Israel's policies or blame me for them I don't have an Israeli passport I can't vote there I don't have the right to vote there I don't have a say in the political situation and I'm not Israeli Israel when someone asks me what do you think about what's going on in Israel right now and without an accusatory undertone and without what are you and your people doing there again but simply what do you make of it then of course I answer them normally but it's not what you say it's how you say it so Jews all over the world are not responsible for Israeli policy of course the Israeli government can be criticized but where do you draw the line between anti-Semitism and political debate I would draw the line in several cases demonstrating not in front of the Israeli Embassy but in front of a synagogue that already is starting to blur the line there you already see one of the central problems in criticism of the Israeli government's policy there's very often the connotation of questioning the right to existence foreign forcing Jews to uh whether they we talk about Israel or not automatically when they enter into the room it's to take your position on regarding Israel are you Pro or against you have to State it very clearly up front this is also you know if not borderline antisemitism it's it's upfront anti-Semitism it automatically assumes that the everywhere Jew purp definition by uh them being Jewish are in a way agents of the Israeli government and so on and so on and so forth so how to handle this political hot potato not talk about it at all that's why I'm a bit cautious about this idea that you mustn't talk about Israel at all of course Israel is close to us and of course it means more to us than many other countries but yes you can just talk about it normally so criticizing Israeli policy fine conflating Israeli State policy and Jewish life not fine and often anti-Semitic the world over Jews experience anti-Semitism no matter when or where and ultimately it boils down to the same tropes the same prejudices the same hatred battling it is arduous and yet there's so much more to being Jewish than fighting this hatred that's perhaps something I'd wish for continuing to take a look at active Jewish life and showing what's actually happening because there's always a great Danger on the Jewish side too that you only think Within These dimensions of anti-Semitism and you actually forget the positive sides a bit I can't identify with that victim role at all I always wear my Star of David openly I walk through the streets of Munich as a proud Jewish woman foreign [Music] </t>
+  </si>
+  <si>
+    <t>{'One - Check My Playlists': 'A documentary called Europa: The last battle will open your eyes to parts of history you was never told.', 'David Macmillan': 'Makes me so sad. This horrific behaviour still continuing', 'Pasi Majuri': 'The jews are the light of this world ! ❤❤❤❤❤❤❤❤❤❤❤❤❤', 'Helon Titus': 'To find out why so many are antisemitic read the Talmud. Best if Jews denounce it and read the Holy Bible instead.', 'Safe&amp;Effective!': 'The same group that literally wrote all of the books in the Bible (except for Mark and Luke) were also smart enough to write theirselves in it as "Gods special chosen people".\n\nHow much more of a true "Supremacist" can one possibly be than to refer to their self as that?', 'Polack79': 'Watch Europa: The Last Battle', 'faiz78ify': 'when the US commit atrocities in Iraq, Syria, Libya or Israel committing war crimes against the Palestinians is not antidepressant? double standards', 'damien dolce': 'The same things they want are the same things they deprive from Palestinians.', '선플달기': 'This thought-provoking report delves into the painful reality of antisemitism, a deeply rooted issue that continues to persist worldwide. By raising awareness and promoting empathy, we can work together to challenge antisemitism and foster a more inclusive and compassionate society for all.', 'Colin Stephenson': 'DW had an excellent 4 part series on anti-semitism\nPLEASE put it up again', 'blah blah': "You don't want to end antisemitism, you just want more Jewish power and are antiwhite hypocrites,", 'Simeon 2': "If i had a homeland, and i felt hated where i live, i'd move to my homeland. But thats just me.", 'Samuel Nikolskiy': 'None of those “antisemitic myths” are myths at all. They’re completely true, or at least 90 percent true', 'BAsed AFro': 'So, what\'s going on in Israel with the Christians being beaten, spat upon, harassed... having their graves and religious monuments destroyed so much lately? Hardly a mention of this in the msm, for some strange reason.\n\nAlso, why is the government there actively trying to pass laws that would outright ban the spread of Christianity?\n\nWhat if the US govt was actively trying to ban the spread of Judaism here? Would you be okay with that?\n\nDoesn\'t the Christian Bible repeatedly refer to the Jews as "God\'s chosen people", and Christians believe the same?\n\nHaven\'t Christians contributed $Billions to help Israel over the decades?\n\nInteresting that Christians comprise only about 1.9% of the pop in Israel while Jews are 1.8% of the population in the US.\n\nJust trying to make sense of things here.', 'Eat myshorts': 'It is good that this kind of bigotry and every kind of hate is growing-down. Every age has its share of bigots and but we must fight back and resist.', 'Farmer One': 'Gaslight', 'case barreoltt': '03:50 They actually double down on Christian hatred whilst playing victim. In plain sight.\nAgain.', 'Ridas Z': 'love israel ❤❤❤❤', 'John Shaw Docherty': "Red hair is Scottish btw if it's natural"}</t>
+  </si>
+  <si>
+    <t>UCW39zufHfsuGgpLviKh297Q</t>
+  </si>
+  <si>
+    <t>DW Documentary</t>
+  </si>
+  <si>
+    <t>2023-02-22T20:00:03Z</t>
+  </si>
+  <si>
+    <t>cQhb37s53As</t>
+  </si>
+  <si>
+    <t>Decoded: Does Anti-Zionism = Anti-Semitism?</t>
+  </si>
+  <si>
+    <t>It's a simple question, does anti-Zionism equal anti-Semitism? Find out on Decoded. #Zionism #AntiSemitism Subscribe: ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Music] is anti-zionism anti-semitism is criticizing the state of israel anti-semitic well if you're paris hilton or bella hadid it could well be and not just her from paris to dc to ottawa criticism of israel is now considered an attack on all jews we'll tell you why in this episode of decoded [Music] the argument that anti-zionism is inherently anti-semitic rests on three pillars the first is that opposing zionism is anti-semitic because it denies jewish people a right to a state of their own that it is discriminatory to deny them this right the second argument is that anti-zionism proposes nothing less than the elimination of that identity and the political dispossession of israel's nine million residents and impose instead a palestinian or bi-national identity on what is considered a jewish state and this is the important point here israel is a state based on ethnic nationalism in which one religious group is structured to get more rights and benefits but if you look at the demographics if israel is to give palestinians equal rights it would end the jewish majority in an equal israel as israel directly or indirectly controls close to 5 million palestinians in the west bank and gaza without any basic rights in the state that dominates their lives now if you raise this point as an injustice needing correction you could be accused of being anti-semitic especially if you go by the international holocaust remembrance alliance's definition of anti-semitism those who conflate as in refuse to differentiate between anti-zionism and anti-semitism say this proves criticism of israel amounts to anti-semitism that denying jews a right to their homeland is in fact anti-semitic hate but if you actually speak to jews who are not israeli citizens and do not identify with the state they'll tell you that to conflate hatred of jews with protests against israel is in fact offensive and anti-semitic as it implies dual loyalty a historic anti-semitic trope and this is where the ihra definition becomes problematic because while it implies targeting of the state of israel is anti-semitic it also has this holding jews collectively responsible for actions of the state of israel so while it does differentiate between israeli and non-israeli jews it absolves israel of criticism of its occupation this anti-semitic trope of seeing jews only through the prism of israel is what benjamin netanyahu joe biden and donald trump would like us to believe and that is why paris hilton first tweeted and deleted an article on israel promising to continue attacking gaza until there was complete quiet with these hashtags and the palestinian british model bella hadid was falsely accused of calling for jewish people to be thrown into the sea by an official israeli account and when turkey's president erdogan called out israel and the biden administration as having the blood of gazans on their hands an attack on israeli policies it was condemned by net price at the u.s state department as an anti-semitic remark targeting all jews as this affair characterization is anti-zionism anti-semitism or is being gung-ho zionist actually anti-semitic as it tries to label all jews as israeli sympathizers whereas nearly 15 million jews identify as anything but tell me what you think on our youtube page i'm on twitter at ali underscore mustafa [Music] [Music] you </t>
+  </si>
+  <si>
+    <t>{'T Suseela': 'Anti jews no Anti zionism only jews believe in God jehova helps freedom  palestine but jionist againest god commands ocupy palestine and kill innocent Arabs', 'C M': 'Free Palestine.  Adolph Netenyahu is worse than hitler', 'TheFuture': 'Anti Zionism’s Worldview attempts to explain everything about the Jewish State.\nAnti Zionist ideology sees Jewish claims as inferior, Arab claims superior.\nThe Anti Zionist’s hierarchy of inferior and superior puts the Jewish country right at the bottom of the list of world countries.\nWorse, Anti Zionists want the Jewish country off the list, they seen it as an anti country, inhuman, an evil creature that looks like a country, vermin to be eradicated.\nIt’s no coincidence Anti Zionists view Israel as a virus on the one hand and the Devil incarnate on the other. Anti Zionists know they didn’t invent these ideas. They’ve been around a long time.', 'pixie': 'aint dj khaled palestinian himself so why is he next to the the israeli flag you would think he would be anti zionist but nope lol', 'Avi Golan': 'To all the anti zionisim people what is zionisim?', 'Windows 7': 'Saying Anti Zionism isn’t anti Semitic is like saying Nazism isn’t anti Semitic', 'Ozymondias99': 'I am an American Jew and i got nothing to do with Israel. Sick of my government sending my tax dollars to a country that puts palestinians in bantustans in occupied West Bank.', 'zachary F': 'if anti zionism equals to anti semitism, why did the jewish socialists  still write a song called Oh you foolish little zionists?', 'realdragao': 'If anti zionism is anti semitist then opposition to palestine is islamophobia.', 'R_S': 'True Torah Jews will always oppose Zionism because Zionism, Zionists, and the state of Israel are all a rebellion against Almighty.', 'Mindful thinking': 'If anti-zionism is anti-sematism then what do you call JEWS who are against the state of Israel? Self-hating jews🙄!? Ofcoarse they are different. Palestinian don’t have a problem with the faith but have a problem with occupation and political movement and use of religion to justify it.', 'swnerd -23': 'Israel, the only country you can’t criticize without being branded as a bigot.', 'anibal cesar nishizk': 'Arabs are semitic also.', 'Heimdall': 'Zionists are hiding behind Judaism but they hate the real jews the most \nThats why they fonded Hitler', 'Lee Roberts': 'easy no Anti Zionism is not antisemitism', 'Ade': 'Just read racist Talmud', 'Furious Taco Warrior': 'Wasn’t nazi Germany based on ethnic nationalism?    I believe it was.  🤔 \n\nA religious nationalist government who hates certain religious minorities in its countries and plans to kick them out.   \n\nDo you know which 2 countries fits that description?\n\nAnti semitic\nSemitic people are Jews, Arabs and North Africans. \nSo if Israel is ani Arab they are anti semitic.', 'Deadly Sharts': 'Mixing religion and government is never good.'}</t>
+  </si>
+  <si>
+    <t>UC7fWeaHhqgM4Ry-RMpM2YYw</t>
+  </si>
+  <si>
+    <t>TRT World</t>
+  </si>
+  <si>
+    <t>2021-05-22T12:24:09Z</t>
+  </si>
+  <si>
+    <t>m1hvCVrJTa4</t>
+  </si>
+  <si>
+    <t>Anti-Zionism</t>
+  </si>
+  <si>
+    <t>For registration: https://www.futurelearn.com/courses/antisemitism Prof. Anita Shapira, Dr. Dave Rich and Prof. Alvin H. Rosenfeld ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When discussing antisemitism in the
+contemporary Far-left, we must first acquaint ourselves with an
+important term - anti-Zionism. Used today to describe various religious, moral and
+political points of view, both past and current anti-Zionism has taken on
+different meanings and definitions, which consequently makes it complicated
+to pinpoint and define. Following the establishment of the State of Israel in
+1948 and the political tensions that arose during the Cold War, anti-Zionism
+has become increasingly converged with antisemitism in the West, particularly
+in the Far-left. Let's now turn to hear more about the history of anti-Zionism,
+its changing nature, and how it relates to contemporary antisemitism. Before 1948, the objection
+to Zionism came naturally from the Arab population in Palestine
+but it was also a very prominent trend among Jews. Zionism was not the only
+movement that wanted to change the future of the Jews in Europe. There was
+opposition from religious anti-Zionists who opposed it on theological grounds,
+from Marxist anti-Zionists who argued that Jews should seek their
+emancipation and their liberation along with the whole of humanity; from
+assimilationists who in the late 19th century and early
+20th century said: "Hang on, Jews in Europe have achieved a whole range of civil and
+political rights by finally convincing people that we are not a separate nation
+and now we're telling them we are? It's going to ruin everything."
+Of course things changed. Political conditions changed. The Shoah happened
+and Israel was created and those two events revolutionized Jewish politics. So
+now a belief in the essential existence of Israel  - that Israel is the Jewish
+homeland - is the view of the widespread majority of Jewish people certainly in
+Britain. And anti-Zionism in Jewish politics is a very small fringe. But on
+the left, on the broader left, it's much wider. Most people in fact who subscribe
+to what they call anti-Zionism know almost nothing about Zionism or Zionisms in
+the plural. They're not acquainted with the history of Zionism. Anti-Zionism
+becomes a camouflage term for hostility to the State of Israel and often to the
+Jewish people as such. It goes well beyond what one might call legitimate
+differences with particular Israeli policies or particular Israeli actions.
+Those things need not in fact be antisemitic whatsoever. But when the
+existence of the state itself, Israel among all the world states, is brought
+into question, when the future of Israel is denied, when Israel is compared to
+apartheid South Africa and Nazi Germany, we've crossed the line into another
+realm altogether. Anti-Zionism is not a good term for it. I'm not sure that
+anti-Israelism, which is sometimes used, is a good term either. What I see is
+extreme, fervent, passionately-driven hostility to the existence
+of the Jewish nation-state. It's an anti Zionism that is based on conspiracy
+theory, that is allied to openly antisemitic, violently antisemitic
+movements in the Middle East and that draws on more antisemitic forms of
+anti-Zionism that really grew out of the Soviet Union and Soviet propaganda in
+the 1960s and 1970s. And unfortunately this is the kind of anti-Zionism that is
+more prevalent now in that political space. We can see then that the main type of anti-Zionism 
+that emerges from the Far-left today diverges radically from 
+rational or legitimate criticism of Israeli policy as well as from an ideological disagreement with the tenets of the Zionist movement. It is important to point out that this 
+form of anti-Zionism is not exclusive to the Far-left. It can also be found in various expressions 
+in all spheres from which antisemitism emerges today, 
+including the Far-right. </t>
+  </si>
+  <si>
+    <t>{'SHOCKWAVEi': 'Problem is any form of hate whether it’s antisemitic or anti zionist, certain Jewish people label all of it as antisemitic', 'Local Boi 23': 'Instead of you guys liking, or disliking the video, we should have a conversation and understand both sides'}</t>
+  </si>
+  <si>
+    <t>UCMIWdcUSEHSIGgTEgT5fU4g</t>
+  </si>
+  <si>
+    <t>Yad Vashem</t>
+  </si>
+  <si>
+    <t>2019-11-27T06:00:04Z</t>
+  </si>
+  <si>
+    <t>oZkr6JjFpX4</t>
+  </si>
+  <si>
+    <t>&amp;quot;Anti-Zionism is not the same as Anti-Semitism&amp;quot;</t>
+  </si>
+  <si>
+    <t>Activist and academic Sai Englert explains why conflating Anti-Zionism with Anti-Semitism is "problematic". #AntiSemitism ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anti-zionism is not the same as anti-semitism here are two very different terms that are regularly used interchangeably in current debates so you might be surprised to learn that they mean entirely different things recently mark Lamont Hill a us-based activist academic and journalist was sacked from CNN for calling for a free Palestine from the river to the sea at the United Nations later demands were also made for him to lose his job as a lecturer the claim was that Lamont Hills coal was anti-semitic while the Universal Declaration for Human Rights says that all people are quote born free and equal in dignity and rights the Israeli nation state continues to restrict freedom and undermine equality for Palestinian citizens of Israel as well as those in the West Bank in Gaza yet it couldn't be clearer from both his speech and his long-standing body of work that he referred to the creation of one unified secular and democratic state between the Jordan River and the Mediterranean for all its inhabitants the only way this can be constructed as anti-semitic is if no difference is made between the State of Israel and Jewish people worldwide a deeply problematic approach anti-semitism refers to ideas and behaviors which discriminate against targets or harm Jews because they are Jews claims that Jews are stingy that they rule the world or wrong the banks are anti-semitic similarly physical or verbal attacks against Jewish people because of their Jewishness are anti-semitic anti-zionism on the other hand is a political ideology which as its name suggests opposes ioan ISM Zionism is a political movement born in the late 19th century that argued that the only way for Jews to escape European anti-semitism was to develop their own state this state they built in Palestine and despite minority internal opposition they did so at the expense of the people who already lived in the country the Palestinians the creation of Israel which was the outcome of design aesthetics took place in 1948 on the back of the expulsion of over 700,000 Palestinians and the destruction of at least 400 villages these in Justices continued to this day the expanding settlements in the West Bank the murderer's blockade on Gaza or more than 60 laws that specifically target Palestinian citizens of Israel are all ongoing and carried out in the name of Zionism what anti-zionists demand then is that all the inhabitants of historic Palestine Jews Christians and Muslims Palestinians and non Palestinians are given equal rights whatever their race religion ethnicity something which both the Israeli State and the Zionist movement continue to refuse unfortunately today anti-zionism is often conflated with anti-semitism it should however be clear that they have nothing to do with one another the first rejects the idea of an ethnic or religiously supremacist state and Palestine the second hates Jewish people for being Jewish but conflating anti-zionism with anti-semitism makes a series of assumptions that should never be acceptable firstly that all Jews are Zionists or that Zionists speak for all Jews this is a deeply racist idea that assumes that an entire group of people can be essential eyes under one ideological banner nothing could be further from the truth Israel does not represent the views of all Jews many Jews around the world are anti-zionists for religious and all political reasons while others might simply know very little about it and not have an opinion secondly that all Zionists are Jews again nothing could be further from the truth for example there are many Christian Zionists especially in the United States while many politicians and political parties across the West a Zionist this is nothing to do with Judaism but with foreign policy and the close alliance that their countries have with Israel finally the conflation between the two ideas often assumes that Zionism only affects Jewish people this approach often repeated in current debates erases the fact that the primary victims of the Zionist movement have been and continue to be the Palestinian people their rejection of Zionism their demands for equal right and their desire to be able to return to their homes from which they were expelled has nothing to do with Judaism or Jews in any way instead it has everything to do with their opposition to the settler colonial which continues to dis possess and oppress them in their own lands anti-zionism is therefore before anything else a form of solidarity with the demands of a colonized people that continues to struggle for its freedom there is a simple yet powerful principle which states that no one is free until we are all free in that sense the struggle against anti-semitism and the struggle against Zionism are one in the same they are both struggles against oppression against racism and ethnic supremacy in a word against injustice in the words of the old slogan anti-semitism is a crime anti-zionism a duty </t>
+  </si>
+  <si>
+    <t>{'Buddy Silver': 'The Hebrew/Jewish Bible is the cause of anti-Jewishism!\nThe Jewish tribal idol, Yahweh HATES all non-Jews and encourages Jews to kill non-Jews\nDeuteronomy ch 7 is the script for the JWO.\nJesus of Nazareth exposed the condition of Jews (John 8:43-47)', 'Sal Velasquez': 'Palestinians ARE SEMITES!!!!! Free Palestine🇵🇸🇵🇸🇵🇸🇵🇸🇵🇸🇵🇸🇵🇸🇵🇸🇵🇸🇵🇸🇵🇸🇵🇸🇵🇸🇵🇸🇵🇸🇵🇸tell these European colonizers foreigners to return where their terrorist minds came from', 'Johnson smith': 'Anti Zionism is anti Nazism', 'B': 'Creating an ethnostate equals Nazism', 'tizmon': 'I want all the Jews to be antiZionists. It’s difficult because Israel can’t exist as a result if we were to apply the idea strictly. So we can compromise by giving completely equal rights to everyone living in the country. That’s why all Jews must be antiZionists. Without it, you’ll give people a reason to hate Jews.', 'realdragao': 'When i say i oppose israel, people then say, “okay then your anti-semitist.”\nI have a huge urge to explain over how anti-zionism is different from anti-semitism but sometimes i just say “okay, so?”', 'TheFuture': "Anti Zionists won’t tell you these inconvenient facts.\nAuschwitz is the outcome of centuries in which the Christian Church believed that the Jewish People had called for the blood of Jesus of Nazareth to be on their head for every generation.\nAdmittedly it's only in one verse in the Bible but it happens to be the verse everybody picks up on. It's not an abhorrence of religion, it's a scriptural injunction.\nNot surprisingly 60 percent of the Waffen-SS were practicing Catholics.\nJew haters never give you this background, you just get their vicious, snarling hatred of Jewish Zionism and wonder where it comes from. Well now we know !\nIt doesn’t come from their pretend, one-sided moralising about all things Palestinian, (you ain’t that nice folks.)", 'rwdoyle0726': 'The very fact that there was a need for this message to be communicated illustrates the problem. Every single sensible person alive knows the difference. There is no debate. However, these people are run on deception. They choose to paint any criticism of Israel as hate speech just as they paint any reasonable criticism of an jew for anything as hate speech. The most powerful and successful people on earth want everyone to think they are the eternal victims.', 'TheAUalliance': 'I’m an anti-Zionist Jew. I stand with Palestine.', 'Meric Esin': 'So:\nantizionism is not antisemitic.\nBut:\nzionism is antisemitic,\nlike nazism is antisemitic.', 'Mel Everitt': 'Thank you for your in-depth information.', 'Shinya Novikov': "I am a Zionest but I don't agree with the fact that anti Zionest is anti Semitic.", 'Ben Sam': 'Hey moron\n\nhttps://youtu.be/MIoZvHU3wwg', 'collin star': 'You are stupid', 'RAIZAN LEGACY': 'Doubtful but how can someone Christian people stands together with people that slander Jesus (peace be upon Him)...\nTill they get Him to be crucified.\nHow dares they are... Not? \n😢😢😢', 'Arlene Di Julio': "This speaker is supporting Mark Lamont who preaches from the river to the sea which calls for the destruction of Israel. He is a supporter of the genocidal Palestinian Governments and BDS. Antisemitism is also political. \n\nAnti-Zionism is the denial of the Jewish People to self-determination in their historical Jewish Holy Land. It's the very definition of antisemitism. Only fringe religious groups and Jew haters are truly anti-Zionists. The only country in the world that is attacked for existing is Israel. Not Syria, Iran, Russia, North Korea, etc. Only Israel is singled out. \n\nPlease refer to the IHRA guideline on What is Antisemitism. \n\nThis video is filled with lies about the free democratic liberal Israel and the Palestinians who are only abused by their own genocidal governments - The Pay to Slay, Palestinian Authority and the barbaric Hamas in Gaza. Under the Palestinian governments, Palestinian have no freedom of speech, the Press, of association and have no rights as women, and gays are persecuted, imprisoned and executed.", 'kuala kangsar': 'The Israelis live in a delusional bubble where they are the victims. I no longer even believe in the 6m fiction.'}</t>
+  </si>
+  <si>
+    <t>UCR0fZh5SBxxMNYdg0VzRFkg</t>
+  </si>
+  <si>
+    <t>Middle East Eye</t>
+  </si>
+  <si>
+    <t>2019-02-14T16:25:30Z</t>
+  </si>
+  <si>
+    <t>K1VTt_THL4A</t>
+  </si>
+  <si>
+    <t>Debate: Anti-Zionism is Anti-Semitism</t>
+  </si>
+  <si>
+    <t>Mehdi Hasan and Ilan Pappé debate whether Anti-Zionism is Anti-Semitism with Times columnist Melanie Phillips and Israeli ...</t>
+  </si>
+  <si>
+    <t>good evening everybody and welcome to all and echoing hannah's apologies for a slightly late start it is great to see such a full house for this debate and the motion of our debate tonight anti-zionism is anti-semitism anti-zionism is anti-semitism there is so much meaning packed into those words meaning which stretches down the centuries and meaning which reaches into the lives of millions of people today anti-zionism anti-semitism these terms are very fraught anti-zionism often defined as opposition to the existence of a state of a jewish state in the territory defined as the historic land of israel or palestine i'll repeat that often defined as opposition to the existence of a jewish state in the territory defined as the historic land of israel or palestine anti-semitism most often defined as hostility prejudice or discrimination against jews now surveys suggest that israel is one of the most disliked nations in the world along with iran and north korea but how much of this is driven by policies of the israeli state and how much is a cover for age old hatred of the jews these are the questions we will examine this evening so let's go to our first speaker for the motion melanie phillips who is a journalist broadcaster and author she has a weekly column in the times newspaper she writes for the jerusalem post and jewish chronicle melanie the floor is yours ladies and gentlemen i never visited israel at all until the year 2000 and i never wanted to go there it didn't sound the kind of place which had anything to offer me so when in the year 2000 i objected as a matter of sheer rationality and justice that while israelis were being blown to bits in buses and cafes during what was called the second intifada they were being called nazis for dealing with the perpetrators i was astounded to be immediately attacked as a jew i was accused immediately of dual loyalty of being too jewish and of waving the shroud of the holocaust to sanitize the crimes of israel well i think you can see the same pattern in today's labour party crisis over anti-semitism in which anti-semitic motifs about jewish global conspiracies are conflated with attacks on israel at one meeting jeremy corbyn noted of two zionist opponents in the audience that despite quote having lived in this country for a very long time they don't understand english irony using the smear that as british jews they didn't actually belong in britain the palestine solidarity campaign is riddled with anti-semitic comments such as that the paris bataclan massacre was a false flag operation to increase support for israel or that kristallnacht was instigated by communist and freemason jews to promote war against germany today a german neo-nazi group has linked to the bds movement noting with approval its efforts to isolate the zionist aggressive state in defense of the rights of palestinian people the language of bds and the far right is interchangeable those who say anti-zionism is not anti-semitism would have us believe that all this is simply a coincidence i say it is not and that anti-zionism is weaponizing anti-semitism and this is why let's define first of all what we're talking about what is zionism nothing more or less than the self-determination of the jewish people in their ancient homeland of israel what is anti-semitism a delusional hatred and fear of jews judaism or the jewish people but anti-semitism is not like other prejudices it has unique characteristics applied to no other group people or cause such as an obsessional and unhinged narrative based entirely on lies accusing jews of crimes in which they are not only innocent but the victims holding them to standards expected of no one else depicting them as global conspiracy of unique malice and power amazing anti-zionism has exactly the same characteristics don't get me wrong criticism of israel's policies robust criticism is entirely legitimate but anti-zionism is different anti-zionism demonizes dehumanizes and delegitimizes israel in order to bring about its destruction you may hear some of this slander this evening the lie for example that israel is an apartheid state when israeli arabs have equal civil and religious rights the lie of ethnic cleansing when the arab population in the disputed territories is more than quadrupled since israel's rebirth in 1948 the lie that the israelis are willful child killers when they in fact go to unique lengths to avoid killing civilians in their always defensive wars and when the ratio of civilians to fighters that the israelis kill is at least three or four times better than any other country including britain the lie of israel's human rights violations when it's the only country in the middle east where arab muslims and christians women and gays can live in freedom and safety fundamentally anti-zionism is based on the big lie that the jews seized and occupied in other people's land but history and law show that's completely untrue the jews are the only extant indigenous people of the land israel was their kingdom more than three thousand years ago driven out when it was occupied they maintained a continuous presence in the land under the waves of colonialism a syrian roman abbasid mamluk ottoman the british they fought off arab colonialists to re-establish their state in 1948 and are still fighting off arab colonialism the palestine mandate of 1922 which parceled out the former ottoman empire enshrined their right to settle throughout that land a right that endures unaltered in international law the law also entitles israel to hold on to land seized from its attackers while that land remains the launch pad for attacks demonstrably true the jews are therefore fully entitled to live in both israel and the disputed territories even though they have always agreed to share it with those arabs who lay a claim to it but the palestinians have refused to share it and have responded to repeated offers of a state of their own with terrorism and war israel is the only place where jewish peoplehood makes sense but anti-zionism singles out the jewish people alone as having no right to their homeland of course many groups aspire to our home now but israel is not an inspiration israel is a country no other actual country is singled out for destruction and the mass murder that would inescapably follow no one tells the kurds for example their aspiration to our homeland is illegitimate and racist people say zionism is racism because of the big lie the jews stole the land anti-zionism thus writes the jews uniquely out of their own history it is an anti-jewish calumny now people say anti-zionism can't be anti-semitism because some jews are anti-zionist very true but in fact they have always been jewish anti-semites karl marx to name but one who wrote quote the emancipation of the jews is the emancipation of mankind from judaism yes a small fringe of ultra-orthodox jews campaigns against the state of israel but they nevertheless pray every day that the jews should return to live in zion free of foreign rule their beef is they think the return in israel is premature and should happen under different conditions so their problem is a matter of timing what they do not believe is the core doctrine of anti-semitism that the jews have no right to the land of israel now there's a vital distinction to be made between anti-semites and anti-semitism many many decent people believe these lies about israel out of ignorance or ideology that does not make them necessarily anti-semites but the discourse they endorse is still anti-semitism's current mutation moreover by supporting palestinianism they are supporting not just anti-zionism but anti-semitism too the palestinians real agenda not two states but exterminating israel and replacing it by palestine as they repeatedly have told us over the years is based on an anti-jewish animus the evidence of this is all around mahmoud abbas doctorate in holocaust denial his hero worship of the 1930s grand mufti in jerusalem al-husseini who made a pact with hitler to exterminate every jew in the middle east the grotesque nazi-style imagery of palestinian propaganda such as sermons claiming the jews are the fabricators of history who dance and live on the body parts of others there is no global corruption their rabbis did not allow palestinian claims that the jews are behind 911 and that they control the world's media finance and u.s foreign policy this unhinged murderous anti-semitism drives the palestinian cause does anyone therefore seriously suggest that people in this country who support this cause and who say that the jews were behind 911 and controlled the world's media finance and u.s foreign policy that this really is just a coincidence and if our opponents this evening really do believe anti-zionism is free from anti-semitism will they denounce this palestinian agenda of genocidal nazi-style jew hatred this is not an academic debate when i grew up in london anti-semitism was confined to a few nutters on the fringes who were treated as pariahs and now it's been legitimized not surprisingly anti-semitic attacks are running at record levels and what's so distressing is to hear our right as jews to our own peoplehood being singled out as illegitimate and to hear the unhinged and obsessional lies and distortions about israel become the default position of fashionable conversation and then into on top of that then to be told that the claim that people like myself make that these are anti-semitic conspiracy theories is itself a conspiracy got up by the israel embassy and it's supposed to be we jews who have no sense of english irony anti-semitism in conclusion ladies and gentlemen always attacks jews as a collective first it attacked us as a religion then it attacked us as a race of people now it attacks us as a people as the collective jew in israel with exactly the same characteristics as jew hatred through the centuries the aim to be free of jews now takes the form of the aim to be free of the jewish state anti-zionists treat israel as a jew among nations to be uniquely vilified slandered and exterminated that ladies and gentlemen is why anti-zionism is the new anti-semitism thank you melanie so now our first speaker against the motion ilan pape is an israeli historian an anti-zionist activist a professor at the university of exeter he has challenged traditional versions of israeli history elaine pappa you have the floor for 10 minutes [Applause] the equation that is being put in front of you tonight is both outrageous and ridiculous if only because it makes every palestinian in the world almost everyone who lives in the arab and muslim world anyone who regards themselves as liberal or on the left it turns all these people into anti-semites whereas quite a few people who regard themselves as zionists like the christian zionists are actually anti-semites themselves but it is important to challenge it because it was used with some effect to stifle the debate on palestine in the west this allegation is used in order to prevent the promotion for positions of power of politicians known for the long-term support for palestine by defaming these politicians as anti-semitic official israel and his supporters worldwide hope to bring down them down as in the case of jeremy corbyn or delegitimize them as in the case of ilhan omar in the american congress so this is a good opportunity in an appropriate venue to say loud and clear that if you are against zionism or if you define yourself as i do and anti-zionist you are not anti-semite or in my case a self-hating jew which my doctors told me is an incurable disease and i would have to live with for the rest of my life i will make five points one long one and four or five short ones anti-semitism is an old ugly attitude that demonizes jews because of who they are and led in the past to horrendous policies of discrimination and genocide it still prevails today and despite the passing of years it's basically not changed much its origins are deeply rooted in the christian faith and were adopted by more in more recent years by right-wing supremacists and some extreme islamic groups anti-zionism on the other hand is a new phenomenon as a zionism and dates back to the 1820s when as you know zionism began as a christian project before it was a jewish project and then it was part of an internal debate within evangelical christianity anti-zionism then was a moral position against romantic nationalism and christian fundamentalism that today we call christian zionism christian zionism is an evangelical belief that the return of the jews to palestine would precipitate the second coming of the messiah the resurrection of the dead and the conversion of the jews to christianity or their barbecuing in hell now these barbecuing christians who are very important are anti-semites who want to get rid of all the jews they don't like and get in return the only jew they want jesus christ it's a double bill they are today the most important base of president trump and his ilk and there are the most important zionists in the u.s providing immunity for israeli policies on the ground when jewish activists and intellectuals adopted zionism in response to anti-semitism in the late 19th century their antagonists were mainly other jews they were either orthodox you who saw a premature return to palestine as tempering with the will of god and regarded as a heresy the substitution of rich monotheistic religion with the ideologically poor modern idea of romantic nationalism so there were definitely not anti-semites other jews believe that supporting universal ideologies such as liberalism or socialism would be the answer and if they had to move geographically from anti-semitic environment environments they preferred to go somewhere else mainly to the u.s but not only to the u.s they were also not anti-semites when zionism became a settler colonial movement on the ground with the building of jewish colonies in late ottoman palestine and during the british mandate the palestinian national movement perceived zionism as existential threat to the indigenous people of palestine a fear returned to be valid as transpired with the 198 1948 ethnic cleansing of the people of palestine during the nakba opposing the jewish settlers and their plans for the palestinians homeland was not anti-semitic but anti-colonialist very much as the algerians objected to the colonization of algeria a small group of the jewish settlers became anti-zionists themselves when they consented to live within arab palestine as guests but not as colonizer as was advocated to them by mahatma gandhi in the 1930s and because of that position there is not he was never honored with a street named after him in israel not even a small pathway or a staircase after the creation of the state of israel in 1948 anti-zionism as an anti-colonialist ideology continued to inform the palestinian national movement's vision and strategy as is manifested in the plo national charter that calls for the establishment of a democratic secular state in palestine that would respect all three religions in israel itself the communist party supported almost exclusively by the palestinian minority inside israel not because of the communist ideology but because it was the only anti-zionist party israel allowed to exist they regarded zionism as an ideology of discrimination in apartheid most scholars today look again israel then and today agree that this is a valid point which again has nothing to do with anti-semitism two in our century our anti-zionism is a moral position against the israeli structural violence directed at the palestinians which is attributed by anti-zionists such as myself to an ideology that is not only endangering the very existence of the palestinians but is also very bad for the jews who live outside or inside israel this ideology generates anti-semitism opposing it might bring it down in our century anti-zionism is a scholarly position a moral stance and a vision for the future as a scholarly position it frames zionism as settler colonialism similar to european settlers movement who went to the americas south africa and australia encountering indigenous people and removing them in order to create new homelands for themselves it's a moral stance that rejects an ideology that imposes an apartheid system inside israel a military occupation in the west bank and siege on the gaza ghetto it's a vision for the future of a democratic state for all by restoring justice to the land by respecting united nation resolution 194 calling for the unconditional return of the palestinian refugees expelled in 1948 and since then akbar this may be a utopian view but it's not an anti-zionist one anti-semitic one three for those who claim that anti-zionism is a refusal to recognize the right of israel to exist we should say that states do not exist by right they are they are founded by historical processes and they become a feta complete the debate is about the nature of the state and the regime we are all entitled to wish for and work for a better more just and egalitarian state for everyone who lives in israel in palestine and for those who were expelled from there four in 1975 a vast majority of the united nations member states defied zion defined zionism as a form of racism and racial discrimination it was passed with the same majority that passed the 1947 resolution recognizing israel the difference was that in 1947 the colonized world was not represented in the united nation in 1975 it was when he was still trying to find its way in the postcolonial world the third world's discourse equated zionism with continued colonialism alas neoliberalism corruption and postcolonial politically and postcolonial political system corruption in the post-colonial political system and aggressive american imperialism have cast it to the sideways of history this impulse and energy but at its height and within it anti-zionism was part of the wish of the colonized people to build a better and more just world again nothing to do with anti-zionist with anti-semitism when the 1975 resolution was revoked in 1991 the debate on zionism entered a new face its present phase after the horrific events in 911 and the so-called war and terror the israeli hasbro invented the threat of a new anti-semitism this was the only way to repel the moral outrage people around the world fell towards the policies of incremental genocide in the gaza strip and the brutal oppression of the west bank if you voice criticism against this policy you were depicted as a new anti-semite and israeli academia was recruited to provide scholarly scaffolding for such an accusation the western elites bought or were intimidated into buying this false allegation but the civil society and in particular the younger generation reject with disgust this attempt to silence them they know enough to call the bluff and understand the full meaning of solidarity with the palestinians they demonstrate in the streets in their campuses enjoy the palestinians on the ground at the personal cost to show how outrageous it is to call the pure struggle for justice anti-semitic if you are an anti-zionist today you are not only standing firmly on a sound moral base in condemning this ideology that generates all these crimes you are also expressing your disgust at the hypocrisy of your government mainstream media and academia we will not be silenced by false accusation of anti-semitism and neither should the british labor party be intimidated by cynical media without a moral backbone or sinister legislation efforts utilizing a justified struggle against terror in order to provide immunity to palestine's colonizers and oppressors finally the labour party is responsible in many ways for the debate we have today we all know that the so-called revelation of institutional racism institutional anti-semitism in the labour party began not on the day that corbyn was elected as a leader but after two attempts to depose him and failed then suddenly the campaign emerged i know the force of this campaign of intimidation i faced it myself it is ugly unfair and destabilizing but the proud party with the historical role of defeating fascism in this country the 1930s should not so easily succumb to false allegations of anti-semitism finally we should retake let us five five sentences let us retake the conversation and prioritize it let us discuss how to stop the destruction of palestine and the palestinian which the trump's deal of the century wants to do let us fight violent fanaticism wherever we encounter it approved racism of all kind without building a hierarchy of victims and removes silly and outrageous equations like the one titling the event tonight thank you thank you elaine so on to our second speaker for the motion inet wealth and energy has been a member of the israeli knesset for first labor and then the independence party between 2010 and 2013 and she has written extensively on zionism anat the floor is yours for 10 minutes thank you so we seem to all agree that anti-semitism is bad of course educated knowledgeable people are unlikely to be seduced by it because we know where it leads nazism auschwitz and the gas chambers but anti-zionism does not appear to be in the same category it appears to be good we heard here that it is about supporting palestinians about fighting for human rights educated knowledgeable well-meaning people might support it but the anti-semitism we all acknowledge as bad when it started looked nothing like where it led in fact when you compare the beginnings of anti-semitism with anti-zionism the similarities are striking anti-semitism began by creating a new collective designation for the same people which rendered them different in secular 19th century europe it was no longer jews but semites and it never was intended to meet anything but jews in the soviet union who claimed to not notice different religions and peoples jews were designated as zionists and today in the west in the uk zionists zios the designation is then described as having essential immutable loathsome qualities in christian europe we were christ killers to the nazis we were an impure race to the soviets we were capitalists and imperialists and today the state of israel is the ultimate violator of human rights it is described as born in sin it is guilty by its very nature of the crimes of racism apartheid ethnic cleansing nazism genocide the designation of the group and ascribing of essential evil qualities is always given the aura of rationality and respectability by relying on the greatest source of authority of a given era religion in pre-modern times science in the modern era human rights in our own the aura of the greatest authority is necessary because the collective transformation of the jews into a loathsome other requires that one be willing to twist reality if not outright ignore it it is only by appealing to the authority of religious doctrine that all jews living in the 12th century could be collectively designated as the killers of christ over a thousand years earlier it is only by appealing to the authority of a perverted science that the very jews who contributed to european society could suddenly be considered as endangering its racial purity and it is only by appealing to perverted version of human rights that zionism in israel could be designated as its greatest violators it is only by perverting the idea of human rights that those who were actually ethnically cleansed from every part of the arab world could be accused of ethnic cleansing it is only through the sort of perversion that the people who repeatedly said yes to partitioning the land into a jewish state in a palestinian state could be described as those who stand in the way of a two-state solution and it is only through this perversion that in an age when the idea of the nation is still tied for almost all states to the idea of a common history language ethnicity and remnants of religion israel is singled out as uniquely deviant but why go to all that effort to single out a group and distort reality because we humans have a primal need for scapegoats and for whatever reason my people have been the designated scapegoats for so many and for so long for medieval christianity we stood between a brutish and nasty world and salvation for germany for europe we stood between them and glory for stalling we stood in the way of communist utopia and today why bother fighting colonialism in its aftermath easier to designate zionists as colonialists and blame them why do the hard work of fighting racism and its many manifestations across all societies easier to designate zionism as racism and apartheid and blame it why acknowledge the tremendous difficulties of living up to the ideals of human rights designate zionism in israel as its greatest violators and blame them but the problem with human scapegoats is that unlike ancient animal ones humans might resist their sacrifice a bit more and we can't have that happen can we so action must be taken to reduce their resistance how strip them of their defenses push them to the margins step by step take away that which protects them but it must be done gradually anti-semitism did not start by stripping jews over their citizenship confiscating their assets and pushing them into ghettos it started by slowly pushing jews out of the positions they were able to attain after several decades of european emancipation it operated by making it more and more difficult for jews to feel comfortable in european society anti-semitism also lured jews into dropping their defenses preventing them from organizing against the coming danger telling them that if they were the good kind of jew for example in germany those who fought for germany in world war one they would be spared they were not note how anti-zionism operates now its main targets are the two places where jews have organized most effectively for their defense the state of israel and the pro-israel lobby in the u.s the legitimacy of both is relentlessly and uniquely questioned jews now designated as zionists are increasingly pushed out of certain spaces jewish students in the u.s are slowly pulling out of universities known for their virulent anti-zionism liberal activist jews are finding they are increasingly unwelcome in progressive circles jews here in britain are finding they can no longer be in the labour party their traditional political home wondering if they might one day have to leave the country altogether anti-zionism also lures jews to give up their defenses we heard it here why don't we all live together in a single state yes we know that nowhere in the arab world have jews ever been treated as equals and were violently ethnically cleansed when their dared raise their heads yes we know that binational states certainly in this region but not only descend into bloody mayhem but we assure you this one will work just forgo your insistence on having your own state where you control your defense anti-zionists also insist on their respectability they will try to convince you that the fact that the targets of this new form of virulent hatred bear a striking resemblance to those who were targets in previous times is sheer coincidence they will insist that the fact that the charges against this group appear like variations on the ancient themes of anti-semitism is sheer coincidence they might even convince you they are fighting anti-semitism but the old easy to identify kind which we already know is bad and this is where it all comes together in the past waves of jew hatred and anti-semitism did not arise from something that those who were hated actually did it arose from a crisis in the society of those doing the hating and in an age of crisis especially a crisis of identity when we no longer sure who we are what we stand for we desperately need certainties and there are few greater certainties in this world than that the jews did it and so the zionists are designated as a collective group which happens to coincide with the group previously known as semites and jews they are then ascribed the most loathsome qualities of our time by appealing to the great authority of our era and then they are slowly subject to a process designed to strip them of the means of resisting their ultimate role escape vote for the crisis of the era and when that process would be complete the scapegoat could finally be sacrificed in the vain hope that in doing so a better world with a marriage it never does and this is why the topic of this debate is not just another topic it raises the very specter that we might be a society on the precipice which is why we are here today in the hope that some of you will see the deep insidious undercurrents so that this time we will not have to wait to see where anti-zionism leads and only then look back in hindsight and say ah yes that rising wave of anti-zionism was indeed the new form of anti-semitism ana thank you and to our final speaker who is our second speaker against the motion media hassan media is a journalist a broadcaster a prominent critic of israel he's a host on al jazeera english and he's a columnist on the u.s online magazine the intercept maybe the floor is yours for 10. ladies and gentlemen we have been witnessing tonight a deeply cynical proposition uh deliver a farago of straw men distortions deflections false accusations and of course straight up pro-israel propaganda then again hearing melanie phillips come here and champion the rights of gays in israel in order to defend zionism was well worth the entry ticket in and of itself so let's be clear about what this motion is tonight because it's the motion you all have to vote on in good conscience the motion says quote anti-zionism is anti-semitism it doesn't say some anti-zionists are anti-semites which is true it doesn't say anti-zionism can sometimes turn into anti-semitism which is true it doesn't say that anti-semites often use anti-zionism as cover as an excuse for their bigotry and racism which is true i wouldn't oppose any of that but that's not what the motion says the motion says ridiculously sweepingly offensively a historically that anti-zionism is anti-semitism that merely being opposed to zionism a political ideology remember is inherently by definition ipso facto anti-semitic which is absurd think about the implications of voting for that tonight you'd be saying every anti-zionist every anti-zionist is a bigot a racist and an anti-semite by definition even the many jewish and israeli anti-zionists so elam jewish historian born and raised in israel served in the israeli military he's an anti-semite that's what they want you to believe that's what they want you to vote for tonight so is the former speaker of israel's own parliament the knesset avraham berg melody would say he's a self-hating jew so is my intercept colleague naomi klein the acclaimed author and climate change activist so is noam chomsky he's an anti-semite as well they want you to vote for them and say that the thousands of haredi ultra orthodox anti-zionist jews who oppose zionism for religious theological reasons they're anti-semites too that's what they want that is what they are asking you to vote for tonight it's absurd and it's a historical don't take my word for it listen to the 35 top israeli jewish scholars and academics historians of the holocaust who came together just a few months ago and published an open letter in which they wrote and i quote many victims of the holocaust opposed zionism on the other hand many anti-semites supported zionism it is nonsensical and inappropriate to identify anti-zionism with anti-semitism end quote are they anti-semites too really all 35 of them by the way in terms of the history they refer to in their letter it is an undeniable indisputable fact that many many european anti-semites as ilan alluded did support zionism at the outset they did embrace the founder of zionism theodore herzl because for their own selfish racist reasons they shared his goal of treating jews as a foreign separate nation and getting them out of europe take british foreign secretary arthur balfour author of the 1917 balfour declaration in favor of zionism balfour dismissed jews as quote an alien and hostile people he sponsored legislation to keep jewish refugees out of the uk the only jewish member of the cabinet at that time said edwin samuel montague opposed the balfour declaration and called zionism a mischievous political creed yet apparently according to the proposition tonight montague's the ant</t>
+  </si>
+  <si>
+    <t>UCaqcvH8EvUtePORpN03jLMg</t>
+  </si>
+  <si>
+    <t>Intelligence Squared</t>
+  </si>
+  <si>
+    <t>2019-07-26T15:01:27Z</t>
+  </si>
+  <si>
+    <t>hbFOj6eE9Nw</t>
+  </si>
+  <si>
+    <t>Rabbi says &amp;quot;Judaism cannot accept Zionism&amp;quot;</t>
+  </si>
+  <si>
+    <t>'Judaism does not and cannot accept Zionism,' said spokesman of the Neturei Karta USA, Rabbi Yisroel Dovid Weiss, during the ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">so this is the fact the fact on the ground is Judaism is subservience to God Zionism is a transformation to a base natural it is totally contradictory it is antithetical to this Tower Judaism the fact is no matter what design is so they're going to come with their intimidation over there or whatever explanation the fact is Judaism is does not accept Zionism it cannot accept Zionism in every aspect of the Zionism it's contradictory it is based on blasphemy secondly in its actions it's it's it's totally it's criminal you're not gonna have to kill a steal they but if in its Essence we're not about to have a state but on top of that being that they came to Palestine they created the state by driving the Palestinians from the left yes they started at the beginning buying land because the Arab Muslims knew that the Jews aren't they just want to buy a piece of land they didn't believe in their in the it furthest I thought that that it could be that they want to make aspire to create their own land but so they then realize what they're doing that they want to make their own state so they stop selling so then the zionists came with Darius in where my back told me and those other rabbis and they cringed when they spoke about Daria sin how friendly the Arab and Muslims were and Beyond the words when the zionists came in and and murdered them how you know how as a Jew how we felt so the Jews around as a Jew we cannot accept the murder and the killing and the oppression and the and all the other the subject is doing mentally and physically how every person is maimed it's not about a family that doesn't have a member some ways that was not murdered this is against our Torah </t>
+  </si>
+  <si>
+    <t>2023-05-07T20:33:53Z</t>
+  </si>
+  <si>
+    <t>-PmzCOVKsAg</t>
+  </si>
+  <si>
+    <t>‘You need not be a Jew to be Zionist,’ US President Biden says</t>
+  </si>
+  <si>
+    <t>You need not be a Jew to be Zionist” President Joe Biden reiterated US' strong connection to Israel as he was welcomed at the ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and i say again you need not be a jew to be a zionist the fact is that since then i've known every single prime minister and it's been an honor form strong working relations with each of them and now this is my 10th visit every chance to return to this great country where the ancient roots of the jewish people date back to biblical times is a blessing because the connection between the israeli people and the american people is bone deep we invest in each other we dream together </t>
+  </si>
+  <si>
+    <t>{'Terence Ayer': 'Zionism is Satan worship, with the aim to dominate the world. They control everything in the information &amp; financial realm, in order to achieve this.', 'Raise#grass': 'Djdjdjsjsjs ksisjsj jsjsjs hsjsjsbbusnsjsjsjjsj he’s yes', 'Technicallyimright': 'How is this not a reason for impeachment?', 'Kleber Amanajás da Silva': 'Oy vey, shut it down 🥸👃🇮🇱🥸👃🇮🇱', 'Moe Nola ': "This is what Prue evil look like not a witch or Someone with Horne's this is what real evil is 🎉🎉🎉", 'CSmania1991': 'One day i will visit this Israelite colony, Murica.', 'FlushingStatic': "He's on atleast 8mg of xanax", 'busnut33': 'Whatever Peter.', 'Marwan Massari': 'Terror country 4. Reich', 'SWEET BABY': 'God did not give that land to the children of Israel, the british carved a line into palestine. The new Jerusalem will be the real deliverance of the Israelite', 'Cobbido': 'And there it is', 'Killshot': 'Not all Muslims are necessarily anti-semits lol I’m a Muslim I don’t care nor do I necessarily like Jews but i personally wouldn’t go out looking for them nor would I engage one if I am in his/her perimeter', 'Innocent': 'Jew (only Zionist) :    I will kill Jesus. \nCristian :  I will support you in future no problem.', 'Bouncy_Cheeks9000': 'Jesus is a 1000% better leader than biden', 'Joel Swetz': 'you need not be killer to be a Murderer, this guy is full of himself🤦🏽\u200d♂️🤦🏽\u200d♂️🤦🏽\u200d♂️🤦🏽\u200d♂️', 'hungarian in mactan': 'Egyik Lucifer a màsik az Ördög😢😢😢😢😢😢😢😢😢😢😢😢😢😮😢😢', 'Al BIGTIME': 'Just like what’s in his pants 👖 A BIG LOAD OF CRAP 💩!', 'Scott Maltby': 'Yes but you do absolutely have to be a Communist. Ukraine. 🖤😡🇺🇲', '🦅•°¹⁷⁷⁶°•🇺🇸': 'Zionism is a plague.', 'anonymous': 'Only Israel 🇮🇱'}</t>
+  </si>
+  <si>
+    <t>2022-07-14T06:25:13Z</t>
+  </si>
+  <si>
+    <t>1J8L_Xzrgzg</t>
+  </si>
+  <si>
+    <t>George Galloway: Zionism and Nazism cooperated</t>
+  </si>
+  <si>
+    <t>Respect Party leader George Galloway and former political adviser to Tony Blair, John McTernan discuss the anti-semitism crisis ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">George Galloway is one of quite a few people today saying Ken Livingstone talks about the facts why do you believe it was anti-semitic but George expressed it as ever far better than Ken Livingstone George said Zionism and Nazism are two sides of the same coin now that is cool Healey not true Nazism was intended to destroy the Jewish people that was his intention the problem is that people use anti-zionism to conceal their anti-semitism you say you're anti Zionist well what you're really saying is you're against the existence the State of Israel if you don't want Israel to exist that is clearly anti-semitic it's not a kind of vaguely nice opinion it's actually a very bad opinion George Galloway no Zionism and Israel are political constructs if you were for the downfall of the Soviet Union John Wars that didn't mean you hated Russian people in fact you could say it meant the opposite that you wanted to liberate the Russian people from the political system under which they lived Ken Livingstone doesn't have a racist bone in his body in fact he'd still be the mayor of London if he hadn't gone out on a limb on anti-racist causes over and over again we cannot allow this conflation it's dangerous for everybody being against Israel is not being against Jews many Jews are against Israel you've just add one on the screen Lanny Brannock dude you accept that that you can be anti-israel without being anti-semitic or do you believe that is the that's the lie you're it the question is not about whether you are for or against Israel people actually conflate the Israeli state the Israeli government actions the settlers the actions of liquored the statements are Benjamin Netanyahu and people who don't want Israel to exist among whom are a very large number of people on the ultralift they don't say George is one of those but there are people for whom anti-zionism is a shield behind which they they must they call Israel a country with its own Supreme Court that finds against his own government they call that an apartheid you accept that some people do do that there are some are the anti-semitism exists always existed the Daily Mail used to fund it but is on the left problem you know imp know that some people hide behind being you know anti you know Israel when they are in fact well there may be some though I'm have to tell you in all honesty I've never met one and Ken Livingstone certainly isn't one another is Jeremy Corbyn or John McDonald this is a synthetic argument that's being generated here to smoke it's about offense isn't it's about you know they've seen the dog mind deeply well they've sieved seized on legitimate anxieties amongst Jewish people and heart feelings and exploited it and also need to bring it up I mean what why why mention Hitler in that answer yesterday that's something to do with his age I reference the Second World War all the time it was our finest hour defeat of fascism the greatest victory of the 20th century and so on these are perhaps age-related points Jonathan it was an absurd thing to say it was as if to say we don't really object to Hitler's earlier work when he seemed to be pro sinus but a bit later he went mad when Hitler was a racist an NTC might throw his entire career in TNT to name him to to try to defend NASA tried to fend the Labour Party from accusation is an anti-semitic crisis inside the party is not just silly it actually can showing he probably should no longer contribute to public debate George Galloway I mean John McTernan quoted you actually over yeah I mean you know you you had said Nazism and Zionism were two sides of the same they actually did mint a coin to use in the program ara throw deal to ship Jews out of Germany here's the point but do you think that some people might take offense to that no tsiyon ISM and Nazism for a brief period of time cooperated to get Jews out of Germany because both of them believed that Jews should not be in Germany the Zionists believed they should be in Palestine for one set of reasons and the Nazis believed it's a source at our designers me surely a profession well sign ISM is about liberating geographers it's not look the designers were not Nazis and the Nazis were not Zionists and actually living if you look at the transcript Livingston said that they were he said that they cooperated together and they did that's a matter of historical fact they suppose he said he said he was guilty you don't actually need to bring the historian from America you could bring many historians from Israel this is not a secret it's only a secret to those now waking up to it they were cooperating because they had the same idea that the European Jews should not be in Europe they should be in Palace now what Jeremy Corbyn has said and I think George Galloway has also said is actually this is about you attacking Corbin Jeremy Falls is doing a perfectly good job for tacking himself I don't need to do anything his inability to act with decisiveness about nath shah was telling his silence today is telling he's a man who pals around with terrorists he calls Hamas and Hezbollah his friends he piled around with the fridge IRA he's a man who is not trusted and can't be trusted he can't bring himself to say the word is really was at the label Friends of Israel fundraiser last year in me in the low party conference couldn't say the word Israel he does not want to see a two-state solution in the Middle East he wants to see one state and that state we Palestine </t>
+  </si>
+  <si>
+    <t>{'Zygmunt Banaszak': "John McTernan is a lunatic liar... NAZI's were not Zionist, they were descendants of Germany assimilated Jews, financed by Zionist, Wall Street and Bank of England bankers.", 'Angela M': 'But Zionists are Anti Christians why this is acceptable?', 'Scathach Muirisc': "Imagine a world where no one had 'hurt feelings'. What about Israeli hurting the 'feelings' of Palestinians? And Israel is hurting a lot more than their feelings...", 'Turd Ferguson': "Im not antisemitic or even antizionistic, I am anti-genocide and theft of ethnic Palestinian people and land by the Ashkenazi Jewish state. I think after crucifying your messiah, you can stop calling yourselves God's chosen people, or at least stop acting like you are that.", 'Mac Giolla Phadraig Costigan': 'If Jews are entitled to a homeland then so are White people. If Africans and Asians and Hispanics are entitled to their homeland then so are White Europeans', 'DeutscheBlitzkrieg': 'National socialism was just a revolt against jûdàîsm, jûdàîsm and Zionism are evil ideologies.', "MUFASA'S DAUGHTER": 'GALLOWAY IS VERY RIGHT.', 'Man isle': 'Its soo funny to me how people always say oh hitler was a racist and was a terrorist and whatever and forget about their kings and queens who colonised half of africa and asia well guess what they are just as bad as hitler', 'Ronald Shiffman': 'Israel is the Jewish state. So, if you are against Israel, you are against the state of the Jewish people. Not complicated, but for George Galloway, it is too complex to understand.', 'Mysterium Christus': 'Absolutely correct.', 'TheFuture': 'Antisemites/anti Zionists are the least likely people to understand Jewish emotions and spiritual tie to their Holy Land Of Israel.\nAnd they’re the ones who comment the most 😂', 'Karl Kerr': "GG one of Britain's great intellectuals no wonder the establishment seek to cancel him.", 'NATO Sucks': 'Zionism is about using jews.', 'Expose Zionism': 'Those European colonizers calling themselves Israel need to leave Palestine.', 'P. K.': 'Truthteller (Galloway) vs Deliberate liar and propagandist', 'Ali ARAZ': 'Mr John Mc Terman, We do support Israil, on condition it to be in England, Or in in Italy or, any part of Europe you guys yourself chose. DEAL?'}</t>
+  </si>
+  <si>
+    <t>UCTrQ7HXWRRxr7OsOtodr2_w</t>
+  </si>
+  <si>
+    <t>Channel 4 News</t>
+  </si>
+  <si>
+    <t>2016-04-29T20:25:46Z</t>
+  </si>
+  <si>
+    <t>FKplabTRuak</t>
+  </si>
+  <si>
+    <t>Rebel Rabbis: Anti-Zionist Jews Against Israel</t>
+  </si>
+  <si>
+    <t>VICE embeds with the London branch of the Neturei Karta, a group of controversial Ultra Orthodox Jews who campaign against ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Music] a fight is not with guns our fight is to wake up people and to make them think you believe strongly as the state of israel will come to an end we have got on our side we're in stamford hill a jewish neighborhood in north london we're here to meet the uk branch of the controversial ultra-orthodox jews of the nature character these guys campaign against zionism and for the immediate dismantling of the state of israel many find their stance mind-boggling and they're pretty unpopular especially among other jewish people [Music] they're often labeled as extremists for hanging out with iran's former president ahmadinejad and far-right nationalists from hungary's jobric party i want to find out why the network carter are so driven by their convictions that they're ready to be alienated by their own people so when one of their leaders in london invited me into the secretive community i jumped at the chance [Music] i think that's him hi hello hello hello i'm milan yes my name is rabbi beck how big is the nature carter here in uh stamford hill the fighters against zionism here as temperatures are several hundred but people were the ant designers there are thousands here in stamford zionism is the belief that jewish people should have their own nation the movement gathered support through the early 20th century and the state of israel was established in 1948 in palestine right from the start here's jews known as ultraorthodox voiced their opposition not only did they fear the rise of secularism they also believed jewish people shouldn't have their own state before the coming of the messiah over time some ultra-orthodox groups softened their attitudes and they began to enjoy the benefits of israel others have maintained their opposition and on the most radical end of the anti-zionist spectrum is the network carter [Music] i will put in paper in the machine i don't have to print out rabbi beck is keen to get his message out so he's invited me to tag along on a flyering mission around stamford hill so is this your friend who's arriving his protege rabbi blair was coming along too you have a very nice motorbike oh thank you this is one flower this is mostly explained why we are against the state of israel do you find it important to go around and distribute this it's really propaganda it's so strong so obviously we have a we feel um obliged to do the opposite sorry if you can see it inside he will see it here so i go at the very back yes i'm very sorry okay that's fine so how do you two know each other he was a teacher in school i was a child in the same school so i know that as a kid very famous as a child do you deliver flyers like this to make more and more people aware of your existence not of my existence of the existence of the torah we are the mature carter guardians of the city we try to guide people what what is the right way in judaism like if the woman going dressed not so modest are there some shops where they sell things not in the jewish style we call them look please stop it you're not allowed here in our neighborhood of course sometimes they get angry but they understand that in the end of the day we are right if you don't like it okay it goes to other places nobody forced him to live here i feel it for my duty my life to teach people in the right way and what is the right way you want me to teach you judaism in one minute can you thank you have a good day have a good day thank you okay going to park here heart packing rabbi back i think you might have driven into the car behind us 12 inches away okay a jew is not a zionist that must be your synagogue yes sometimes here people coming in the try to take it down really yes but when i bought one sign i bought in the same time five because i know sometimes people get angry on us they rip it off and we have to put it again you can see also they put here on the door the stack of david we painted already down but what we can do just one minute the i never in my life thought i would see the inside of an ultra-orthodox synagogue in stamford hill you can come in thank you you have a sign that site that says a jew is not a zionist and you're in a very jewish area here is that seen as controversial what it means conservation uh something that makes people angry i can't say that this synagogue came under attack a few times sometimes thrown stones on the window and have to replace the window they don't like what we say so the only thing what they can say oh these are fanatic people these extremists how come so few people know about you guys how often did you see people like me people like me you can see in the cartoons but in the media you don't see people like me so how you expect people to know what is the views of these jews is it possible to see a bit of the synagogue um okay it's a small synagogue you're heavy at least 40 50 types of books against zionism in the state of israel here's the holy scriptures yeah what does it say he is just a crown that means the count of the torah and here is just the beginning of each the ten commandments does the state of israel break any of the ten commandments the sixth don't kill the eight don't steal the basic of the jewish religion is to trust god if the gods send us in exile stay in exile we have to wait for the coming of messiah so is that why the natural cardiac believe that israel is against god a hundred percent yes of course the neterykarta considered themselves defenders of the faith so i'm curious to hear what another jewish movement that is also critical of israel make up them i've arranged to meet liberal judaism's rabbi charlie baginski the network carter called themselves the true genes what does that mean that other jewish people are in their eyes terra cutter would define that they interpret scripture in the right way and the rest of us have it wrong it's very much their way or or no way and so we wouldn't be considered jewish my children wouldn't be considered jewish our rabbis are not recognised would you say that they're like they have a fundamentalist view of the torah sure once any interpretation becomes unquestioning it's problematic so your movement is as you call it a critical friend of israel's the metric carte is taking that a lot further what do you think about that there's been a very large conversation within the jewish community about when it's legitimate and when it's not legitimate to criticize israel it's notorious for you that the state of israel shouldn't exist until the messiah comes and they will do anything to ensure that that religious ideal is fulfilled they wait for the messiah the neterykartas seem determined to get their voices heard i'm trying to find where rabbi back lives he's invited us over because some of the guys from the netre carta are coming over to make banners for protests happenings nakba day nakhba means the disaster in arabic nakba day is the day palestinians mourn their displacement when the state of israel was created but this is also israeli independence day when israelis have a party to celebrate the creation of their country [Music] hello hello how are you tomorrow we're going to be a demonstration against the state of israel we participate these demonstrations to bring out our message to show for the world the jews and zionists are not the same thing judaism rejects the state of israel and condemns its atrocities the protest falls on a saturday the sabbath so there's a bunch of restrictions they must stick to one being not to use public transport it's a height back where the israeli embassy located just here okay our synagogue is located here this is going to be such a long walk of three and a half hours three and a half hours yes so we need to be prepared shambles we are not allowed to touch an electric device we can't speak into the mic and also when we walking we need a non-jewish man going between us okay so everything will be okay as long as there's a man standing between you and me and you cannot talk straight into the microphone and also saturday we are not carrying nothing nothing nothing we're not killing nothing this is one of the laws so you're going to walk across the entirety of london for three hours carrying signs no no no no no you forgot we are not allowed to carry saturday anything we will wait on okay okay it's not easy to be jewish don't become jewish they're going to be a lot of palestinians at present at the protest how will you be received oh very very welcomed very welcome are we coming many times do pro-israeli people come down yes yes they feel very angry in the crying of us but what can we say we bring out the right message of judaism and this is the right message i mean when you look who is the real jew look of me you look on him he don't look as a jew at all he don't keep the shabbos he have no problem with troubles like i have he don't walk to the protest three hours he's just coming by the car and packaging the side and say oh i'm a religion jew so are there like clashes when the pro-israelis come down and they see you like wearing free palestine yes because of that we have the police so does it get violent usually not the police watch if not the police then get violent of course [Music] we hope to bring out our message for them all to know you know designers have the power and the media and the power and we haven't got nothing we have only one thing we have got on our side getting quite warm here is a lot of exercise these guys walked really fast i thought i was a good walker but i've met my match they're creating quite a lot of attention when they walk on the street constantly trying not to get run over [Music] because they're wearing the protest banners under their coats they keep having to stop to like sort of tuck them back up when you walk around central london how do you feel when people start pointing fingers or saying things you're not kidding me we accept that we are different and people snot on us they sneer on us and it's part of our religion to ignore it we have a goal in this world so this gives us very much sensitivity satisfaction satisfaction so we're almost by the israeli embassy [Music] [Applause] yes [Applause] [Music] [Applause] is [Applause] you know what do you make of the orthodox jews i feel that every person has a right to express themselves seeing the orthodox community coming here to explain their destruction of the state of israel at the end of the day they are churches and i don't see truth as he lies israel you have no right to palestine so there are ultra-orthodox jews standing holding palestinian flags what do you make of that they're natural carter which means they're an extreme ultra orthodox jewish group they're the same as isis really in religion they're not considered a monster juice to be jews because they take it to such an extent and they have a very very very bad reputation they go beyond normality i mean if they could they will strap bombs around themselves and blow each other up palestine is an israel freezer when i spoke to people on the other side of the street they were calling you guys extremists you can't he's an extremist everybody can say that they compared you to people who would happily strap bombs on themselves which i thought was quite interesting nobody here nobody but his protests are coming out with support or violence okay we do what we need to do we know god runs the world and god has advised us what what's our duty to do [Music] no we are not we're not willing to die for a country which is forbidden according to the jewish people you're unbelievable i'm not going to come to you guys for you yeah yeah you can't be true the illegal [Music] tensions are high and the police move us on but i want to quiz rabbi back about why did natalie character often meet up with holocaust and i ahmed yet they even attended his notorious 2006 tehran conference questioning the holocaust i read on the metric carter website that you believe that the holocaust happened because it was god's punishment for jewish people not being religious enough is that correct yes yes it's not about this is what we say it may be the holocaust was a punishment for for this to go away from god to rebellion against god what we have more to say on the holocaust that the zionists the holocaust votes for their favorite from the beginning to the end they justify what they're doing for the palestinians with the holocaust what's happened to the jewish people these are views that have also been stated by far-right parties and also by holocaust deniers like ahmadinejad as far as we know if we speak to him many times about the holocaust and we didn't see that he denied the holocaust it could be this information what i didn't know but as far as i know as far as we study it we didn't find it you stand for a peaceful dismantlement of the state of israel balak madinajad has been quoted in the press saying that israel should be wiped off the map aren't you worried that you're legitimizing violence by consorting with these people the iranian president clarified many times when he say that that israel should be wiped up off the map he didn't mean the people of israel should be wiped up he means that the regime should be wiped up no matter where your sympathies lie in the israel-palestine conflict the nature carter's ideas about the holocaust are problematic and so is the fact that they associate themselves with violent political agendas there is a serious risk there that the network carter's cause could be used as a propaganda tool [Music] two weeks later it's the jewish festival of la boima commemorating the death of a famous rabbi jewish people typically celebrate this festival by lighting bonfires but the nete karta had chosen to add fuel to the flame the abandoning the israeli flag today we're going to make a celebration against israel would it be possible to join this celebration only a man can come in only a man can come in okay so do you think it's not possible for me no no really if you want just to see it i have a storage room where you can stay there if you want really okay i'm gonna make a bit more room here okay i'm sorry it's good [Applause] it turned out there were lots of women in the storage cupboard i managed to get a decent view and got chatting to one of the wives we are all wish to be a man because we want to take care of this if we'll usually making a fire remaining the israeli flag and banning the israeli movement to show the state of israel can't speak in the name of jewish people you can now now i'm uh [Music] there are people who do feel that you are legitimizing violence by burning flags and who will also really take offense it is violent only if this brings violent it's only a symbol to show total opposition especially for a yolt to show them this goes in deep deep into the hat if you are not enjoying fighting and of course you are not enjoying banning a flag but this is we do what we have to do we do what's our duty the netrekarta talk about standing up against violence and ending israeli occupation but what really motivates them is their uncompromising sense of religious duty sometimes the blind faith goes too far [Music] do [Applause] you </t>
+  </si>
+  <si>
+    <t>{'TheGhost204': 'These guys represent Jews the same way ISIS represents Muslims.', 'Eldar Franke': 'At that protest you can really see who is really jewish and who is not, its hilarious that these "jews" with tattoos, piercings, western immodest clothes, disrespectful, illiterate in the Torah and overweight call the Neturei Karta jews who are modest, respectful to everyone, don\'t harp but are authentic, studied and still study the torah, keep the mizvot, call the the people that are consistent the "fake jews". This is really eye opening.', 'Liberto': 'They’re worst than “Judenrat”\n\nThey say Free 🇵🇸, I say Free Gaza from Hamas\n\n❤️ to 🇮🇱\n\nPs: Even so, I admit that the documentary is well done', 'Ernest G': 'Proof that being to smart CAN make you dumb...', 'Bride Gabriel Mount Zion, Heavenly Jerusalem': 'These orthodox people are lack understanding. \r\nWhy is there a war between Israel and Palestine?\r\nLord Jesus Christ raised me to help the world of Gentiles understand what is written in His words. He called me \'daughter of Zion.\'  Please read the prophecy below and understand what you read. The war between Israel and Palestine is spiritual. It is written the God of Heaven gave all the lands of the Palestinians to the children of Israel as an inheritance. Joshua commanded them to drive out of the Palestinians. The Lord of hosts said the reason why He did not allow them to take all the lands in the days of Joshua is so that He can train His people to fight. \r\n\r\nGenesis 26:1-3\r\nThere was a famine in the land, besides the first famine that was in the days of Abraham. And Isaac went to Abimelech king of the Philistines, in Gerar. Then the Lord appeared to him and said: “Do not go down to Egypt; live in the land of which I shall tell you. Dwell in this land, and I will be with you and bless you; for to you and your descendants I give all these lands, and I will perform the oath which I swore to Abraham your father. \r\n\r\nJoshua 13:1-7\r\nNow Joshua was old, advanced in years. And the Lord said to him: “You are old, advanced in years, and there remains very much land yet to be possessed. This is the land that yet remains: all the territory of the Philistines and all that of the Geshurites, from Sihor, which is east of Egypt, as far as the border of Ekron northward (which is counted as Canaanite); the five lords of the Philistines—the Gazites, the Ashdodites, the Ashkelonites, the Gittites, and the Ekronites; also the Avites; from the south, all the land of the Canaanites, and Mearah that belongs to the Sidonians as far as Aphek, to the border of the Amorites; the land of the Gebalites, and all Lebanon, toward the sunrise, from Baal Gad below Mount Hermon as far as the entrance to Hamath; all the inhabitants of the mountains from Lebanon as far as the Brook Misrephoth, and all the Sidonians—them I will drive out from before the children of Israel; only divide it by lot to Israel as an inheritance, as I have commanded you. Now therefore, divide this land as an inheritance to the nine tribes and half the tribe of Manasseh.”\r\n\r\nJudges 3:1-6\r\n Now these are the nations which the Lord left, that He might test Israel by them, that is, all who had not known any of the wars in Canaan (this was only so that the generations of the children of Israel might be taught to know war, at least those who had not formerly known it), namely, five lords of the Philistines, all the Canaanites, the Sidonians, and the Hivites who dwelt in Mount Lebanon, from Mount Baal Hermon to the entrance of Hamath. And they were left, that He might test Israel by them, to know whether they would obey the commandments of the Lord, which He had commanded their fathers by the hand of Moses. Thus the children of Israel dwelt among the Canaanites, the Hittites, the Amorites, the Perizzites, the Hivites, and the Jebusites. And they took their daughters to be their wives, and gave their daughters to their sons; and they served their gods.\r\n\r\nWhy do think the Lord God of Heaven wants to drive out the Palestinians? It is written that Palestinians have been oppressing the children of Israel since the days of Abraham. You need to understand when God gets angry, it is for an everlasting time. Who can reverse what He already said?   \r\n\r\nGenesis 26:15\r\nNow the Philistines had stopped up all the wells which his father’s servants had dug in the days of Abraham his father, and they had filled them with earth.\r\n\r\nDeuteronomy 9:14\r\nLet Me alone, that I may destroy them and blot out their name from under heaven; and I will make of you a nation mightier and greater than they.’\r\n\r\nIsaiah 43:13\r\nIndeed before the day was, I am He; And there is no one who can deliver out of My hand; I work, and who will reverse it?”\r\n\r\nWe cannot say the words of God or the Holy Bible is made up. Read below; What He said in His words is truly happening in our times. Catastrophes will come from the north. Floods came to destroy many people in Morocco and Libya, war from Russia, and wildfires from Canada.  \r\n\r\nJeremiah 47:2\r\nThus says the Lord: “Behold, waters rise out of the north, and shall be an overflowing flood; They shall overflow the land and all that is in it, the city and those who dwell within; Then the men shall cry, and all the inhabitants of the land shall wail."\r\n\r\nThe Spirit and the bride,\r\nGabriel, an angel of the Lord\r\nDaughter of Zion,\r\nMount Zion, Heavenly Jerusalem', 'Peanut m&amp;m': 'as an Israeli, I want my country to exist just not as it is right now,\n I admit my country has done/is doing a lot of harm and I am against a bunch of things my country is doing rn.\nbut i believe that unity was, is, and will always be an option \n \nand as much as i disagree with this mans ideals, every man should have his own ideals and morals. and he conveyed his ideals and morals very clearly and respectfully \n\ngod bless', 'Danken K ': '15:39 the ultra orthodox is right in everything! \nThe non religious Israeli is  disgusting', 'Johnathan Ryan': 'If you dont like it, go and live somewhere else.....the irony.....', 'Slow Boy': '“There is no occupation, read your fact” that words boiled me..', 'espinosaurio': 'Good jews', 'Pudin 4444': 'Wait a minute,so if the messiah comes and restablishes the jewish state which will obviously be in palestine these guys have no problem with it??so they are exactly like zionists with a diffrent philosophy', 'Abdul Shakoor': 'Proud to be Muslim.\nHazrat Muhammad (Saw) is the last massenger of Allah (Allah is the Greatest).\nProud to be pashton pakhton patan 💪.', 'Save The Mosquitoes': '🤣🤣🤣🤣😂🤣🤣🤣', 'Marwan Massari': 'Iam a Muslims and this jews are my Brothers ❤Allah bless you i found this Jews as my Brothers in the Holy Coran talking exactly about this wonderfull Jews', 'Joel Kallio': 'They are the real jews.', 'Alejandro Beer': 'They can hace there point with respect to the evil notion of any state. But being jew is God, Torah anda Israel.  Antizionism is the modern version of antijew', 'Richard Laurie': 'Thank you. God is Good.', 'Emily Howes': 'Regarding the lady who was interviewed on the Pro-Israeli side of the protest - to label the Neturei Karta as similar to ISIS I think is massively unfair.', 'Hope Light': 'Neturei Karta are the real Jews, God bless them.❤'}</t>
+  </si>
+  <si>
+    <t>UCn8zNIfYAQNdrFRrr8oibKw</t>
+  </si>
+  <si>
+    <t>VICE</t>
+  </si>
+  <si>
+    <t>2016-09-07T16:40:15Z</t>
+  </si>
+  <si>
+    <t>8-p4HAdg1A0</t>
+  </si>
+  <si>
+    <t>How to Pronounce Zionazis</t>
+  </si>
+  <si>
+    <t>This video shows you how to pronounce Zionazis.</t>
+  </si>
+  <si>
+    <t>{'hankscorpiouk666': 'Zionizziz lol'}</t>
+  </si>
+  <si>
+    <t>UCwo_pNsPgyF8j7Rih73_2wg</t>
+  </si>
+  <si>
+    <t>Pronunciation Guide</t>
+  </si>
+  <si>
+    <t>2015-02-26T03:01:42Z</t>
+  </si>
+  <si>
+    <t>yTh4ReWk_jY</t>
+  </si>
+  <si>
+    <t>Sarah Zoabi: Proud Muslim Zionist</t>
+  </si>
+  <si>
+    <t>One Arab Israeli woman's fight against radical Islam and the high price she pays for speaking her mind.</t>
+  </si>
+  <si>
+    <t>{'mostafa elfeki': 'Zionism is agsinst Islam its literally against its teachings', 'Anna Müller': 'Dear Zionist: we don’t care if a „Muslim Arab“ with a Jewish name presented us as a „Muslim Arab“. More then 2 Billion Muslims stands with Palastine ❤ . And if this lady is a Muslim convert so she must read the Quran Surah Isra; there is a very interesting Vers regard what will happen in the future and who will have the victory', 'yusufmuaz': 'You are jewish', 'Thomas Muller': 'وَلَن تَرْضَىٰ عَنكَ ٱلْيَهُودُ وَلَا ٱلنَّصَـٰرَىٰ حَتَّىٰ تَتَّبِعَ مِلَّتَهُمْ ۗ قُلْ إِنَّ هُدَى ٱللَّهِ هُوَ ٱلْهُدَىٰ ۗ وَلَئِنِ ٱتَّبَعْتَ أَهْوَآءَهُم بَعْدَ ٱلَّذِى جَآءَكَ مِنَ ٱلْعِلْمِ ۙ مَا لَكَ مِنَ ٱللَّهِ مِن وَلِىٍّۢ وَلَا نَصِيرٍ ١٢٠', 'english grammar and communication for beginners': 'Im amazigh i love isreal  my grand parents  lived  with  jews  they were good people  i stand  with isreal long live  thé democratic  state  with  isreal', 'HanNabaL.': '😂😂😂😂😂😂🇮🇱💩💩💩💩💩🇮🇱🇮🇱🇮🇱🦧💩💩', 'mister': 'For the one who want to hear\nhttps://youtu.be/FKplabTRuak\nhttps://youtu.be/TwhdcoVbPEY', 'Hasan Inan': 'How much did they pay you?', 'Laura Smith': 'The Media is the router/Means to Evil to begin With, it’s Lies and the media are sponsor of Hidden truth and supporters of the aggression means and divert the attention away from the real humans heart.  And manipulating human’s brains toward their Benifit$.\n\nFollow the creation of paper money! The Love of Money is the Path towards the DEvil.(£$€ head of the Snake)   Didn’t Eve or Adam ate from the fobbid tree? Wasnt it the sepent whom convinced thy?!? (Reptiles,Snake, or Sharp Shifters! ‘who knows or is it me ,I, being crazy, Paranoid  ’)\n\nBeware!  Be on your guard against greed of every kind for even a man has more than enough but his wealth does not give him satisfaction or Life.  Injeel Luke 12:15\n\nWhat will it profit a man if he gains the whole world and loses his soul!  Injeel Matthew 16:26\n\nAllah commands justice, the doing of good and liberality to Kith &amp; Kins.   AL Quran Syrah 16:90\n\nHe who eats &amp; drinks while his human fellow Companions goes hungry is not one of Us.  ISLAMAC HADITH\n\nA stranger came to Jesus (pbuh) and asks, “ Good master”  ‘What must I do to win eternal Life?..........He said (Jesus)”Go sell everything you have and give to the Poor &amp; you will have riches in heaven”. Injeel Mark 10:17-21\n\nJesus (pbuh)says in Injeel: Matthew 19:24 " I\'ll say it again-  it will be easier for a camel to go through the eye of A needle than for a rich person to enter the Kingdom of God!"\n\n” Jesus said “ If God were your Father, you would love me, for I came from God and I am here. I came not of my own accord, but he (Ellah/Allah) sent me.\xa0\n\nIslam\nTake care of Five Before five:\n1: Take Care of Youth Before Maturity.\n2: Take Care of your Time Before Preoccupied.\n3: Take Care of your Health Before Sickness.\n4: Take Care of your Wealth Before your Poverty \n5: Take Care of your Life Before Death. \n\nVerily, Allah does not look at your appearance or wealth, but rather he looks at your hearts and actions.”\n\nGaddafi was right about JFK\nhttps://m.youtube.com/watch?v=jRhQekGyiRI\n\nJFK Speech \n\nThe very word "secrecy" is repugnant in a free and open society; and we are as a people inherently and historically opposed to secret societies, to secret oaths and to secret proceedings...Our way of life is under attack. Those who make themselves our enemy are advancing around the globe...no war ever posed a greater threat to our security. If you are awaiting a finding of "clear and present danger," then I can only say that the danger has never been more clear and its presence has never been more imminent...For we are opposed around the world by a monolithic and ruthless conspiracy that relies primarily on covert means for expanding its sphere of influence–on infiltration instead of invasion, on subversion instead of elections, on intimidation instead of free choice, on guerrillas by night instead of armies by day. It is a system which has conscripted vast human and material resources into the building of a tightly knit, highly efficient machine that combines military, diplomatic, intelligence, economic, scientific and political operations. Its preparations are concealed, not published. Its mistakes are buried, not headlined. Its dissenters are silenced, not praised. No expenditure is questioned, no rumor is printed, no secret is revealed.\n\nHero of Ireland, Muammar al-Gaddafi, speaks of his support for the noble cause of Irish Freedom\nhttps://m.youtube.com/watch?v=WahOF5v1k6M\n\nAfrica Muslim Leader King Gaddafi\'s plan to introduce the gold dinar, a single African currency made from gold, a true sharing of the wealth. The Real Reason for NATO Attacking Libya EXPOSED\nhttps://m.youtube.com/watch?v=PLJu0X14vmg\n\n1 Timothy 6:10, NIV. Injeel (Gospels)\nFor the love of money is a root of all kinds of evil: which some reaching after have been led astray from thy faith, and have pierced themselves through with many sorrows.\n\nShekels = money. Money is important for the chosen race. Look at Germany a Red-light District.\xa0\n\nThe Famous Zionist Jew The 613 Mitzvot Laws of conduct to ...\n\nPositive commands\nP121 To leave gleanings for the poor.\nP122 To leave the forgotten (unwanted)sheaf for the poor.\nP123 To leave defective grape clusters for the poor.\nP198 Lending money to the heathen (Hidden) with interest.\nAnd lots more!?!!!\n\nSincere People of the Scripture is he who if entrust him with a great amount of Wealth he will return it to you. And among them is he who if entrust him with a single silver coin he will not return it to you unless you are constantly standing over him demanding it. That is because they say "There is no blame upon us, concerning the unlearned". (Unlearned : The Zionist Jews do not consider it a sin to cheat or lie to a Gentile ( non Jew) or a pagan) Quran Surah Ali Imran 3:75\n\nMuslim\'s believe in the Torah Tenakh Gospel and the Al Quran.\n\nWhat do Muslim say about Mary and the Jews &amp; Christian\n\nGod sent the Angel to Mary and said " O Mary indeed Allah has chosen you and purified you and be devoutly obedient to your lord and prostrate and bow with those who bow in prayer . O Mary indeed Allah give you the Messiah Jesus (PBUH). He will speak to the people in the cradle and in maturity and will be of the righteous". She said "My lord how will i have a child when no man has touched me". "When he (Allah) decrees a matter He only says to it BE and it will Be, He will (Jesus) teach him writing and Wisdom and the Torah and Gospel". Surah Ali Imran 3:42 AL QURAN\n\nThe enemy of faith call Jews, Jews because that they were from Jerusalem, and Christians because they followed christ.\xa0\n\nVerily! Those who believe and those who are Jews and Christians, and Sabians, whoever believes in Allah and the Last Day and do righteous good deeds shall have their reward with their Lord, on them shall be no fear, nor shall they grieve. Quran surah 2:62 Al-Baqara\n\n\nIsaiah 29:13\xa0Injeel (Gospels)\nBecause this people draw near with their mouth and honor me with their lips, while their hearts are far from me, and their fear of me is a commandment taught by men,\n\nRevelation 2:9 \xa0\n"I know thy works, and tribulation, and poverty, (but thou art rich) and I know the blasphemy of them which say they are Jews, and are not, but are the synagogue of Satan."\xa0\n\nRevelation 3:9\xa0\n"Behold, I will make them of the synagogue of Satan, which say they are Jews, and are not, but do lie; behold, I will make them to come and worship before thy feet, and to know that I have loved thee."\xa0\n\nAlbert Pike the creator of KKK and Freemasonry And a secret Zionist Jew. Top Illuminati Grand Wizard: “We Control Islam and We\'ll Use It to Destroy the West.” (WW3) We shall disguise the fact it was those White Skin Muslim who try to stop our Sex Slave Trade of Christian Shiksa, to make a Shekel for the Chosen Race Zionist Manipulating the Gentiles for the sake of Chosen one! https://m.youtube.com/watch?v=0dXD2H0m74g\n\nHitler never kill 6,000,000 Jew he put 6,000,000 back in employment! Do your Research!!!\xa0\nA lecturer reveals the truth about Hitler\'s hate of the Jews. What if you were him? 6M lies and HH\xa0\nhttps://m.youtube.com/watch?v=dgX2v-v_vik\n\n\nHitler never hate No Black No Asian No Non Asians nor whites but just the Zionist Jews. Did you know Hitler was a admirer of Islam and half his Troops were Muslim SS don\'t believe me do your research!\nHistory of Hitler and Islam\nhttps://m.youtube.com/watch?v=HVIJKzc0gkA\n\nThe Prophet Muhammad\xa0\nsaid: {O people! Your God is one and your forefather (Adam) is one. An Arab is not better than a non-Arab and a non-Arab is not better than an Arab, and a white person is not better than a black person and a black person is not better than a white person,except in piety.}\n\nISIS = Israel Secret Intelligent Service https://m.youtube.com/watch?v=E9ubCPIHrPQ\n\nWhy The Military Knows Israel Did 9/11 https://m.youtube.com/watch?v=kVKGRB3cygg\n\nSee who really done\xa0\n911 = Mossad. USA has Woken\xa0\nFake Al Qaeda Actors EXPOSED! Adam Gadahn &amp; Yousef al-Khattab\xa0https://m.youtube.com/watch?v=pTQqVNV7kUI\n\nIsraelis placing Bombs in 911Evidence that ties Chenney &amp; MOSSAD to 9/11\nhttps://m.youtube.com/watch?v=giFRe1v0YjQ\n\nThose who worship the land of Israel rather the God of Israel (who makes the land Holy)\nAre idol worshipers. Gospel Matthew 23:19\xa0\n\nBabylonia Talmud says\nhttps://m.youtube.com/watch?v=2Y6m4wNQ4hc\nGoy = non jew man\nGoyim = non jew men\nShiksa = non jew female meaning a whore a Prositutes\nA view of Frankfurt, Amsterdam, Munich, Hamburg-St, Belgium, Netherlands &amp; Hollywood etc\nFrankfurt is an important city in German-Jewish history. full of Shiksa = Red-light District.\n\nJews in Hollywood Own Porn Industry - Jews Expose Creation and Domination of Porno\nHow The Zionist Jews Use Pornography To Destroy.\xa0\nhttps://m.youtube.com/watch?v=dC0A5TMIskg\n\nThe horns of the Satan : \nThe devilry anticipated by the Prophet The Muhammad PBUH You\nhttps://m.youtube.com/watch?v=9WKgZq4VtG4&amp;noapp=1&amp;has_verified=1\n\nHadith | Conspiracy To Destroy Islam Hadith \nhttps://m.youtube.com/watch?v=YOY5rBCbDVI&amp;t=2s\n\nBukhari Hadith Exposed\nhttps://m.youtube.com/watch?v=qhPkdCgebr4\n\nContradictions In "Sahih" Hadith\nhttps://m.youtube.com/watch?v=HRdOUQ3h_Zc\n\nWhy Imam Al Mahdi will destroy Saudi Arabia ? https://m.youtube.com/watch?v=oh5Ic5EFpKY&amp;rdm=2cbfct6e3&amp;client=mv-google\n\nSaudi Family Is Zionist Jewish?\nhttps://m.youtube.com/watch?v=FPoJSH-rkXE&amp;t=17s\n\nPROPHET MUHAMMAD (PBUH) WARNED US ABOUT WAHHABISM \nhttps://m.youtube.com/watch?v=R-I0BQSinuY&amp;t=4s\n\nDo Islamic Terrorists really get 72 Virgins?  Creating ISIS whom are Israel Secret Intelligence Service. \nhttps://m.youtube.com/watch?v=R-AGLuV351g', 'Berk YILMAZ': 'Muslim Zionist? What a joke.', 'Dennis Savage': 'You are a fake Jew not a real Jew same as Christian Zionists. Bible Revelations mentions fake Jews.', 'Rae Gitano': 'Poor children and women. Too bad for em!', 'Z El H': 'Hahah this is propaganda', 'Omar Hassen': 'He is not respecting islam', 'Frihed Kærlighed Nærhed': 'Freedom for all regardless of color religion country in the whole world✌🏻😘 .. We live in a time where THEY THEY THEY talk so much about equality FREEDOM and tolerance? .. That is not what we SEE unfortunately…\n\nAMNESTY INTERNATIONAL\nGod Blees You GOD BLEES YOU🔥🔥❤️❤️\n\n A slogan that I have started to love a lot is MAN before the system ❤️❤️✌🏻 .. Man first remember it you out there❤️ .. Never let them PROGRAM you to FORCE or Fasc-ism  deep down YOU ALL NO what true love is and freedom value it more than EVER, anyone mind and share it with everyone ..❤️✌🏻Free Palestine And Yemen And Syria From Bombs🇸🇾🇸🇾 From Terror And Appartheid…🇵🇸🇵🇸🇾🇪🇾🇪🇵🇸🇵🇸🇾🇪🇾🇪❤️🔥✌🏻✌🏻 PEACE TO REAL HUMANS…❤️❤️✌🏻✌🏻🤲🏻🤲🏻 Love To The Free Pepole…❤️❤️\n\nCould have been Michael Jackson words or Nelson Mandela or Martin Luther king..💪🏻✌🏻✌🏻', 'stani': 'Shill sellout let her spend a week in gaza', 'M M': 'If she spoke arab we would actually try to believe her 🙄', 'Mr Alcacer': 'Free Palestine', 'yeshaya24': 'Fake zionist actress ...'}</t>
+  </si>
+  <si>
+    <t>UC8XGOrE1U_HYdYFonEuyCfw</t>
+  </si>
+  <si>
+    <t>AishJewish</t>
+  </si>
+  <si>
+    <t>2016-08-14T11:28:55Z</t>
+  </si>
+  <si>
+    <t>xpG6qIRxesU</t>
+  </si>
+  <si>
+    <t>Zionism explained</t>
+  </si>
+  <si>
+    <t>This is the meaning and history of a very contested movement: Zionism. Palestine: 50 Years of Occupation ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what is zionism zionism is a political and national movement aimed at creating and sustaining a jewish state in the middle east now according to many traditional and orthodox jewish teachings jews are forbidden by god to have their own state until their messiah comes but this hasn't stopped zionism from pushing towards that very goal so where did this all start let's go back to 1897 a man named theodore herzl formed the world zionist organization he advocated for the creation of a jewish state in palestine and is even mentioned in the israeli declaration of independence it was tough to be a jew in europe in that time with anti-semitic sentiments rising herzl felt the only way for his people to live in peace was for them to have their own country palestine was chosen and a popular slogan started spreading around the world a land without a people for a people without a land the only problem was palestine wasn't a land without a people a large number of muslims and christians along with a smaller number of jews had been living there together in peace for centuries but for many christian zionists living in the west and jewish zionists living in europe that made little difference following the fall of the ottoman empire at the end of world war one and along with british support jewish immigration to the newly british occupied palestine was steady in the early 20th century then there was a turning point world war ii following the holocaust the flow of jews to occupied palestine boomed and many western countries began backing the idea of a jewish state in palestine although a u.n resolution recommended both an independent arab and jewish state in the region israel went ahead and declared their independence in 1948 and was recognized by u.s president harry truman that very same day the zionist movement had achieved its main victory in the period after its establishment israel carried out an invasion of neighboring countries and at the end of 1967 six-day war israel extended its control in the region displacing countless christian and muslim palestinians a year later the 28th world zionist congress adopted the jerusalem program a list of five goals which are the current makeup of modern zionism the unity of the jewish people and the centrality of israel and jewish life the in-gathering of the jewish people in its historic homeland the strengthening of the state of israel which is based on the prophetic vision of justice and peace the preservation of the identity of the jewish people through the fostering of jewish and hebrew education and the protection of jewish rights everywhere in practice their goals of justice and peace have been lost to many of the non-jewish people living in the region the israeli military has been illegally controlling and occupying much of palestine and constant new illegal settlement building on palestinian land by the zionist state has been condemned by much of the international community so what do you think about zionism [Music] </t>
+  </si>
+  <si>
+    <t>{'Shipsanckor': 'All I know is that God gave that land to the Jewish people- and as a Christian I wish peace to all Muslims Christians and Jews', 'giovanni giorgio': 'nothing can be free without war and blood', 'ꑭСЛАВА УКРАЇНІ! ГЕРОЯМ СЛАВА!ꑭ 🇺🇦': 'Proud to be Zionist! 🇺🇦❤️🇮🇱', 'Annabelle': '还原历史真相。谢谢。那么一帮人骗了我们半个世纪。巴勒斯坦人太可怜了。', 'John Wick': 'Descendants of pigs and monkeys', 'Robert Mugabie': "It won't be much longer before  every native of the world sees that Zionism is a poison to all off us. If we do not stand up and abolish this fake state of Israel and face up to and demilitarize the terror state of America, then the world will suffer and never attain peace.", 'Mikkel': 'Read and study The Protocols of the Elders of Zion as well as the Kalergi Plan.', 'Austin Luv': 'Zionism = Nazism', 'tewfik saad': 'Zionism is a front to humanity!', 'Atlas Reigns': 'End aid to Israel', 'Urstruly Palmer': 'Jews can have Judah only leave Israel alone.', 'Hitman...': 'Evil people the killing never stops jews here in Europe and Christians and Muslims in Palestina crazy jews havent learn', 'Dualism DeeperLaws': 'We must preach salvation to the lost children of Israel.', 'Penny Palmer': 'Now have multiple videos of Jews admitting to criminal offenses against non Jews. They are poisoning Americans and showed excitement for doing so…weird. They are not godly not for Jesus Christ but perhaps for satan.', 'Vibes over Violence': 'Free Palestine! ❤', 'Nico Moreno': 'Free Palestine!', 'AnjalE': 'Zionism is a diabolical propaganda of the german empire\n\nWhich includes the Nazis AND the mormon church\n\nThe catholics have just  been used as the scapegoat.'}</t>
+  </si>
+  <si>
+    <t>2017-08-18T12:16:43Z</t>
+  </si>
+  <si>
+    <t>N2zYYQCYUvY</t>
+  </si>
+  <si>
+    <t>What is Zionism? | History of Israel Explained | Unpacked</t>
+  </si>
+  <si>
+    <t>This week, we're diving into the subject of Zionism and looking at where the idea of Jewish return to the Land of Israel came from.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- What exactly is Zionism? Where did the idea of Jewish
+return to the land of Israel, which came to be an integral
+part of Zionism, originate? And what did this return mean to different groups at different times? Was and is there more
+than one kind of Zionism? (upbeat music) For starters, we have to know that Zionism didn't begin with Theodor Herzl. The roots of the Zionist idea grow deep in the land of Israel. The Jewish people's connection to the land has been at the center of their story for at least 3000 years. For about a 1000 years,
+the Jewish people built a rich and thriving ancient
+civilization in the land. This lasted until the year 70 CE, when the Romans destroyed the Jewish temple in Jerusalem and exiled
+the Jews from their land. For the 2000 years since then, Jews scattered across the globe have been carrying a collective connection to the land of Israel and
+hoped to return to it. But let's go back to the beginning. According to the Biblical record, the Jewish patriarchs and matriarchs made their home in the land of Israel. Their descendants, freed
+from Egyptian slavery, returned to the land
+several hundred years later. Centuries of civil war
+among the Israelite tribes was followed by the
+United Kingdom of David and later Solomon, which
+centralized Jewish worship in Jerusalem with the
+establishment of the first temple. Of course, there are debates over the historical accuracy
+of many Biblical stories. But what's grounded in historical fact is that the Jewish people living in Israel centuries before their exile told these foundational stories. Perhaps, more importantly,
+these stories have been essential to Jewish
+identity for millennia. But back to history. After some four centuries of religious and national development
+under Jewish rule, the land was invaded by the Babylonians. The Jerusalem temple was destroyed and many Jews were exiled to Babylon. This was a period of great devastation for the ancient Jewish civilization. It was only after the Babylonian
+empire fell to Persia, roughly 50 years later, that those exiled were eventually able to return in a remarkable and historic homecoming. Referred to as Shivat Zion
+or the return to Zion, this movement was initiated
+by the visionary leaders Ezra and Nechemya. The Jewish community was revitalized and the temple was rebuilt. In many ways, this shorter
+period of exile and return can be seen as a precursor
+to the ideals and ambitions of Jewish self-determination
+that is now known as Zionism. Jewish civilization in ancient Israel then continued for another 400 years until the Romans destroyed
+the second temple and exiled the Jewish people yet again in the first and second centuries. This time though the exile
+would last 2000 years. Of course, this is a fairly simplistic, condensed summary of a much
+more extensive ancient history. But what it all means
+is that for 1000 years the land of Israel was
+the center of Jewish political and cultural life
+and day-to-day society. So there's an ancient connection between the Jewish people and the land of Israel. But if the land is so important then how were Jews able to remain Jews for almost 2000 years
+without living there? Well, despite their distance from it, the land has always remained
+the geographic center of the Jewish faith
+and religious practice. The annual cycle of the
+Biblical Jewish festivals are based on the agricultural
+cycles and seasons in the land of Israel. The Maccabean Revolts
+commemorated by Hanukah, also occurred in the land. The Biblical and post-Biblical stories still studied today
+were rooted in the land. The rabbis that taught and developed the very foundation of Jewish
+practice resided in Israel. Their teachings were
+compiled in this 63-volume legal anthology known as the Mishnah, the basis of Jewish
+religious law even today, also written in Israel. Even the longing for
+their return to the land developed into a foundational piece of Jewish religious, cultural,
+and national identity. The Jewish liturgy includes prayers three times a day for
+a collective return to and rebuilding of the land. Religious study includes
+ancient rites and rituals that would only apply once
+the Jews were to return and rebuild the temple. At the close of the Passover Seder, Jews call out, "next year in Jerusalem" and each summer on Tisha B'Av, the Jewish people mourn the
+destruction of the temple and their exile from the land. At Jewish weddings, the
+couple breaks a glass in commemoration of
+Jerusalem's destruction and the hope that they return to it. From country to country
+throughout the diaspora Jews maintained a deep
+faith that they would one day be returned to their homeland. Some Jews even made efforts
+to actualize that dream by immigrating to Israel,
+known as making Aliyah. The long and dangerous
+journey was difficult and often life threatening. Many who sent out on
+Aliyah didn't make it. The 13th century Spanish rabbi Nahmanides was one of the first medieval rabbis who traveled to Jerusalem hoping
+to renew Jewish life there. He found the city in desolation
+as a result of The Crusades, yet he succeeded in
+reestablishing a lasting Jewish communal life there and established a synagogue that is still in use today. After the expulsion of the
+Jews from Spain in 1492, a large number of Jews
+immigrated to the land. Among them were the
+families of future rabbis who would become pivotal in
+the development of Judaism. These included Rabbi Isaac
+Luria and Rabbi Joseph Caro, both of whom became the leaders of the mystical Kabbalistic
+Movement that emerged in the City of Tzfat in Northern Israel. The influx of Jews from
+Spain and North Africa led to a Golden Age of Tzfat, during which the city was a global center for Jewish learning and trade through the 15th and 16th centuries. In the late 18th century,
+some followers of the Hasidic Movement also began to make Aliyah to the land of Israel. One of the earliest Hasidic masters, Rabbi Menachem Mendel of Vitebsk, settled in Tzfat with 300
+of his followers in 1777, the first of several Hasidic settlements. During roughly the same
+period, The Vilna Ga'On, who many consider the
+greatest Jewish scholar in centuries, wrote that the
+long-awaited redemption would only come once the
+Jews took practical action on their own and settled
+the land of Israel. They could not rely on
+prayer and meditation alone while waiting for a Messianic age. So in the early 19th century, more than 500 disciples of The Vilna Ga'On made the difficult and
+dangerous journey to Israel, settling in Jerusalem, where they revived ancient rituals and customs
+and established schools. Later, in the mid-19th century, Rabbi Yehuda Alkalai and later Rabbi Zvi Hirsch Kalischer, also stressed that redemption would only come as a result of practical steps. They called for resettling of the land as a method of Jewish self-help and shared many ideas that would later be applied by the Zionist Movement. Okay, so there were
+plenty of small migrations and movements to return to Israel but how did these give way to the organized mass movement of Jews
+from around the world returning to the lands that
+we know today as Zionism? Well, a large part of what
+fueled such organization was the idea of Jewish
+Emancipation that emerged from the Enlightenment in the 18th century combined with the new 19th
+century concept of nation-states. Added to the mix was the intensifying persecution of Jews in Europe. In 1882, a pamphlet
+called Autoemancipation: Warning to His Kinsman From a Russian Jew was published by a physician
+named Leon Pinsker. Pinsker came to the novel conclusion that hatred of Jews, what
+he termed Judeophobia, wouldn't be overcome by a change in Jews' political status in their host countries or even by equal rights. Instead he argued for a new approach, the establishment of a sovereign
+political Jewish state. He then founded an organization called Hovevei Zion or Lovers of Zion, which began to facilitate
+the immigration of Jews to the land of Israel. This was the birth of a practical or political Zionism that aimed towards the eventual creation of an independent nation-state for Jews. And when Rabbi Samuel
+Mohilever and his disciple Rabbi Yitzchak Yaacov
+Reines became leaders of Hovevei Zion and
+its religious offshoot, the Mizrachi Movement,
+it marked the beginning of Religious Zionism as a movement and its early partnership
+with political Zionism. But these weren't the only
+Zionist ideas in development. Another Zionist Movement
+began to emerge in 1888 with the circulation of an essay called Lo Zu Haderekh or This is Not the Way. It laid out a harsh critique
+of practical Zionism and was written by Ahad Ha'Am, the founder of what would come to be known as cultural Zionism. Ahad Ha'Am had been influenced
+by Pinsker's pamphlet and ideas and was a
+member of Hovevei Zion. But he was critical of the
+feasibility of practical Zionism and the massive immigration
+that it envisioned, let alone the large scale
+establishment of a nation-state. Instead, Ahad Ha'Am proposed the gradual establishment of a Jewish
+cultural renaissance that would unite Jews across the world with its spiritual center in Israel. Two of its central
+goals would be a revival of Hebrew language and Jewish literacy. But there were yet
+other strains of Zionism developing during the same period. Socialist and labor Zionist movements, inspired by Marxist ideals,
+aimed to work the land in order to create a socialist
+communal model of society. In time these efforts
+would eventually lead to the early Kibbutz Movement. But then how did all of
+these different movements eventually come together? Well, this is where a
+Jewish Austrian journalist named Theodor Herzl finally comes in. Just five years after Pinsker's death, Herzl published his book, Der Judenstaat or The Jewish State in 1896. This changed everything. Not necessarily because
+Herzl's ideas were so new. In fact, they were very
+similar to Pinsker's. But mainly because the
+timing was so perfect. There had been so many
+Zionist developments that the stage was now
+set for Herzl's vision. And so when Herzl convened
+the First Zionist Congress, Pinsker's Hovevei Zion was absorbed into Herzl's new Zionist organization. But disagreements remained. Ahad Ha'Am, as before, opposed what he now referred to as westernized Zionism. He saw Herzl's Zionism
+as devoid of Judaism and as an abandonment of Hebrew language and Jewish culture in preference of a purely westernized state. He considered Herzl's
+vision of mass immigration and a nation-state to be wishful thinking. He also objected to the Zionist
+Movement's general dismissal of the Arab population
+already living in the land. Herzl died in 1904 and
+so he didn't witness the most significant
+development towards his vision, which came 13 years later
+when the Balfour Declaration was issued in 1917. This was a statement by
+the British Government that supported the
+establishment in Palestine of a national home for the Jewish people. It was a hard-won result of more then a decade of effort by Zionist
+leader, Dr. Chaim Weizmann. Weizmann's mentor, none
+other than Ahad Ha'Am, advised him during the
+Balfour negotiations. Ultimately, Ahad Ha'Am's cultural Zionism merged with Herzl's political Zionism. Once it was clear that not
+only was a Jewish state feasible but that a large
+immigrant population and Jewish culture were
+already flourishing in the land. So do we think there's just one idea that defines Zionism or that Zionism is the same for everyone? Whatever one's flavor of Zionism, be it political, religious,
+cultural, social, or other, the unique advancements
+for the Jewish people that have come with the state of Israel, demonstrate how
+self-determination fulfills not merely a single expression of Zionism but as Zionism that can
+cover the entire spectrum of Jewish life. Zionism is not just about
+the successful return to Jewish sovereignty that was central to political Zionism or the
+spirituality and national redemption that was a
+concern of religious Zionism or the establishment of
+a socialist community dedicated to radical equality that was an ideal of social Zionism or even the revitalization of an
+ancient language, literacy, and culture that was the
+ambition of cultural Zionism. Zionism is all of these
+things and much more. It is an acknowledgement
+of the unique role of the State of Israel in establishing a thriving, modern Jewish civilization as the embodiment of the Jewish people's connection to their ancient homeland that is rooted in history
+and dedicated to the future. Thanks for watching. See you guys next week. (upbeat music) </t>
+  </si>
+  <si>
+    <t>{'fredie Boll': 'Nasty scumbags', 'John Sawyer': "I'm not Jewish but the world has hated the Jews sense day 1 but God's promise to preserve them always has and always will stand true.", 'DoNotRemember': 'How messed up the world is😢', 'Albert Pacaj': 'Zločinecka skupina', 'John Wick': 'ZIONISM=FASCISM', 'redruM Reverse': 'Israel spends millions of dollars to pump out videos like this solely trying to justify the existence of their occupation zone. \n\nThey know exactly that they are hypocrites.', 'Redneck Weiser': 'Zionism ? Start 1948', 'Victoria': 'You forgot to mention the horrible invasion, colonisation and genocide of many Arabs already living there for over 2,000 years. Palestine human rights are have been violated in the past 100 years. This “thriving” religious project needs to stop.', 'classproject00111': 'omg  brainwashing 101', 'Owais Bhat': 'Free palestine Free kashmir', 'Iron Age': 'I bet you have a hairy back.', 'ZAR': 'All lies ! Making your own history wont change the truth', 'Rena Manvelova': 'You want to live in a third world country go for it but I like eating my pepperoni pizza', 'Syed Ali': 'Zionist = racist', 'Nix Nix': 'Can someone please explain to me WHY...\nSome jews want a total PURE Race Zionist  land..but not all jews..?\nand why some germans wanted a PURE Race Nazi land...\nbut not all germans .?\nEach thinking they are both PURE in their methods in obtaining this goal?', 'Matthew Janecek &amp; the Western Sage': 'Why were the jews kicked out of so many nations in history?  Who are the Khazarians?', 'Abu hasan Ali': 'jew kill jesus cries!\njew has more power than cristian god!!🤣🙏', 'MOONfacekilla': 'So people who have never lived here decide that they are owed this land from an ancient heritage and the people who have been there for generations are trespassing on ancestral land and need to be kicked out? Am I understanding this logic?', 'lil damn9': 'NAZI\n\nNATIONALIST ABRAHAMIC ZIONIST ISRAELITES', 'Admiral Yamamoto': 'It’s not propaganda, he’s explaining a bit of history of Israel'}</t>
+  </si>
+  <si>
+    <t>2019-07-25T13:59:11Z</t>
+  </si>
+  <si>
+    <t>WTQOudBMf7Q</t>
+  </si>
+  <si>
+    <t>Professor Avi Shlaim answers question about whether Zionism is a racist ideology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zionism is racism Israel cannot be both Israel is either a racist Jewish state or it's a democratic state for everybody and that's what I would like Israel to be I'd like a democratic solution one state with equal rights for um all its inhabitants your organization Human Rights Watch issued a report last year about Israel and the conclusion was it is an apartheid state and there are four major human rights groups in the last two years who issued similar reports which the same conclusion Israel is an apartheid state so apartheid is racism apartheid is discrimination but Israel is the only member of the United Nations that I know which is officially racist and I say this because of the July 2018 nation state law which says the Jews have a unique unique right to self-determination in Israel unique means exclusive yes it means Arabs have no right to self-determination it means even if Arabs became a majority they would still have no right to self-determination so but most certainly Zionism is a um is a racist ideology and it is largely responsible for the anakba that has unfolded throughout the last century and continues today </t>
+  </si>
+  <si>
+    <t>{'Yakov Minster': 'He is an enemy of Israel and the Jewish nation.', 'Sammy Ogla': 'as a Jordanian i truly have much much  respect for avi', 'E. E. E.': "It's not racist. anyone can convert to Judaism of any race.", 'Denise Allemandou': 'Absolutely brilliant, God bless you professor Shlaim.', 'Antonio Ruiz': "Clear to most people of good faith. U.S. government operates with ' eyes wide shut'. An ongoing tragedy.", 'Edmund Lubega': 'Ukraine too is officially racist like Israel', 'Md. Helal Uddin': 'Israel has achieved every quality to be destroyed', 'The Shapeshifter': 'My respect to this man : ↗️↗️↗️↗️↗️↗️', 'Naeem Wazir': 'Well stated fact.  Zionest are racist and are not Jews', 'Ahmed': 'Some Jews have self-integrity at the end of the day. Respect, from an Arab.', 'Martin Martin': 'When people say not all Jews are bad, true.\nThe problem is that within the group of Jews is a Cult highly focused on Jewish preservation and frankly I dont oppose self preservation.\nBUT\nI would like honesty about this.\n\n\nStealing is bad, unless you are starving.\nKilling is murder unless it is self defense and so on.\nWhy is ALL preservation of your culture and people Bad?\nit isnt, but it is for White people.\n\nWhy?\nWhy is Black Power good, White Power bad?\nIt is nonsense, people who adhere to these philosophies arent evil.\nThey see a solution to their problem and YOU cannot give them a better one.', 'Carlos Alberto Rocha Matos': 'UMA dica de LEITURA: " Ó JERUSALÉM e vcs saberão quem está por trás de TUDO.', 'Last Knight': 'My respect 🫡 for you Sir👍🍺', 'Real News': 'This belief comes from interpretation of the religious texts.', 'Chuck Jones': "Not just racist ....it's satanic.\n\nRenpham the 6(66) star god they worship &amp; moloch.....\n\nJust like their ancestors who revolted against Moses &amp; went back to worshipping demon idols.\n\nSome people never change.", 'Omer Jabri': 'Palestinians and syrians are under war at all times and nobody cares and we are talking about the rights but they are unable to fight and these countries have been made a war zone to experiment and made laboratories to diatunguish that how dangerous a bomb or a gun could act upon using in the wars ? the weapons that are sold in the market are currently experiemented and laboratory tested so the whole world has become spectators watching the atrocities done to the strians and palestinians showing the sick minset of the us and other christian countries', 'Mr Porsche': 'While there is zionists on earth this world will always be hell', 'Ghengis Khan': 'NAZIonism', 'dawid wyborski': 'And whats the problem with rasist ?', 'Goog King': 'Who else also thought that she was an old granny?'}</t>
+  </si>
+  <si>
+    <t>2023-06-20T15:27:53Z</t>
+  </si>
+  <si>
+    <t>oHlx5fB94bc</t>
+  </si>
+  <si>
+    <t>Israel at 75 - A nation in domestic crisis | DW Documentary</t>
+  </si>
+  <si>
+    <t>The state of Israel is in political turmoil as it marks its 75th anniversary. While there is still no end in sight to the conflict between ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Every year, Israel marks
+its Independence Day with a demonstration
+of strength. The fighter jets send the message that
+this country can master any conflict... All this while Israelis celebrate what
+is now the stateís 75th anniversary. They can be proud of the
+prosperity thatís been achieved, yet they are still struggling
+with unresolved conflicts. Israel has made
+some peace deals. But not with its closest
+neighbors, the Palestinians. The violent conflict
+keeps on erupting. Then, there are the deep
+divisions in Israeli society linked to ultra-orthodox
+factions and Zionist extremists. Hundreds of thousands have
+been protesting government plans to in their eyes
+weaken democracy. What has happened to
+the dream of a Jewish state? With Israel more polarized
+than ever before in its history. Theyíre Israelis, but they
+live in the occupied West Bank. New settlements like Kedumim
+close to Nablus are set up each year: widely considered illegal
+under international law. The Israeli settlers now
+number over 700,000. When I came here, there
+were maybe a hundred Jews. I see here two million
+Jews, three million Jews. Many more millions of
+Jews. This is my vision. Weíre on the road
+with Daniela Weiss, one of the early settlers here and
+a lobbyist for settlersí interests. She co-founded Kedumim, one of
+the first Jewish settlements, in 1975. The activist has been vigorously
+promoting the Jewish settlement of the West
+Bank ever since. Itís a miracle what I
+see in front of my eyes. These are new trailers for new
+families coming to a new outpost. Your camera is
+the first to see it. The new illegal
+outpost is called Ori Ad - and was set up by a handful
+of families in double-quick time. The settlers
+have to be fast. Sometimes, the Israeli army
+tries to clear such outposts. Arbel Zak is pregnant
+with her fifth child. With her husband
+being in the army, sheís doing this almost singlehandedly
+- but with utter conviction. We are clearly
+on Israeli territory. Of course, itís strange
+to see a house like this. You probably wouldnít want to live
+in it - with no electricity or water. The settlers have
+no qualms or doubts that their appropriation
+of the land might be unjust. The reasoning
+is religious. We got the word from God to our
+forefathers to Abraham, Isaac and Jacob: That the land of Israel will be given
+to the offspring of the forefathers of the Jewish
+nation - forever. So, I do not have to invent a
+reasoning bigger than the bible. The settlements were only made
+possible by the Six Day War of 1967. Of all the wars waged between
+Israelis and Arab nations, this has had the
+biggest legacy. Israeli forces captured East
+Jerusalem, Gaza and the West Bank - territories that had been
+largely allocated to the Palestinians under the 1947
+UN Partition Plan. But for many Israelis, the
+notion of recreating biblical Israel suddenly became
+a real possibility. Of course, Jerusalem
+was so momentous: That you are now reunited with the
+Temple Mount, with the Western Wall, the famous picture of 67
+showing the soldiers nearby. Those were deeply emotional - and then
+again - almost metaphysical moments for many Israelis, even those
+who were completely secular. We are reviving the kingdom
+that was truly lost - 2,000 years ago. Over the years, as the
+occupation assumed permanence, the likelihood of a
+peaceful two-state solution has become
+increasingly remote. Instead, more and
+more ultranationalists settled in the
+occupied territories - and today theyíre more
+determined than ever to spread their missionary
+vision of a ìGreater Israelî. In this vision of a
+Jewish-dominated theocracy, Palestinians only play
+an at best subordinate role. People who do not accept the fact
+that they will never have sovereignty in the state of the Jews,
+in the land of the Jews, they will go to Arab countries where
+they can live under Arab sovereignty. Itís a very
+clear formula. It says in the bible - and so I
+live by it and Jews live by it. Daniela Weiss categorically denies
+that the settlers, too, are guilty of violence in various forms
+- not just the Palestinians. My people, I mean the
+Jewish people, are not violent. They never preach violence.
+We have a synagogue here, there. We have 20 synagogues. All that
+you hear is peace, peace, peace. And there was no pogrom
+from the side of Jews. We drive to
+Hawara every day. Myself, my children, my
+grandchildren, my great-grandchildren All the family. Never, never, never did we
+think of causing anyone any harm. On the main road between Nablus
+and Ramallah is the town of Hawara - now a hot spot in the
+Israeli-Palestinian conflict. Israeli troops patrol the streets
+and control the important junctions. The Israelis want their children to
+live in peace, security and stability. But I also want my
+children to live like that. Iím just as concerned about
+the future of my children as the Israelis
+are about theirs The army has blocked
+roads into Hawara - again. Only settlers with Israeli registration
+plates are allowed to pass through. For Firas Dmaeedi and his
+supermarket: itís a disaster. For months, the town has been
+in the grip of terror and violence. Business has
+hit rock bottom. Things are really bad, in
+particular the economic situation. As you can see, I own
+this big food supermarket, but these days I hardly
+get any customers. My sales have slumped by 80% because
+of the activities of the settlers and the Israeli army in Hawara. I
+used to have 50 staff. Now, just 20. For months, settlers have
+been launching violent attacks on the townís residents.
+The army rarely intervenes. The settlers donít need
+a reason to attack us. Sometimes they just throw
+stones at us for no reason. What happened in Hawara was
+a reaction to what the Israeli army and the settlers
+have been doing. A year ago, we had good relations
+with the Jews and the Israelis. On the other hand there
+are the brutal terrorist attacks carried out by
+Palestinians. Two settlers were murdered
+here in the middle of Hawara at the end of February - which a lot
+of people here say was understandable. The attacks were a reaction to
+Israeli actions against Palestinians. Many people have been killed by
+the Israeli army in Nablus and Jenin. Plus: the perpetrators didnít
+even come from Hawara. After that attack the
+escalating violence exploded. An angry mob of settlers rampaged
+through Hawara in retaliation: Stones were hurled at
+homes and businesses, dozens of cars and
+buildings were torched. Local residents
+were hunted down. The violence left one
+Palestinian shot dead, and about one
+hundred injured. The Israeli army completely lost
+control or didnít want to intervene, while saying that it
+tried to save lives. One Israeli officer described
+the events as a ìpogromî. Surveillance camera
+footage shows settlers trying to set Firas
+Dmaeediës home on fire. Even weeks after the violence,
+the damage is still clearly visible. When we tried to put out
+the fire started by settlers, the Israeli army attacked us
+with stun grenades and tear gas. The soldiers saw it all,
+but they didnít do anything. The next day they came to
+me and said: Why are you here? You should return to your own
+country, Jordan, or to Saudi Arabia. Those were the
+words of the army. Itís a conflict that affects the
+innocent and the guilty alike. But violence breeds violence. It seems
+impossible to lead a normal life. Firas Dmaeedi doesnít see any
+long-term future here for his business, his family
+or himself. Iím really worried for my children. I
+donít hold out much hope for them. Iím stuck between a
+rock and a hard place. Either we leave the country we
+were born in to protect our children. Or we sacrifice our children
+so we can stay in our parentsí and grandparentsí homeland.
+We are prepared to do that. Israel is trying to terrorize
+us into leaving this country. Along with these external conflicts,
+Israel also faces domestic ones - like that surrounding
+Jewish identity. The influence of ultra-orthodox
+Jews is increasing. They make up a rapidly growing
+proportion of the population - currently 14%. Their
+lives revolve around prayer. In school, they study the
+Torah, not English and math. Theyíre exempt
+from military service. If at all, it tends to be the
+women who have regular jobs. Itís like a
+parallel universe. Iím sure that one day
+the Messiah will come - and when he comes, we will
+be delivered from all our troubles. Those who have followed
+the Torahís path will triumph. Those who havenít
+will disappear. Yoelish Krois has 18
+children and six grandchildren. He lives with his wife and the underage
+children in the Mea Shearim district of Jerusalem - in two rooms
+and something like a sleeping cell. He does
+occasional odd jobs. His family live in precarious
+economic circumstances. Krois belongs to the Eda
+Haredit religious community. They completely
+reject the Israeli state. Their hope is that the Messiah will
+come and establish his kingdom here. The state of Israel is
+the biggest catastrophe that could happen to the
+Jewish people. I have no choice. I live here because I was
+born here and canít leave. I try to live with it, by not
+taking anything from the state. If you donít have any
+contact with the state, you can be sure that
+you will remain orthodox. But that doesnít stop Krois and
+thousands of his fellow-believers protesting against the secular world
+out there and its sinful trappings. Ultra-orthodox Jews in general
+adhere solely to Kashrut laws - which lay down what
+is kosher and what isnít. And smartphones providing
+Internet access are definitely not. Only kosher devices are permitted - and
+only then for important phone calls. The internet? Itís a waste of
+time and is full of bad things. Itís without decency and
+morals - and full of evil opinions. It makes you addicted.
+Itís led to many divorces. You become dependent
+on it and stop living. The rejection of the
+modern secular world sometimes leads
+to violent protests. Among the targets of the
+Eda Haredit groupís anger: A tram passing
+through their district. And recently, businesses selling
+non-kosher smartphones went up in flames. Another segment of the
+ultra-orthodox population is willing to get
+involved in politics. The Shas party and
+United Torah Judaism are part of Prime Minister Benjamin
+Netanyahuís governing coalition. Their communities and
+Torah schools receive subsidies in return for
+their votes - as well as other privileges
+and influence on religious rules. The influence of the ultra-Orthodox
+goes back to the birth of Israel - prompting the countryís founders
+to cede them significant power and refrain from creating
+a written constitution. A mistake thatís come
+back to haunt the country. Ben Gurion did
+not see that coming. He thought that by firmly
+establishing secular Zionism, by almost sanctifying the state
+- creating a sort of civil religion - we might find a
+good substitute. And there will be some ultraorthodox,
+religious and national-religious, but it will really be
+on the outskirts of that. Secular Israel - most
+prominent in Tel Aviv - feels increasingly constrained
+by ultra-religious communities. They, in turn, have long
+found the permissive lifestyle of the beachside
+city objectionable. I wish the state of Israel would be
+governed by more women and gay men. Because neither we nor women
+are usually interested in war. On its 75th anniversary, I wish
+the state of Israel more tolerance and willingness to accept
+the opinions of others. Roy and Ohad have
+been together for 14 years. The couple run a bridal
+fashion business in Florentin, one of the hippest
+districts of Tel Aviv. Ohad got the idea 12 years
+ago when he started working as a personal
+shopper for brides - acting as their right-hand
+man looking after the dress, make-up, jewelry
+and hair styling. Now, wedding dresses are the main
+focus, but not just any old designs. Weíve taught brides
+to become smart brides. Our studio has the most expensive
+dresses made by Israeli designers. We sell them
+at half price. Instead of the dresses being worn
+once and then ending up in the trash, they get worn
+a second time. Their second line
+of business is Oro: A counselling firm
+for shared parenting. Roy and Ohad bring together men
+and women who want to have a child without being in a
+relationship with one another. After artificial
+insemination, mother and father take turns
+raising their biological child. Marriage is a model
+thatís losing relevance. Nowadays we realize that
+getting married and having children donít necessarily
+have to be connected. With their children,
+RenÈ and Ray, the couple also actively practice
+the shared parenting model. Two fathers and one mother
+taking turns to take care of the kids. Everyoneís happy. There are two
+biological fathers. Gal is the biological
+mother of both of them. Ohad is the biological father of
+Rene and Iím Rayís biological father. Thatís not a problem in their
+immediate social environment. Iíll ask the kids. Does anyone at
+kindergarten think itís strange that you
+have a father and a father? No... Yet violent hostility is
+increasing around the country. Homophobic views have
+become socially acceptable. In our liberal Tel Aviv bubble
+we donít feel it as much. Though last week homosexuals
+got their windows smashed, and gay pride
+flags were burned. We have to fight so we donít
+lose what we have achieved. There are religious groups
+who want to roll things back. They want to
+repeal liberal laws. They want to introduce
+therapy to convert gay people. And they donít want to fund
+medication for transsexuals. Or anything else that
+we have achieved. Above all, Roy and Ohad are
+proud of how far theyíve come - both personally
+and in Israeli society. Weíre a central
+pillar of Israeli society. We have put down roots
+and serve in the military too. Weíre an important
+part of the Israeli mix. Kibbutz communities are
+also part of the Israeli mix. This is Yiron in the
+northern tip of Israel. The hills on the horizon
+are part of Lebanon. Founded in 1949, Yiron is almost
+as old as the state of Israel itself - and one of the few kibbutzes that
+have made the move into the modern era. I wish Israel to grow and succeed
+and to bring good things to the people who live here regardless
+of their religion or faith. Simcha Shor runs a start-up
+in the middle of the Kibbutz. He wants to revolutionize
+farming worldwide. His drones can identify
+pests or errors in irrigation or the use
+of fertilizers - and can even be used for
+spot-spraying with pesticides. Agriculture is under a
+tremendous revolution of robotics and artificial
+intelligence. Today, people walk in the
+fields and they see some plants - perhaps
+a hundred. A drone can cover a
+million plants in 20 minutes, so we can look at
+agriculture like never before. The start-up is housed in
+the communityís old cowshed. The kibbutz is also the
+companyís majority owner. We are sitting in the dairy farm.
+The cows were here since 1949. You can see them here feeding the cows.
+This is the building where we are in - it was for the cows and
+the milking of the cows. We are now the cows - itís
+from dairy farm to tech farm. From a cowshed
+in rural Israel, the company advises
+farmers across the world. Perhaps this is where we find the
+secret behind this start-up nation. Israelís high-tech sector accounts
+for some 50% of the countryís exports. Israel is a small country. You
+donít have so much water or land. We are not going to
+grow food for the world, but as we started drip
+irrigation 50 years ago, now is the time to harness the
+other power of Israel: the high-tech. The kibbutz still grows fruit and
+vegetables using conventional methods. And apart from the high-tech enterprise,
+everyone gets the same pay here - from the tractor driver to
+the long-serving vintners. But change
+is in the air. Now, Yiron is set to join the
+vast majority of other kibbutzes and be privatized. And thereís
+nothing that can be done about it, according to wine
+grower Avner Anava. The socialist ideals
+of this and other kibbutzes he says, have
+had their day. The idea of the kibbutz
+is a community of people who cooperate with one
+another, with shared tasks. So the economic factor
+doesnít play such a big role. The moment that personal greed
+comes along - it gets problematic. ...But it was the first
+kibbutz settlements that prepared the
+ground for the foundation of the modern
+state of Israel. Ada  Feinberg helped set up Yiron
+in 1949 and still lives there today. Later, she became a kindergarten
+teacher and had a family. After the horrors of the Holocaust,
+hopes and aspirations were high. Weíve always thought that we werenít
+just founding a kibbutz, but a state. Because the people of Israel needed
+a state just like every normal people. We hoped for a socialist
+state: a good and noble state. But as it celebrates
+75th anniversary, this is a state that risks losing
+its good, democratic core. Israeli society
+is fragmenting. Hundreds of thousands have
+been holding weekly protests against government plans to
+dismantle the separation of powers. People from all walks of society:
+judges, civil servants, businesspeople - retirees,
+students, soldiers - never has such a broad base rallied
+behind a common goal like this. Many had never attended
+a demonstration before. But this is about nothing
+less than democracy itself. The goal is to live in a country
+that blends western democracy and liberalism with Jewish
+values, blends them together. It works great until somebody
+tries to break it apart. Israel Shafir could have just
+withdrawn to his retirement residence in Beit Uziel. And do what the
+70-year-old pensioner likes doing most: Tending to his olive trees
+with his grandson Matan. Shafir - or ìRelikî, as
+heís popularly known - is a highly decorated former
+fighter pilot and commanding officer. He spent decades serving a
+country that is now falling apart. The ideals and the social
+cohesion may break into ideas that are not connected together - like
+a liberal democracy with a theocracy, orthodox theocracy or even
+development of messianic Judaism. Relik took part in many
+air battles for Israel - now he once more feels a sense
+of duty to fight for his country. As a fighter pilot,
+your DNA is to take off and stop any threat coming from
+the outside world into the country. And now Iím seventy years old and
+thereís another threat to this country - and this time it
+comes from another... from maybe within, but
+the DNA stays the same. Itís this conviction that has now
+led Relik and his former comrades to join the protests on the
+streets of Jerusalem or Tel Aviv at least
+once a week. We are here today to
+support the Supreme Court and the judicial system
+against the destruction that is planned
+by the coalition, which plans to change the
+structure of how Israel is run. The government is indeed
+intending to fundamentally alter the judicial-political
+balance of power. Under the plans, a majority of Knesset
+members would be able to override any Supreme
+Court rulings. The government
+with its ultra-nationalist and ultra-religious factions also
+wants to control judicial appointments. The impact
+would be dramatic. The agenda
+of this coalition, especially the
+leaders of this coalition, is to eradicate this democracy. There
+will be no democracy if they succeed. In Israel, as you know,
+the only check and balance that you have is the
+Supreme Court, nothing else. Eradicate that and
+there is no democracy. Clearly, the establishment of the state
+in 1948 had a further shortcoming. David Ben Gurion and
+Israelís other founders omitted certain checks and
+balances in the separation of powers: A written constitution, a second
+chamber, a constitutional court. How could that happen
+despite the appalling example of the Nazis and
+their rise to power? After abolishing democracy
+by democratic means. Israeli Zionists felt that somehow
+they were immune to that. ëWe have learned that lesson
+so well from the outside.í Being the victims often, how
+on earth is that even thinkable that we would do the same.
+But, of course, that is a fantasy. We are all humans
+and we are all flawed. And yet Israelís democracy has
+shown strength in this time of crisis. The protesters have
+won an interim victory. The government has suspended
+part of the planned judicial reform. But in another
+section, it still plans to curb the powers
+of the Supreme Court and limit the separation of
+powers. The protests continue. People know that the situation
+remains a precarious one. But events have also given rise
+to a sense of shared responsibility. Perhaps that will help to solve
+Israelís other problems, too. </t>
+  </si>
+  <si>
+    <t>{'Alex Sidletskiy': 'There is a good rea why there is the country and state Israel. It’s very important to remember that there is Judaism and Judah always was persecuted humiliated and tortured and killed and hated among all tribes. That’s true.', 'adrewfis': 'Colossians 2:6-23 \n\n6 So then, just as you received Christ Jesus as Lord, continue to live your lives in him, 7 rooted and built up in him, strengthened in the faith as you were taught, and overflowing with thankfulness.\r\n\r\n8 See to it that no one takes you captive through hollow and deceptive philosophy, which depends on human tradition and the elemental spiritual forces of this world rather than on Christ.\r\n\r\n9 For in Christ all the fullness of the Deity lives in bodily form, 10 and in Christ you have been brought to fullness. He is the head over every power and authority. 11 In him you were also circumcised with a circumcision not performed by human hands. Your whole self ruled by the flesh was put off when you were circumcised by[c] Christ, 12 having been buried with him in baptism, in which you were also raised with him through your faith in the working of God, who raised him from the dead.\r\n\r\n13 When you were dead in your sins and in the uncircumcision of your flesh, God made you alive with Christ. He forgave us all our sins, 14 having canceled the charge of our legal indebtedness, which stood against us and condemned us; he has taken it away, nailing it to the cross. 15 And having disarmed the powers and authorities, he made a public spectacle of them, triumphing over them by the cross.\r\n\r\nFreedom From Human Rules\r\n16 Therefore do not let anyone judge you by what you eat or drink, or with regard to a religious festival, a New Moon celebration or a Sabbath day. 17 These are a shadow of the things that were to come; the reality, however, is found in Christ. 18 Do not let anyone who delights in false humility and the worship of angels disqualify you. Such a person also goes into great detail about what they have seen; they are puffed up with idle notions by their unspiritual mind. 19 They have lost connection with the head, from whom the whole body, supported and held together by its ligaments and sinews, grows as God causes it to grow.\r\n\r\n20 Since you died with Christ to the elemental spiritual forces of this world, why, as though you still belonged to the world, do you submit to its rules: 21 “Do not handle! Do not taste! Do not touch!”? 22 These rules, which have to do with things that are all destined to perish with use, are based on merely human commands and teachings. 23 Such regulations indeed have an appearance of wisdom, with their self-imposed worship, their false humility and their harsh treatment of the body, but they lack any value in restraining sensual indulgence.', 'John Carty': 'FREE PALESTINE 🇮🇱 IS A FACIST STATE', 'Cesare Pelaschier': 'most scholars agree that moses did not exist .', 'Khalid AlAli': 'All religion is poison. Israel will cancel itself out, as it becomes more intolerant towards its Jewish, Muslim, Christian, Druze, Atheist, and Agnostic citizens, along with neighboring states, through the actions of its ultra-orthodox population, who are projected to make 45% of Israel’s population by 2050. Moreover, those religious nut jobs don’t serve in the military, pay little to no taxes, don’t work, and are a burden on the state and it’s taxpayers base, given that most of them live off social benefits. People like them, given their Nazi-like worldview, of being the master’s race…aka God’s chosen people, and everyone else a mere gentile, will also make people throughout the world, despise Jews ever more with the passage of time, thanks to their racist violent attacks on Priests, Nuns, Churches, Mosques, and other innocent people that don’t fit their worldview. If anything, the ultra-orthodox Jews will bring down Israel internally, through their own sheer stupidity, followed by a Holocaust-like payback from the world, and this time around, with the wide access of information that people have. I doubt anyone would stop it, or even feel sorry for them.', 'Mizzan Media': 'The Wrath of Allah Shall destroy them InShaAllah', "Geronimo's Spirit": 'Rachel Corrie an american was murdered by the IDF! I Vote to stop sending my tax dollars to murderers! Free Palestine!', 'ONLY ARMBITS &amp; SHOULDERS': 'Since we are so close to normalize relations between saudi arabia and great israel❤❤❤❤❤❤❤❤ all the best with love from jeddah to israel❤❤❤❤❤❤❤❤❤', 'Skumstwo': 'Whatever Jewish line these people had has long been diluted. These people are nothing but Polish, Hungarian, Russian, German, and Ukrainian (by religion only) Jews. There are maybe not even 0001% of actual Hebrews who can trace their lineage back that far still living in Israel.', 'michael vainer': 'Problem    number     one     is    lack    of      constitution   !', 'Andreas Greek': 'How can a human heart stand in front of two babies, a Palestinian and an Israeli one, and feel love only for one of those babies??\nExplain to me how this is possible.', 'Np': 'Its all written in the bible about israel n palestine if u have doubt read old tt (bible)'}</t>
+  </si>
+  <si>
+    <t>2023-07-25T16:00:41Z</t>
+  </si>
+  <si>
+    <t>s3LZ1xXYTlI</t>
+  </si>
+  <si>
+    <t>Journey Through Israel - Travel Documentary</t>
+  </si>
+  <si>
+    <t>Israel means a lot of different things to many people, and is one of the most diverse and dynamic countries in the world.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Israel means a lot of different things to many people, and is one of the most dynamic and diverse countries in the world. While often associated with conflict and political unrest, it's also a beautiful and fascinating place to travel to. With stunning natural landscapes, vibrant urban centers, ancient historic sites, and welcoming people. On this journey, I'm traveling through the Holy Land, an area important to the three main monotheistic religions, and today known as Israel and Palestine. In this second episode I'm exploring Israel, a young country located in a region that has been at the
+crossroads of cultures and religions for millennia. From the vibrant streets and beaches of modern Tel Aviv, to the atmospheric alleys and religious landmarks of Jerusalem. From surreal desert landscapes in the Negev,
+to the salty waters of the Dead Sea. From the historic ruins of Caesarea,
+to the beautiful gardens of Haifa. Along the way, I meet some of the people that call this land home,
+and sample some of the local food. This is my first long trip after the pandemic started, and I'm grateful for the chance to travel again. It's also my second visit to the region, and therefore I use both new and older footage for this video. We begin this journey in Tel Aviv, a modern, lively city known for its liberal
+and cosmopolitan atmosphere. It's Israel's second largest city, and also regarded as
+an economic powerhouse and creative center, attracting people from around the country, and the world.  Many travelers start their trip to Tel Aviv on one of its 
+fabulous Mediterranean beaches. The city has over 14 kilometers of beautiful coastline to explore, offering a variety of activities, for young and old.  As you wander beyond the shore, you quickly enter
+the hustle and bustle of downtown Tel Aviv. From airconditioned shopping malls and wide boulevards,
+to colorful outdoor art markets.  From trendy cafes and restaurants to corner kiosks, offering much needed refreshments to the thirsty traveler. The best ways to get around are on foot, or as many
+locals do, on two wheels.  One of the best ways to get around Tel Aviv is on bicycle,
+or moped, or even a scooter. There's plenty of bicycle lanes and the city is very bike friendly. One of my personal favorite places, both for food 
+and atmosphere, is the Carmel market, where everything under the Middle Eastern Sun is sold.  Alright guys, this is the Carmel market, one of Tel Aviv's busiest
+markets as you can see, especially today on a Friday. It's buzzing with activity and gives a good idea of the energetic
+lifestyle many people in Tel Aviv enjoy. While Tel Aviv is a young city and lacks the history
+of other places in the region, the Jaffa neighborhood is a notable exception. This ancient town has seen conquest and strife for centuries. But is known today for its beautiful old city, a strong 
+Arab influence, and bustling flea markets. There are many ways to travel to and from Tel Aviv, but perhaps the most interesting one is by bus. I'm now walking through Tel Aviv's central bus station,
+which is soon to be demolished actually. It's a mssive station, I believe the second largest in the world. It has seven floors, (and) it has a theater that is 
+no longer functioning. It started as a very ambitious project,
+but it never really took off. The station feels quite neglected at the moment, but also 
+feels like a living museum, where graffiti artists can do whatever they want. Each floor has its own story and character,
+and you can walk around here for hours. Just like you could spend days, or weeks,
+exploring the streets of Tel Aviv. For me, however, it was time to travel to the North of Israel. Not actually by bus, but through the nearby train station. I'm now walking in Caesarea, one of Israel's 
+best preserved Roman era ruins. It's absolutely massive and there's all kinds of things to see, including bathing houses, palaces, courtyards, an old hippodrome and circus as well. It's impressive. Probably the most impressive, however, is this Roman theater,
+which can hold up to 4,000 people. And it's still being used until today.  Caesarea's history dates back over two millennia, when Herod the Great ordered the construction of 
+one of the impressive ports at the time. After his death, the city became the capital of the 
+Roman province of Judea, eventually to be devastated by the Mamluk sultan Beybars. It's only recently that Caesarea has started to re-emerge. Archaeologists have now uncovered a large part of the ancient port city, providing a fascinating insight into historic times. Today, it is a popular tourist sight, and also boasts
+some great cafes and restaurants. Haifa, built on the slopes of Mount Carmel,
+is one of Israel's most beautiful cities. Its top sight is the world famous Baha'i gardens,
+built across a total of 19 steep terraces. Decorated with beautiful flower beds, fountains, statues, and lawns,
+it is truly an impressive sight. It's also a religious place, important to people 
+following the Baha'i faith. There's a lot more to do in Haifa, but I only spend a few hours here, before traveling on to other destinations. This time by car. As I continue my way North, I arrive in Akko, a stunning
+fortified city on the Mediterranean coast. Akko's history goes back many centuries. Alexander the Great was here, the Romans,
+the Egyptians, the Arabs of course as well. Now it's a small Israeli town in the North of the country. Absolutely beautiful narrow alleyways, very atmospheric. Many of the alleys and streets of Akko are pedestrian only,
+and are a joy to explore. From intriguing art galleries to the breezy city wall promenade. From the small but attractive bazaar, to beautiful
+historic churches and mosques. Many of the mosques are still used today, as Akko is 
+home to a sizeable Muslim population. For some of Akko's most captivating sights,
+you have to go inside, or even underground. This intricate system of tunnels, built by the Crusader Templars,
+leads all the way to Akko's port. And perhaps even more impressive is the Knights Hall, where a medieval world is not that hard to envision. We travel onwards to the Golan Heights,  located on a volcanic plateau in the Northeast of Israel. It's a popular region for holidaymakers, offering
+beautiful nature reserves and charming villages. The Golan are also very suitable for all kinds of outdoor activities. A lot of people go cycling here. I'm walking now on one of the many hiking trails, in a national park, up to a waterfall, so let's have a look. A big part of this hike is on this wooden boardwalk,
+next to this beautiful stream, shaded by trees. Really beautiful. While large parts of Israel experience a warm and dry climate, this region actually receives considerable amounts of rainfall, resulting in very different landscapes. After a decent hike it's time for a well deserved lunch,
+in a small Druze village on the foot of Mount Hermon. The Druze are an ethnic and religious minority, and have been 
+living in this area for almost a thousand years. With a full stomach, it's time to travel to the highest
+point in Israel, Mount Hermon. Located at just over 2,200 meters, the way up here
+leads through some beautiful mountain landscape. So the last part is by cable car, to get up 
+to the Israeli part of the mountain. It's quite high and quite windy, but also very beautiful. Almost there. Mount Hermon is a popular ski resort in Winter,
+when there is enough snowfall. It's also a military, bordering Syria and Lebanon,
+and large parts are off limits to visitors. The Golan Heights were captured from Syria in 1967, after a fierce battle with neighboring states. It was fought over again during the Yom Kippur war, six years later. The vast majority of the population fled, and many of the
+towns and buildings were damaged and abandoned. These days, a ceasefire is supervised by the United Nations, reminding visitors of the tense security situation in the region. After briefly visiting the towns of Tsfat and Tiberias,
+two holy cities in Judaism, I arrive in Nazareth, one of Christianity's
+most important places. It's also Israel's largest Arab city, and regarded 
+as a prime cultural and culinary destination. Good morning from a chilly but sunny Nazareth,
+in the North of Israel. This is one of Christianity's holiest sites of course. I'm walking on the grounds of the Basilica of the Annunciation. Very impressive, probably one of the most impressive 
+churches or basilica I've ever seen. Many Christians believe the Basilica stands 
+on the site of Mary's home, and is the place where Angel Gabriel announced to her
+that she was expecting the Son of God. You can spend hours soaking up the spiritual atmosphere,
+and admiring the unique building. The Basilica is located in the old city of Nazarath, an intriguing place to get lost in, with narrow streets
+and crumbling Ottoman era houses. It's also a good place for breakfast or lunch,
+after exploring some of the holy sites. I welcome everyone from Europe, from all the world,
+to come to Nazareth. The good people, the good food. There are many other places worth your time in Nazareth,
+including the Greek Orthodox Church of the Annunciation, Mary's Well, the White Mosque, and my personal favorite, Nazareth Village. This re-creation of a first century village gives visitors the chance
+to imagine life in the time of Jesus. Few places evoke so much imagination as Jerusalem, one of the world's oldest cities, and holy 
+to Jews, Muslims, and Christians. Walking into the Old City can be a magical experience, and to many visitors feels like entering a different world, and era. While Jerusalem is a spiritual and historic center,
+it's also a dynamic city, where traditional lifestyles blend with cosmopolitian ideas. To many tourists and pilgrims, the Old City is the most
+captivating and interesting part of Jerusalem. It's divided into four quarters, the Christian, 
+Armenian, Muslim, and Jewish. It's in or near these neighborhoods that you find some of the
+holiest sites for the three main monotheistic religions. The Western Wall is one of Israel's most famous sites, and the
+place where Jews from around the world come to pray. It functions as a massive open air synagogue,
+attracting worshipers day and night. It can feel both intimate and overwhelming, especially on Jewish holidays, when crowds of people
+converge here to attend collective prayers. While the Western Wall is truly impressive,
+its holiness is based on what lies behind it. This area, referred to as the Temple Mount, was the 
+location of the Second Temple, which was destroyed in the year 70 CE. Together with the First Jewish Temple, this is regarded
+the most important spiritual place in Judaism. Due to entry restrictions, Jews are not allowed to visit here, and have chosen to worship at the former Temple's 
+outer Western Wall. To Muslims, the Temple Mount is known as
+Al-Haram ash-Sharif, and is home to two of Islam's most sacred buildings,
+the Al-Aqsa mosque, and the iconic Dome of the Rock. It's regarded as the thrid holiest site after Mecca and Medina, and holds a special place in the hearts and minds of many Muslims. As a traveler, you have the chance to visit these grounds
+in certain hours of the day. Not far from here is the Via Dolorosa, the route that Jesus is believed to have taken
+on His way to crucifixion. You can walk in His footsteps, all the way to the
+Church of the Holy Sepulchre, one of the most important churches in Christianity. This is the place of crucifixion, where Christians believe
+Jesus died, and resurrected. Jerusalem is also a contested place, and forms a crucial part
+in the conflict between Israel and Palestine. While Israel controls the city and has made it its capital,
+many Palestinians also claim parts of these lands. You will therefore see a lot of security around the city. You can spend days, if not weeks, exploring the Old City, but Jerusalem has many other characters as well. Walking the charming Mamilla shopping street, for instance,
+shows its commercial face, while the moving Yad Vashem teaches people
+about the Holocaust. Other places to visit include Ein Karem village, Jaffa street,
+and the bustling Mahane Yehuda market, which gives an insight into the city's love for food. So this is the very center of the Mahane Yehuda market,
+one of the most lively markets in Israel, if not in the world. They basically sell everything here. Fresh foods, but (there are) also a lot of restaurants and little bars. It's lively to say the least. Because of its importance and its beauty, 
+I will make a separate travel video about Jerusalem. We continue our tour in Negev, a vast region in the South of Israel, comprising of arid mountains and surreal desert landscapes. Known for its ancient trading routes, stretching
+from historic Arabia to the Mediterranean, today's Negev is best explored by car. I'm now walking through the Ein Avdat national park, one of the
+few places in the Negev desert that has a lot of running water. Quite a scarcity here of course. Beautiful canyon behind me, so let's explore some more. Hiking further into the park you pass streams, pools, and
+eventually reach a small, but beautiful waterfall. I'm now walking on the edge of one of the waterfalls. It's quite narrow, quite high as well, but a spectacular landscape. There are plenty of other things to see in this part of the Negev,
+but I continue my way towards Mitzpe Ramon. This town is built on the edge of a massive crater,
+called Makthesh Ramon, which is nicknamed as the Grand Canyon of Israel. A bizarre landscape of volcanic rocks and colorful sandstone,
+the crater was formed by erosion, around 220 million years ago. It's a popular place for outdoor activities, spotting wildlife, including the ibex, or just enjoying the immensity of the place. Driving South, I visit the welcoming kibbutz Neot Semadar,
+which feels like an oasis in the desert. The concept of the kibbutz started over a century ago,
+as a collective effort to grow crops in a harsh climate. And also from the wish to establish a Jewish homeland.  While agriculture formed the basis of the kibbutz, today
+many communities have diversified their activities. In Neot Semadar, residents have created an arts center,
+but also run a winery, and offer various workshops. Before arriving in Eilat, I visit two more nature reserves. The narrow, mysterious Red Canyon, near the border with Egypt, and the incredible Timna national park, filled with craggy 
+mountains and sandstone columns. Good morning from Eilat, I arrived here yesterday evening,
+after a long drive of course. I'm now going to snorkel. Eilat is located on the Red Sea, bordering with Egypt,
+and Jordan as well. Very curious, very curious. Let's see. The Red Sea is the world's northernmost tropical sea,
+and has a rich and diverse ecosystem, with beautiful coral reefs and over 1,200 species of fish.  Even though it's located on the edge of the sea,
+Eilat still has plenty of marine life to explore. Even for the clumsy, inexperienced snorkeler.  Very beautiful. Eilat is also a popular holiday destinations for many Israelis, offering affordable hotels, restaurants,
+theme parks, and tax free shopping malls. I'm walking on salt now. I'm going into the water.
+Not for a swim, but for a float. I'm now in the water as you can see. I'm floating, 
+it's quite remarkable I have to be honest. The Dead Sea is famous for its incredible high salt levels,  almost ten times higher than the ocean,
+the result of steady evaporation. Its main source of water is the Jordan river, and there is no outlet,
+effectively making it a lake.  Living creatures, except certain micro organisms, can't survive here, and people entering the water actually stay afloat. It's important to avoid getting water in your eyes, or swallow it, which is not only very painful, but can even be dangerous. At the same time, the Dead Sea water is said
+to have healing powers, due to its minerals, making it a popular destination for people who
+want to treat certain skin problems. The Dead Sea's coastline is shared by Israel, Palestine, and Jordan, and is currently situated 430 meters below sea level,
+making it the lowest point on Earth. It's a place of breathtaking natural beauty, with turquoise,
+cobalt blue waters, and stark mountain scenery. But the Dead Sea is also facing enormous challenges,
+as its water levels are receding at alarming speed. And it's mostly human activity that is at fault, with water extracted
+for industrial and agricultural purposes,  and climate change accelerating the evaporation process. Some of the consequences are visible in the former
+holiday town of Ein Gedi. Sinkholes have swallowed parts of the roads and buildings,
+turning this village into a ghost town. Despite attempts to stabilize the retreat, scientists fear that the
+Dead Sea's decline will continue for at least the next 100 years. It's a stark reminder of what can happen 
+when we treat Mother Nature the way we do. And that concludes my journey through Israel,
+a diverse and eye-opening travel destination. With captivating historic landmarks, important religious sites, spectacular natural landscapes, and welcoming people. I hope this video gave you some travel ideas, or at least provided some new insights into this
+complicated, but fascinating part of the world. Thanks for watching, and I hope to see you again next time. Travel safely. </t>
+  </si>
+  <si>
+    <t>{'Vikrant Rathore': '💟💟💟💟', 'Alex Nababan': 'Hi lucas i hate youre uniform', 'Abu Ahmed': 'Dear video maker. My duty forces me to kindly ask you to amend the title of this video from “journey to Israel” TO “journey to Palestine” which is the true historical name of this land, if you really care about the truth.\nArab Palestine existed deep in history before even people know anything so called Israel which was created after the fall of the Ottoman Empire after WW2.\nZionists occupied Palestine with the help of Britain and the west and created such savage apartheid state called Israel.\nIf you care!!!', 'Siegrid Thomas': 'Beautiful...thank you', 'Robert Bryant Lock': "Squatters' colony", 'F A': 'Stolen land , shame on you occupiers', 'IT pro UK': 'No such thing, Palestine only and always', 'Ismail': 'Free palestine', 'unknown': 'Wow palestine 🇵🇸 😍', 'Ludmila Čechmánková': '😊❤😊', 'sofiane houssou': 'vivre la palestine.', '@short edit': 'Free baitulmukaddas', 'luke molloy': 'It belongs to Palestine Israel is placed there anyone who thinks different beyond ignorant and dumb', 'Fay Brown': 'Greetings from Prince Marrio Suber navy veteran of Israel welcome all of Israel welcome welcome welcome Israel', 'Fouad Hussein': 'It was Palestine, its Palestine an it will be forever Palestine.... The Jewish occupatin structure will be just for short time.....each occpuation will have an end...', 'Elisabetta': 'Western Asian landscapes start with Gulf countries looking like arid terrains.\nWest Asia includes Armenia, Azerbaijan, Bahrain, Cyprus, Georgia, Iraq, Israel, Jordan, Kuwait, Lebanon, Oman, Palestine, Qatar, Saudi Arabia, Syria, Turkey, United Arab Emirates, and Yemen.', 'risti mantoeddy': 'SHALLOM ALLEIHIM AYO GKPS, MAJU TERUS MANTAP T Y M SALAM SEJAHTERA DALAM BERKAT SUKACITA TUHAN BESERTA KITA AMIN, DIATEITUPA❤', 'I have enemies': 'I want to go isreal jersuleam to meet god in church🙁', 'MrGaky': 'Amazing video, i will sure share it to people who would like to learn about Israel!', 'abdullah Shelby': 'Palestine'}</t>
+  </si>
+  <si>
+    <t>UCbmRS3i-yPQzsz2B5EM43hQ</t>
+  </si>
+  <si>
+    <t>Stef Hoffer</t>
+  </si>
+  <si>
+    <t>2022-05-12T09:15:02Z</t>
+  </si>
+  <si>
+    <t>rEoQESLOgw0</t>
+  </si>
+  <si>
+    <t>Best Things To Do in Israel 2024 4K</t>
+  </si>
+  <si>
+    <t>ISRAEL: Are you looking for the best things to do in Israel? We just created a list of 32 must do activities for you to do while visiting ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">foreign [Music] what's going on everybody this is Island Hopper 
+TV and today we're coming to you from Israel   we're going to show you the top 32 things to do 
+while visiting there will be time stamps below   first up we're at the Holy Sepulchre church here 
+in the old city of Jerusalem this is actually said   to be the place where Jesus was crucified 
+buried and then resurrected nowadays when   you go inside here you will come to the Cavalry 
+Chapel making this the site of the crucifixion   the church is actually controlled by several 
+Christian denominations including the Greek   Orthodox The Armenian Apostolic the Holy Sepulcher 
+is a popular pilgrimage site for many Christians   to arrive by the millions every single year while 
+I was visiting here the thing that impressed me   the most aside from being at one of the most holy 
+sites in Christianity was the artwork that was on   the walls this is truly some incredible mosaic 
+art and from the Holy Sepulcher let's go out and   walk around the streets of Old Jerusalem this is 
+definitely something you're going to want to do   because you're going to find shops that have 
+souvenirs but also walking these old ancient   streets really does leave an impression upon 
+you now these streets have another name it's   called Via Dolorosa and this is actually the 
+way that Jesus Took when he was carrying the   cross to Cavalry as you're walking along Via 
+Dolorosa there is 14 stations that symbolize   each occurring of events chronologically in the 
+process of Jesus crucifixion and in case you're   wondering what the translation of Via Dolorosa 
+is it has an Arabic name that translates to the   way of pain now here we are at the Western Wall 
+also known as The Wailing Wall or the kotel it's   an ancient Limestone Wall located here in the old 
+city of Old Jerusalem and it is considered one of   the holiest sites in Judaism revered as a place of 
+prayer for pilgrimage the Western Wall is believed   to be the last retaining wall of the second temple 
+which was destroyed by the Romans in 70 CE for   centuries Jews from all over the world have come 
+here to pray at the Western Wall and recite Psalms   while here you will notice that the women 
+prey on one side and the men on another   all right now we've made it to the Jewish 
+quarter we're going to walk around and see   what's life like inside here now there are four 
+quarters in the old city of Jerusalem the Jewish   quarter is actually the oldest the other ones 
+are going to include the Armenian quarter the   Christian quarter and and the Muslim quarter now 
+here in the Jewish quarter you're going to find   historic synagogues yeshivas which is Jewish 
+religious schools as well as other significant   Jewish sites the old city was restored in 
+1967 and right here we're actually at the   Jaffa gate this was an old Ottoman gate 16th 
+century now the Jaffa gate is actually one of   eight Gates around the old city walls 
+those other ones include the Damascus   gate the Golden Gate herod's gate Lionsgate 
+silwon gate as well as Zion gate and dungate okay and now we've made it to Damascus gate which 
+is the Muslim quarter now the important thing   to know about each one of these is they point in 
+different directions for example the Damascus gate   goes towards Syria so we were attempting to go to 
+the Dome of the Rock but we were told Muslims only   so we won't be able to go over there but you guys 
+know what the golden dome looks like so we will   leave it at that since we weren't allowed to go 
+in and here we are at the birthplace of the Virgin   Mary now when you go inside the birthplace of the 
+Virgin Mary it's basically down stairs into the   underground area and then you will finally arrive 
+at the bottom where you will see the actual area   where they say the Virgin Mary was born for those 
+who do not know this is Mary the mother of Jesus   now the Mount of Olives is significant for Jews 
+as they have the cemetery nearby here a burial   site but also this is where Judas betrayed Jesus 
+as well as where Jesus ascended to Heaven from   from here you can also get great pictures of the 
+Dome of the Rock and the rest of Old Jerusalem   now what we are going to do is head over into 
+Palestine you can see there are many walls here   this is actually in the direction of Bethlehem 
+Bethlehem is actually the birthplace of Jesus and   this is where the church of nativity is where the 
+pilgrimage route to Bethlehem actually is once you   go inside the Church you will be led through the 
+church down to the cave area where the Nativity   and the manger area was nowadays you go there and 
+you will see the actual cave where Jesus was said   to have been born the thing I want to tell you 
+about Crossing into Palestine is it is a high   security Zone going from Jerusalem to Bethlehem 
+so make sure you are with a trusted guide all   right we're back in Jerusalem from Bethlehem and 
+we're here at the city of David now the city of   David is actually an archaeological site located 
+just outside the old city walls here in Jerusalem   and it is considered the birthplace of the city 
+of Jerusalem the city was actually established 3   000 Years Ago by King David for the most part 
+it sits on the sides of these Cliffs so you're   constantly working your way down as you go deeper 
+into the aquifers this is actually called the   gihan Spring which was the primary source of water 
+for the ancient city this is why they built the   city right here and now there's an underground 
+water tunnel that allowed access to the spring   so you just go down there and you'll see there is 
+still flowing water and as we continue to show you   around Israel in particular Jerusalem right now 
+I want to remind you guys that we've made videos   about Tel Aviv things to know about Israel as 
+well as a full Jerusalem travel guide I will   put those links below so you guys can watch those 
+after the video but let's keep this tour moving   and here on Mount Zion you can find the room 
+of the last supper and King David's tomb   Mount Zion is on the outside of the old city 
+walls but it is important holy sight here in   Jerusalem because it's believed to be where 
+the first and the second temples once stood in   Christian tradition Mount Zion is associated with 
+the last supper and the Church of the dormition   a Catholic Church which is located here this 
+is still a very active holy site for Jews as   you will see them studying the Torah and other 
+scriptures right here as you arrive you will   see King David's tomb is right here in this area 
+in this little building not much to see here but   it is a significant sight because King David was a 
+very important figure in the Holy Bible next up we   take the bus from Jerusalem to Tel Aviv it takes 
+about an hour and a half to get there depending   on traffic sometimes faster sometimes slower but 
+once you're in Tel Aviv you will see you're in a   very modern city with lots of high-rises efficient 
+modern transportation and beautiful beaches the   population of Tel Aviv is around 455 000 people 
+but if you include the entire metropolitan area   it's well over 4 million so this is a very large 
+city right here on the Mediterranean Coast Tel   Aviv is actually considered the country's second 
+largest city just after Jerusalem founded in 1909   as a suburb of the ancient city Port of Jaffa 
+which we will be showing you a little bit later   here now Tel Aviv does include the White City 
+which is a UNESCO world heritage site which   has over 4 000 buildings in the international 
+style and the Tel Aviv Museum of Art which is   something you would want to see and do here along 
+with head down to some of the beaches which we   will be showing you here most of the entire 
+Coastline of Tel Aviv is soft white sand it's   more of a golden sand I should say but some of 
+the popular beaches are going to be something like   Gordon Beach which is located right in the Heart 
+of the City this is probably the most popular one   then there's freshman Beach which is known for its 
+Lively trendy atmosphere and then there's banana   Beach which is a little bit more quiet Hilton 
+beach is a popular spot for water sports people   are trying to get out there on the water and do 
+some surfing maybe or some windsurfing because of   strong winds also a dog friendly Beach and then 
+there's Alma Beach which is actually located at   the southern end of the city Tel Aviv does have a 
+very long Boardwalk that you can walk but why walk   when you can take a bird scooter or get a bike 
+they even have electrical bikes and now here we   are at the ancient Port of Jaffa which we talked 
+about previously from the Jaffa gate because that   pointed towards the Old Port here of Jaffa it's 
+known for its Jaffa Clock Tower the Saint Peter's   Church the flea market which is a popular place to 
+go around and do some shopping you might even find   some antiques here they also have delicious Middle 
+Eastern cuisine many different art galleries and   Studios so for the those of you who want to learn 
+about the history of jewelry and other Arts here   in Jaffa definitely check those out of all the 
+places that I went in Tel Aviv I would say that   Jaffa was the one that really got my attention 
+the most in terms of historical value for Tel   Aviv and just the overall architecture and feel 
+as you can see walking around here in the old   city of java Port they've got a lot of rock work 
+so really a bustling Port many many moons ago but   now it's a lot more relaxed here we are looking at 
+some yemenite art so these are the yemeni people   they do an interesting type of art this is the 
+benzion David yamini art center but you'll notice   because there's many tribes of Israel when 
+they all came back to Israel they came from   different places like Libya or Yemen or places 
+in Europe so they have these different areas   of art that the tribes of Israel brought with 
+them back home to Israel and that's what makes   exploring the different art areas of Tel Aviv 
+so interesting but just look at this incredible   jewelry and the unique style now here we're going 
+to talk about riding bikes because Tel Aviv has   for the most part flat topography it's really a 
+great place to ride these bikes especially along   the boardwalk like we said previously now there 
+are some apps that I do recommend you actually   downloading before you get here but they have 
+the Lime app they also have Bird app and that   makes it easy to rent the bike or in this case 
+ride a scooter you can see this is a lime scooter   so you just use the app however long you use it 
+and then you put it back and you're done and it   charges you anywhere between a few dollars or 
+maybe even 10 depending on how long you do it   what most people do is they just run it for 
+a little bit and then they put it back they   don't run the timer and then when they need a new 
+one they just simply get a new one when they're   ready to leave now let's actually talk about 
+shopping here in Israel so you have many different   markets you have the mahani Yehuda Market located 
+in Jerusalem which is a popular Marketplace then   you have the Carmel Market located in Tel Aviv 
+it's one of the largest and busiest markets and   you have the Jaffa flea market which we talked 
+about earlier you also have the Tel Aviv Port   and then you have the Israeli Center which is 
+a modern Shopping Mall located in the heart of   Tel Aviv so a lot of different shopping now 
+when it comes to picking out souvenirs and   sending them home to your family you do want to 
+make sure that it is handcrafted here in Israel   and not something that's imported from places 
+like say China which wouldn't make it authentic   Israeli piece of art or Relic or figurine 
+whatever it is that you're sending home yeah so you can do some shopping in Jerusalem 
+and that stuff is not originally handmade here   in Israel but if you come out here to 
+Bethlehem and you do some shopping here   you get authentic olive wood made in 
+Israel right here in Palestine [Music] now we're going to head over to e-lot this is a 
+resort City located in the southernmost part of   Israel along the shores of the Red Sea so it's 
+not along the Mediterranean now they have the   Coral Beach Nature Reserve which is actually a 
+protected Marine reserve located south of the   lot then you have the dolphin reach which is a 
+unique attraction where you can actually swim   with dolphins in their natural habitat you have 
+the underwater Observatory Marine Park and you   have a lot of malls and shopping here but like I 
+said it is a resort city right here on the border   with Jordan we actually crossed the border here at 
+the yitzak rabine border terminal from Jordan into   Eilat it was a bit of a high security border 
+crossing so keep that in mind if you do plan   to do something like that but while here you can 
+actually swim in the Red Sea the Red Sea is known   for its coral reefs they say it's some of the best 
+diving you'll find anywhere in the world mostly   because as it's got no algae or any sort of marine 
+life just mostly coral and coral grows because of   clear water and sunlight but if going underwater 
+is not quite your thing you can also do watercraft   so renting a lot of different watercraft here out 
+of elot also you can do that in the Mediterranean   but you can see they've got everything from these 
+dolphin charter boats private boats they've also   got fishing boats banana boats lots of fun now 
+let's talk about Israeli food so what can you   expect here well lots of different breads and then 
+you're going to have hummus which is a popular   Middle Eastern dip made from chickpeas lots of 
+different dips here I noticed like tahini other   types of jams as you can see just a wide variety 
+right here and then for breakfast expect some   eggs and some Variety Meat and also more bread 
+bread bread they love their bread here right and then they have Shawarma which is this very 
+juicy barbecue meat that's very common here   as well as Falafel which is chickpea balled up 
+and fried and one thing I will say about the food   out here if your mouth is not already salivating 
+and your taste buds are not saying give me give   me I'd be surprised because the food out here 
+is quite delicious and you can see they do have   the Israeli salad which is going to be tomatoes 
+and lemon with some olive oil and cucumber they   also have quite a bit of international cuisine and 
+fruit juices fruit juice is a popular thing here   and of course because of its location on the 
+Mediterranean and the Red Sea there's going to   be plenty of seafood options here but if meat's 
+not your thing they do have Alternatives such as   eggplant boiled eggs you can definitely get 
+some sub Beach recas pastries filled with   cheese spinach potatoes or sometimes even meat my 
+favorite drinks are going to include the lime and   sell Pellegrino sparkling mineral water with 
+some mint and of course plenty of cafes which   include coffee now let's talk about saving money 
+on accommodation pod hotels so when you come to   Israel first thing you'll realize Tel Aviv in 
+particular is one of the most expensive cities   in the world but staying at a pod hotel or a 
+hostel or one of these cheaper accommodation   can save you a lot of money per night this 
+here is a look at a pod hotel right there   on the beach in Tel Aviv you can easily just walk 
+across the street rent one of those bird Scooters   or a bike and then voila or going up and down 
+the beach scene here in Tel Aviv quite easily believe it or not they do get some nice waves out 
+here in Israel so you can do surfing you will see   many people out there on the water doing lots of 
+Surfing because the waves are just so friendly   you're not going to get the big swells but you 
+get some really nice waves that can make it fun   the best beach they say is south of casera at 
+arabat beach which is probably the best option   it's uncrowded and the waves breaking just in 
+front of the local power plant turbines you know   Israel may be a small country with a population 
+of around 8 million people but it really is filled   with a lot of activities for outdoor lifestyle 
+and the climate year round is very mild in the   summertime it can get quite sweltering and some 
+of the mountains in the winter do get a little   bit of snow but not too bad now we're going to 
+go Inland a bit to the Sea of Galilee also known   as Lake kinaret it is a freshwater lake it's 
+not actually a sea so people coming out here   thinking it's an ocean nope they have the Mount 
+of Beatitudes which is where Jesus is believed to   have given his Sermon on the Mount but here at Sea 
+of Galilee you're gonna have boat tours beaches   and other activities to do and here we are in the 
+north at Nazareth which is an important place for   Christians because Jesus of Nazareth is from 
+here you have Mary's as well you have the old   City Market the Basilica of the Annunciation 
+so coming up here to Nazareth might just be   worth it and while you're here you can also visit 
+the Sea of Galilee which is right down the road   Nazareth is a popular city because of 
+its unique blend of History culture   and religion but also because it 
+is up and coming as a modern city now here we are at the River Jordan now most of 
+it is in Jordan which is next door to Israel so   you would have to cross the border but visiting 
+the baptism site where Jesus was baptized by John   you do have a lot of historical relevance 
+to this site but it's also got some water   sports and rafting that you can do here 
+but mostly it is a historical relevant   site because of this being where the baptism 
+took place many people from around the world   like the pilgrimage here so that they 
+can also get baptized at this location   and from the River Jordan we're actually going 
+to head back into Israel this time we're going   to Haifa which is a beautiful city located in 
+the northern part right next to the slopes of   Mount Carmel they have the Baha'i Gardens which 
+is a UNESCO world heritage site they have the   Stella Marie's Monastery the Haifa Museum of 
+Art and so much more including haifa's German   Colony which is an interesting neighborhood to 
+explore but really the Haifa Port is becoming   one of Israel's main Port centers so Haifa 
+is of course becoming popular because of that   now let's talk about riding the bus more in 
+detail so we've taken buses across Israel from   elat to Jerusalem and then Jerusalem to Tel 
+Aviv you can also take a bus from Tel Aviv to   Haifa or any of these cities around and the bus is 
+Affordable comfortable it's got air conditioning   and you can put your luggage underneath this 
+is one of the best ways to get around Israel   and here we are at the Dead Sea which is 
+considered the lowest elevation on Earth   so when you come out here you're going to 
+be right there on the border with Jordan   all right guys time to go take a dip in the 
+Dead Sea let's do it the water is extremely   salty but because of that you do float 
+I did a mud bath while I was here which   is cool but don't go underwater because the 
+salt is so strong time to wash this mud off and the reason it is called the 
+Dead Sea is because all of that   salt makes it impossible for any sort 
+of life to exist in the actual water and of course because of the proximity of 
+Israel facing across the Mediterranean you   can watch sunsets from a variety of different 
+places people do come out here and do what I   consider to be sun worship because people flock 
+here to The Parks at the evening time to watch   the sun go down and who could blame them it 
+really is an amazing experience of course the   sun going down transitioning into night and then 
+opening up The Nightlife across Israel and Tel   Aviv and the nightclub most of the nightlife is 
+going to be in Tel Aviv with a plethora of bars   nightclubs restaurants the city of Rothschild 
+Boulevard lnb Street area but also Jerusalem   even though a bit calmer does have plenty of 
+options including a growing craft beer scene   and several bars and clubs Haifa has a nightlife 
+scene that's quite popular in the German Colony   area a lot I'm not going to sit here and say 
+that it has the most party atmosphere when   I was there but what I've read on line is it 
+is popular and then there's Tiberius another   popular place for people with nightlife so that's 
+going to conclude this episode of Island Hopper   TV showing you around Israel if you enjoyed this 
+one and want to watch more details watch things   to know about visiting Israel as well as our 
+Jerusalem and Tel Aviv videos I'll put links   right here at the end and a big thanks to all of 
+our subscribers and channel members who support us </t>
+  </si>
+  <si>
+    <t>{'Island Hopper TV': 'Everything you need to know about visiting Israel https://youtu.be/YoQ5hAEggDM', 'Umar.927': 'Free flastine', 'Alejandro Morales': 'Great video  and info ,thank you very much.\nQ: how much, how long and where did you stay?\nThanks.', 'Cullen Deppen': 'Dont go in the first place', 'Alan Chua': '“Via Dolorosa” is not Arabic but Spanish.', 'rshs5': 'Love you Palestinian, you are so gorgeous 🇵🇸❤', 'AKH1_AM1N': 'Palestine ❤❤', 'Marky Mark': 'If i can ever visit Israel i want to see everywhere my king jesus walked. All the bible history.', 'tohura akhtar momta': 'Free Palestine 🇵🇸', 'Pseudo Chi': "It's ridiculous to think anyone wants to visit that godforsaken (literally) piece of shit country.", 'Sinat Nhoung': 'Modern City was an awesome word to describe in the City of Jerusalem!'}</t>
+  </si>
+  <si>
+    <t>UCarSZcFQ6-0eqZrAG4pKoMA</t>
+  </si>
+  <si>
+    <t>Island Hopper TV</t>
+  </si>
+  <si>
+    <t>2023-05-10T19:00:11Z</t>
+  </si>
+  <si>
+    <t>3VmljddpGJ0</t>
+  </si>
+  <si>
+    <t>The Dark Side of Israel&amp;#39;s Economic Miracle</t>
+  </si>
+  <si>
+    <t>You've heard the story of the "Startup Nation". But well...it's a little more complicated than that. Purchase shares in great art works ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this is Israel from the outside a booming high-tech economy GDP per capita higher than Germany more startups than anywhere else outside of Silicon Valley and a country famous as the startup nation in seven decades of its existence Israel went from a war-torn cash-strapped small piece of desert into a global Center of tech innovation in an incredible story of forging an economic Miracle out of nothing but this story that Israel is so proud of is leaving out some pretty important facts because at a closer look Israel's economy suddenly doesn't look that great and the country is facing some pretty dire problems that are making its future look kinda Grim so what is the story of Israel's economic success what's being left out of it and why its days of Glory might be soon over this is the Dark Side of Israel's economic miracle it might sound surprising but Israel's economic Miracle is actually very very recent and for most of its Short History the country known today as an economic Powerhouse was everything but that immediately after Israel was officially established it was attacked by a league of Arab states and even though it survived after 10 months of War much of the country and the economy was destroyed and even though Israel won it was still surrounded by hostile States it needed to take in millions of incoming Jewish refugees and it had no natural resources that could help it succeed what followed was a deep economic crisis and Israel managed to survive mostly thanks to donations from the American Jewish Community West German reparations and later the U.S financial aid and while throughout the rest of the 20th century Israel's economy did grow it wasn't miraculous in any way and it was nowhere near the Grove experienced by Asian economies like South Korea or Japan pan that started at a similar point in fact throughout the 70s and the 80s Israel came close to a hyper inflation and barely avoided a complete economic collapse but then in the new century things started to turn around in the 2000s foreign Capital started flowing into Israel like crazy tech companies with global Ambitions started popping up one after another in Israel's Grove finally really took off so what happened well there are a few things that can explain that first in the early 1990s the USSR fell apart and the Soviet Jews who were now able to leave started moving to Israel its population grew by almost 20 percent and many of the new immigrants were highly educated meaning that Israel's economy suddenly received a stimulus in the form of hundreds of thousands of Soviet engineers and scientists exactly the kind of boost it needed second Israel was now able to spend way less money on defense and more in other areas in the 1970s Israel was spending more than 30 percent of its GDP on defense and Military twice as much as the Soviet Union and four times more than the U.S but as its security situation became more stabilized its military budget started to go down and the country was able to invest more in other areas important for economic growth like education research and infrastructure or launch a massive state-owned Venture Capital fund that helped to finance some of the very first Israeli startups and finally in the 90s Israel underwent a complete transformation of its economic model it might seem surprising but for decades Israel was basically a socialist country and the state was controlling the economy with interventions state-owned companies huge numbers of state employees and generous welfare benefits but after going to the edge of bankruptcy in the 1980s that all had to change Israel started privatizing State companies flashing into public sector removing government regulations and influence of unions and within a few years it completely transformed itself and became a liberal capitalist State fully integrated in the global economy and from the end of the Millennium onwards all these steps started to get results today Israel has the 13th highest GDP per capita in the world more startups per capita than anyone else and a reputation as an economic Superstar with a model that many other countries are trying to emulate but while these successes are extremely impressive the story of Israel's economy is a little more complicated and when you start to take it apart it looks a lot less pretty so let's take a look there's this interesting Paradox when it comes to Israel's economy because while the country has one of the most educated and hardworking populations in the world that produces an enormous amount of successful high-tech companies this doesn't really translate into an economy that would benefit this popular nation and weirdly enough in many ways Israel is actually behind many countries that look up to it to understand what I mean look at this Israel has the 13th highest nominal GDP per capita in the world but when we take a look at the GDP per capita at purchasing power parity basically GDP adjusted for the cost of living Israel is suddenly in a much less impressive 30th Place the reason is that Israel is literally the most expensive country in the world to live in and Tel Aviv where most of the tech companies are is the world's most expensive city and so while Israel has a decent GDP per capita when it comes to how much you can actually buy for how much you make it's not great and it's not just that it's so expensive but despite having an extremely hard-working and educated population in the largest tech sector relative to the economy in the world Israel has pretty low wages average wage in Israel is at a similar level to European countries like Italy or even Spain who are known to have pretty bad productivity and outdated economies Israelis who objectively work much much harder and their economy is based on technology should just make more but for some reason they do not but why is that well this is where the story of the Israeli economic Miracle kind of starts to fall apart the thing is that while Israel is known as the startup Nation this actually only applies to a very small part of the country even though the tech sector makes up a big part of the economy almost 20 percent of its GDP it only makes up about eight percent of the jobs and while the eight percent are generally paid pretty well the remaining 92 percent of jobs are not and are often low paid and low qualified today the average salary in tank is almost three times higher than in any other sector and the disparity keeps growing but while this is great for the 10 of the highly qualified Tech employees the result is that ninety percent of the society is not really part of the tech miracle in any way most people have salaries below the average of Western Europe and way below the average of the us but they still live in the world's most expensive country and so unsurprisingly Israel has one of the highest levels of inequality on the planet and there's another issue with having one sector so far ahead of every other part of the economy because if that one goes away the whole country is in real trouble like a plane of flying on a single engine and well that might be already happening because right now Israel is facing some major challenges that might cause irreparable damage to its Tech sector and take down the entire Israeli miracle and the whole economy along with it but to look at what can go wrong with putting all your eggs in one basket you don't have to go to Israel even in the most advanced economies markets can go down bubbles can pop and inflation can can go up and no investment can guarantee anything but there is one asset class that has held value for Generations despite the ups and downs of economic Cycles Contemporary Art and the sponsor of this video Masterworks is giving you access to this opportunity for the last 27 years high quality contemporary art has outpaced the S P 500 by 136 percent and while for the sake of transparency I haven't started investing with Masterworks yet myself they have delivered over 45 million in net returns to Everyday investors so far there have been 16 exits with 16 positive returns in a row and over 800 000 people have signed up so if you want to try you can sign up using the link in the description skip the wait list and get started today and now back to the video the first major problem for the future of Israel's Miracle is that the country is extremely divided so much that 60 of the citizens are worried about the possible ability of a civil war in the past nine months the country has been going through an unprecedented domestic political crisis with an intensity that Israel has never really experienced before on one hand the crisis is about judicial reform proposed by the current government that according to the opposition might undermine Israeli democracy but underneath that there is even a deeper struggle over what Israel should look like and whether it should be a modern secular liberal democracy or a highly nationalistic and a religiously conservative State and while this division has always been there it's increasingly tearing Israeli Society apart in this time the politics have very real Economic Consequences the thing is that the people who oppose the current government and its actions tend to be the ones who drive the economy the most Engineers scientists startup Founders and I.T workers are worried about what the country might look like in the future and investors who provide the necessary Venture Capital are worried about political instability according to a survey from July 2023 70 percent of Israel's startups have taken steps to relocate outside of Israel and Venture funding in the country has dropped by 67 since the start of the political crisis and if this trend continues the startup ecosystem might never recover but even if the current crisis calms down the long-term Outlook doesn't look great either because the crisis highlights another major issue a demographic one and one that's only going to get more visible the thing is that there is a significant part of the Israeli Society that's the exact opposite of a startup Nation the Orthodox Jewish Community the haradim they enjoy quite privileged treatment from the government they are Exempted from the military service only half of all ultra-orthodox men participate in the workforce and the other half lives off of Government stipends instead and their children usually don't learn mainstream subjects like math or science and instead focus on religious education today the haradim make up 13 of the population but they tend to marry early and have a lot more children than the average and so they are quickly becoming more and more populous and are expected to make up 25 percent of the population in 2050 and whatever you think of their religion is probably not going to be good for the economy Israel where a quarter of the population doesn't serve in the military isn't integrated in the job market and lacks a secular education is gonna have an increasingly hard time to remain the same country as today and the growing number of the ultra-orthodox Jews will further heighten the division and intensify the battle over the character of the country and although Israel has a good track record of overcoming impossible challenges this one is gonna be really tricky foreign </t>
+  </si>
+  <si>
+    <t>{'Explained with Dom': "Check out the sponsor of today's video Masterworks at: https://www.masterworks.art/explainedwithdom", 'Big Fueg': 'It’s a shame that leftist demonstrators are causing so much trouble', 'amir gat': "In Yom Kipur war of 1973 and after , the situation was much worse. still with optimisitic people  who had vision Israel  succeded not just to beat it's r enemies, also to start growing and flourishing, and i'm sure that Israel will find its way to overcome the curent situation.", 'Αναστάσης': "Well there is a wave of Israelies leaving the country for Europe (specially for Athens and Berlin). I myself don't think it is bad to go somewhere else for a better life as long as you are not a trouble to the place you go. All nations in the world have their ups and downs, noone can expect to be in the top forever, this changes all the time. The religious fanatics is a problem that Israel and jews in general need to deal with and stop sleeping on as the Europeans did centuries ago.", 'Ronald L': 'Theocrats destroying a once prosperous country. It has happened before. Alas.', 'DAVID': 'As an Israeli I can say that the legal system in Israel is racist and corrupt', 'Fabio de Oliveira Ribeiro': "Netanyahu's Israel is a bullshit country and the bullshit is coming to an end.", 'Sayed shaan': 'Free Palestine 🇵🇸', 'Jill dent': 'This is where the need for robots come in.  They do all the work so you can learn and pray all day.', 'ShutEyeCinema': 'Israeli here.\nA. The budget IL got from the USA is more than 40 times the amount of all other nations for the last 40 years.\nB. 10:50 - The root of the double problem lies in both the "reservation\\status quo" and "emergency mandatory recruitment" acts. Not as depicted, with them not doing their service. That\'s for politicians\' show.', 'lio demirror': 'Falastini', 'Ra Fabonacci': 'Let me guess… free money from American taxpayers?', 'Crowy': 'So basically Israel is Saudi Arabia but with tech instead of oil.', 'Laszlo Szujo': 'Israel has serious challenges to face,but.....the fact is look what they have accomplished in 70 years....why do you think the Arab world wants peace now?if they could trade and live in peace with the neighbors ,they will pass up the Europeans and the US in 50 years', 'Rami MJB': 'There is no such thing as Israel ... Free Palestine', "Train's a'comin'": 'Leviathan etc', 'Mark Underwood': "The political crisis in Israel isn't 5 months old. Israel had 5 elections since 2019. Pretty much all of that is a part of one story - a large amount of people are tired of Bibi Netanyahu and want him gone, but he doesn't want to go. This guy been in power almost the same time as Putin, and this time he had to compromise and make alliance with prettt far right parties in knesset, in order to stay in power. The controversial judicial reform serves the same purpose.\nWith all that said, same as with Putin in Russia, a lot of Israelis love Bibi and keep voting for him. It is really complicated.", 'tj chai': 'It seems many countries have undergone privatization in 70s and 80s, like UK and Israel. It would be very interesting to see a video made on it, preferably with comparison between different countries in its impact.', 'Tô assistindo': 'There are a few flaws / oversights.\n\n1. Israel has been a start up incubator since way before the 90s. Predominantly in agricultural tech, water irrigation, solar energy, and later communications.\n\n2. You underestimate the ability of Israel to put out fires and solve immediate burning existencial issues. \n\n3. There are many haredis that leave their religious lifestyle for a secular one.\n\n4. The army plays a constant key role in pumping out talent and knowledge. It’s not private sector investment\n\n5. Those people and companies leaving are doing so in protest and would happily come back. You underestimate the value of “being home” as opposed to emigrating and starting anew. \n\n\nThe current situation is Israel going thru growing pains. Rather that it being “the end” it could just as easily be a transition into a new way of doing things with new social contracts between the religious and secular, rich and poor, institutions, govt, and even the Palestinian neighbors.', 'Ari Kurtz': 'Israel is the land of miricles so betting against it is at your own risk. the article also ommits the charadi womens contribution to the economy.'}</t>
+  </si>
+  <si>
+    <t>UC5wT-aIWaUcGoAZYfN2Gs-A</t>
+  </si>
+  <si>
+    <t>Explained with Dom</t>
+  </si>
+  <si>
+    <t>2023-09-26T22:35:53Z</t>
+  </si>
+  <si>
+    <t>T3RgNHO0MxE</t>
+  </si>
+  <si>
+    <t>Plot to Assassin Israeli Minister Thwarted</t>
+  </si>
+  <si>
+    <t>Israeli authorities successfully thwart a terror attempt backed by Tehran to assassinate National Security Minister Itamar Ben-Gvir!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Israeli authorities have successfully thwarted a terrorist cell backed by Tehran planning among others an assassination plot targeting a national security minister item virenatvi's devil Klein has the details the Shin Bet revealed on Wednesday that Israel has successfully thwarted a terrorist cell backed by Tehran preventing planned attacks on the country including a plot to assassinate national security minister itamal bengvil Israeli authorities apprehended five individuals three Palestinians and two Israeli citizens who were recruited and sponsored by the Islamic Republic of Iran the Palestinians were identified as ziyad Shanti and Hassan mujarima both from Janine and Murad kamamaja from the nearby Village of kafldan the Israeli Nationals involved were Hamad hamadi from Nazareth and Yosef Hamad from mukibela in the gilbar region their tasks allegedly under the instruction of Iranian Security Services included smuggling weapons into Israel and Gathering Intelligence on two specific targets Minister itamal bengvil and former knusted member Yehuda Glick both known for advocating Jewish prayer rights on the Temple mount in a concerning development the shinbit reported that the Israel Israeli individuals conducted a test run for a future attack by setting a car on fire in Haifa and filming it to demonstrate their allegiance to their Iranian sponsors earlier this month Mossad director David barnaya revealed that in collaboration with International allies they had thwarted 27 plots by Iran to harm Israelis and Jews Beyond Israel's borders this year while now emphasized that these plots were orchestrated and directed by Iran across the globe including Europe Africa southeast Asia and South America </t>
+  </si>
+  <si>
+    <t>{'TribalCash': 'An in depth look at cases like this a few years ago in The Intercept, Google "how the fbi created a terrorist". All of the security personnel get promotions and the only ones who lose are the disabled kids they use for the plot.', 'Maher Wachaa': 'They going to get the dirty pig 🐖', 'ITALIA MIA CASA': 'https://italiamiacasa.blogspot.com/', 'Jalal Khan': 'Love palestine\nViva palestine \nGreat palestine ❤❤❤❤', 'AFRICAN CULTURE GHETTO KING': "They must get a beat they can't run away home and away", 'Edmund Basson': 'Baruch Hashem.... Thank you for your service 🇮🇱 ✡️ 🇮🇱 🕎 🇮🇱  Shabbat Shalom!!!!', 'Mavis Mtshaulana': 'God bless Israel and her citizens and the government leaders in the fighting for their God given land against terrorism.', 'Doranda Colbert': 'G-D will contend with those who contend with Israel.', 'Breeks': 'Work well-done by the security forces', 'VSS': 'Well done  ISRAEL.....Long live ISRAEL......❤🙏', 'Sun Down': 'Amnesty international has already stated that Israel commits war crimes by murdering Palestinian people and stealing Palestinian land yet the international community does nothing to stop the massacre of Palestinian children by Zionist Jews', 'PEDRO RIVERA': 'ZECHARIAH CHAPTER 12 VERSE 3.📜✍️\nJOEL CHAPTER 3.📜✍️✍️\nEZEKIEL CHAPTER 39 VERSE 12.📜✍️✍️✍️\n🇵🇸🇵🇰🇸🇾🇷🇺🇲🇽🇰🇵🇸🇦🇻🇪🇹🇷🇺🇳🇨🇺🇪🇸🇪🇺🇮🇶🇨🇳🇮🇷\n⚰️⚰️⚰️⚰️⚰️⚰️⚰️⚰️⚰️⚰️⚰️⚰️⚰️⚰️⚰️⚰️\n👆🏿👆🏿👆🏿👆🏿👆🏿👆🏿👆🏿👆🏿👆🏿👆🏿👆🏿👆🏿👆🏿👆🏿👆🏿👆🏿', 'Maureen Henderson': 'God bless Mossad , the IDF and Shin Bet .. Long live you blessed people . Love to all .🇮🇱🇮🇱🇮🇱🌸', 'Pamela Hackner': 'Baruch Hashem he is safe .'}</t>
+  </si>
+  <si>
+    <t>UCuxgEyMeaks7HS5gAw6Tt7w</t>
+  </si>
+  <si>
+    <t>ILTV Israel News</t>
+  </si>
+  <si>
+    <t>2023-09-28T18:00:11Z</t>
+  </si>
+  <si>
+    <t>Most certainly Zionism is a racist ideology and it is largely responsible for the Nakba." During the UK premiere event of the film …</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +2258,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,59 +2582,953 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="48.83203125" customWidth="1"/>
+    <col min="3" max="3" width="45" customWidth="1"/>
+    <col min="4" max="4" width="31.1640625" customWidth="1"/>
+    <col min="5" max="5" width="28.6640625" customWidth="1"/>
+    <col min="6" max="6" width="29.1640625" customWidth="1"/>
+    <col min="7" max="7" width="26.5" customWidth="1"/>
+    <col min="8" max="8" width="24.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Video ID</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Video Title</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Video Description</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Video caption</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Video comments</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Channel ID</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Channel Title</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Publish time</t>
-        </is>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" t="s">
+        <v>84</v>
+      </c>
+      <c r="H14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" t="s">
+        <v>98</v>
+      </c>
+      <c r="H16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17" t="s">
+        <v>106</v>
+      </c>
+      <c r="H17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" t="s">
+        <v>111</v>
+      </c>
+      <c r="E18" t="s">
+        <v>112</v>
+      </c>
+      <c r="F18" t="s">
+        <v>113</v>
+      </c>
+      <c r="G18" t="s">
+        <v>114</v>
+      </c>
+      <c r="H18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C19" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E19" t="s">
+        <v>120</v>
+      </c>
+      <c r="F19" t="s">
+        <v>121</v>
+      </c>
+      <c r="G19" t="s">
+        <v>122</v>
+      </c>
+      <c r="H19" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>124</v>
+      </c>
+      <c r="B20" t="s">
+        <v>125</v>
+      </c>
+      <c r="C20" t="s">
+        <v>126</v>
+      </c>
+      <c r="D20" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" t="s">
+        <v>128</v>
+      </c>
+      <c r="G20" t="s">
+        <v>129</v>
+      </c>
+      <c r="H20" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>131</v>
+      </c>
+      <c r="B21" t="s">
+        <v>132</v>
+      </c>
+      <c r="C21" t="s">
+        <v>133</v>
+      </c>
+      <c r="D21" t="s">
+        <v>134</v>
+      </c>
+      <c r="E21" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" t="s">
+        <v>121</v>
+      </c>
+      <c r="G21" t="s">
+        <v>122</v>
+      </c>
+      <c r="H21" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>136</v>
+      </c>
+      <c r="B22" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" t="s">
+        <v>138</v>
+      </c>
+      <c r="D22" t="s">
+        <v>139</v>
+      </c>
+      <c r="E22" t="s">
+        <v>140</v>
+      </c>
+      <c r="F22" t="s">
+        <v>105</v>
+      </c>
+      <c r="G22" t="s">
+        <v>106</v>
+      </c>
+      <c r="H22" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>142</v>
+      </c>
+      <c r="B23" t="s">
+        <v>143</v>
+      </c>
+      <c r="C23" t="s">
+        <v>144</v>
+      </c>
+      <c r="D23" t="s">
+        <v>145</v>
+      </c>
+      <c r="E23" t="s">
+        <v>146</v>
+      </c>
+      <c r="F23" t="s">
+        <v>147</v>
+      </c>
+      <c r="G23" t="s">
+        <v>148</v>
+      </c>
+      <c r="H23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>150</v>
+      </c>
+      <c r="B24" t="s">
+        <v>151</v>
+      </c>
+      <c r="C24" t="s">
+        <v>152</v>
+      </c>
+      <c r="D24" t="s">
+        <v>153</v>
+      </c>
+      <c r="E24" t="s">
+        <v>154</v>
+      </c>
+      <c r="F24" t="s">
+        <v>155</v>
+      </c>
+      <c r="G24" t="s">
+        <v>156</v>
+      </c>
+      <c r="H24" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>158</v>
+      </c>
+      <c r="B25" t="s">
+        <v>159</v>
+      </c>
+      <c r="C25" t="s">
+        <v>160</v>
+      </c>
+      <c r="E25" t="s">
+        <v>161</v>
+      </c>
+      <c r="F25" t="s">
+        <v>162</v>
+      </c>
+      <c r="G25" t="s">
+        <v>163</v>
+      </c>
+      <c r="H25" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>165</v>
+      </c>
+      <c r="B26" t="s">
+        <v>166</v>
+      </c>
+      <c r="C26" t="s">
+        <v>167</v>
+      </c>
+      <c r="E26" t="s">
+        <v>168</v>
+      </c>
+      <c r="F26" t="s">
+        <v>169</v>
+      </c>
+      <c r="G26" t="s">
+        <v>170</v>
+      </c>
+      <c r="H26" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>172</v>
+      </c>
+      <c r="B27" t="s">
+        <v>173</v>
+      </c>
+      <c r="C27" t="s">
+        <v>174</v>
+      </c>
+      <c r="D27" t="s">
+        <v>175</v>
+      </c>
+      <c r="E27" t="s">
+        <v>176</v>
+      </c>
+      <c r="F27" t="s">
+        <v>105</v>
+      </c>
+      <c r="G27" t="s">
+        <v>106</v>
+      </c>
+      <c r="H27" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>178</v>
+      </c>
+      <c r="B28" t="s">
+        <v>179</v>
+      </c>
+      <c r="C28" t="s">
+        <v>180</v>
+      </c>
+      <c r="D28" t="s">
+        <v>181</v>
+      </c>
+      <c r="E28" t="s">
+        <v>182</v>
+      </c>
+      <c r="F28" t="s">
+        <v>45</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>184</v>
+      </c>
+      <c r="B29" t="s">
+        <v>185</v>
+      </c>
+      <c r="C29" t="s">
+        <v>227</v>
+      </c>
+      <c r="D29" t="s">
+        <v>186</v>
+      </c>
+      <c r="E29" t="s">
+        <v>187</v>
+      </c>
+      <c r="F29" t="s">
+        <v>121</v>
+      </c>
+      <c r="G29" t="s">
+        <v>122</v>
+      </c>
+      <c r="H29" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>131</v>
+      </c>
+      <c r="B30" t="s">
+        <v>132</v>
+      </c>
+      <c r="C30" t="s">
+        <v>133</v>
+      </c>
+      <c r="D30" t="s">
+        <v>134</v>
+      </c>
+      <c r="E30" t="s">
+        <v>74</v>
+      </c>
+      <c r="F30" t="s">
+        <v>121</v>
+      </c>
+      <c r="G30" t="s">
+        <v>122</v>
+      </c>
+      <c r="H30" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>142</v>
+      </c>
+      <c r="B31" t="s">
+        <v>143</v>
+      </c>
+      <c r="C31" t="s">
+        <v>144</v>
+      </c>
+      <c r="D31" t="s">
+        <v>145</v>
+      </c>
+      <c r="E31" t="s">
+        <v>146</v>
+      </c>
+      <c r="F31" t="s">
+        <v>147</v>
+      </c>
+      <c r="G31" t="s">
+        <v>148</v>
+      </c>
+      <c r="H31" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>189</v>
+      </c>
+      <c r="B32" t="s">
+        <v>190</v>
+      </c>
+      <c r="C32" t="s">
+        <v>191</v>
+      </c>
+      <c r="D32" t="s">
+        <v>192</v>
+      </c>
+      <c r="E32" t="s">
+        <v>193</v>
+      </c>
+      <c r="F32" t="s">
+        <v>97</v>
+      </c>
+      <c r="G32" t="s">
+        <v>98</v>
+      </c>
+      <c r="H32" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>195</v>
+      </c>
+      <c r="B33" t="s">
+        <v>196</v>
+      </c>
+      <c r="C33" t="s">
+        <v>197</v>
+      </c>
+      <c r="D33" t="s">
+        <v>198</v>
+      </c>
+      <c r="E33" t="s">
+        <v>199</v>
+      </c>
+      <c r="F33" t="s">
+        <v>200</v>
+      </c>
+      <c r="G33" t="s">
+        <v>201</v>
+      </c>
+      <c r="H33" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>203</v>
+      </c>
+      <c r="B34" t="s">
+        <v>204</v>
+      </c>
+      <c r="C34" t="s">
+        <v>205</v>
+      </c>
+      <c r="D34" t="s">
+        <v>206</v>
+      </c>
+      <c r="E34" t="s">
+        <v>207</v>
+      </c>
+      <c r="F34" t="s">
+        <v>208</v>
+      </c>
+      <c r="G34" t="s">
+        <v>209</v>
+      </c>
+      <c r="H34" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>211</v>
+      </c>
+      <c r="B35" t="s">
+        <v>212</v>
+      </c>
+      <c r="C35" t="s">
+        <v>213</v>
+      </c>
+      <c r="D35" t="s">
+        <v>214</v>
+      </c>
+      <c r="E35" t="s">
+        <v>215</v>
+      </c>
+      <c r="F35" t="s">
+        <v>216</v>
+      </c>
+      <c r="G35" t="s">
+        <v>217</v>
+      </c>
+      <c r="H35" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>219</v>
+      </c>
+      <c r="B36" t="s">
+        <v>220</v>
+      </c>
+      <c r="C36" t="s">
+        <v>221</v>
+      </c>
+      <c r="D36" t="s">
+        <v>222</v>
+      </c>
+      <c r="E36" t="s">
+        <v>223</v>
+      </c>
+      <c r="F36" t="s">
+        <v>224</v>
+      </c>
+      <c r="G36" t="s">
+        <v>225</v>
+      </c>
+      <c r="H36" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
